--- a/daily expenses.xlsx
+++ b/daily expenses.xlsx
@@ -1,74 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragon\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C38F35-A897-48E5-BEE2-6D4937FBCEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-330" yWindow="4425" windowWidth="18000" windowHeight="9360" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
+    <workbookView windowWidth="18530" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="93">
   <si>
     <t>Tiền</t>
   </si>
   <si>
+    <t>Nhận lại</t>
+  </si>
+  <si>
+    <t>Mượn nợ</t>
+  </si>
+  <si>
     <t>Thứ 4</t>
   </si>
   <si>
     <t>đổ xăng 40k, cơm trưa 25k, hủ tiếu tối 40k</t>
   </si>
   <si>
-    <t>Nhận lại</t>
-  </si>
-  <si>
-    <t>Mượn nợ</t>
-  </si>
-  <si>
     <t>40k tiền cơm điện tử, 20k hủ tiếu tối (Huy)</t>
   </si>
   <si>
+    <t>Thứ 5</t>
+  </si>
+  <si>
     <t>xôi</t>
   </si>
   <si>
+    <t>40000 tiền cơm điện tử</t>
+  </si>
+  <si>
     <t>Thứ 6</t>
   </si>
   <si>
-    <t>Thứ 5</t>
-  </si>
-  <si>
     <t>bánh mì 13k, ăn trưa 25k, ăn tối 25k, áo mưa 50k</t>
   </si>
   <si>
-    <t>40000 tiền cơm điện tử</t>
-  </si>
-  <si>
     <t>Thứ 7</t>
   </si>
   <si>
@@ -81,10 +62,10 @@
     <t>CN</t>
   </si>
   <si>
+    <t>ăn tối 40k, (Huy 20k)</t>
+  </si>
+  <si>
     <t>Thứ 2</t>
-  </si>
-  <si>
-    <t>ăn tối 40k, (Huy 20k)</t>
   </si>
   <si>
     <t>sáng 15k, trưa 25k, ăn tối 20k, đổ xăng 40k</t>
@@ -139,21 +120,24 @@
     <t>ăn trưa 25k, thớt 40k, khẩu trang 25k, thớt bách hóa xanh 43k</t>
   </si>
   <si>
+    <t>270k quạt, trưa 25k, cơm tối 20k</t>
+  </si>
+  <si>
+    <t>cơm điện tử</t>
+  </si>
+  <si>
     <t>ăn trưa 25k, 200k lẩu, 375k thùng bia, 15k pocari</t>
   </si>
   <si>
     <t>tiền cơm điện tử</t>
   </si>
   <si>
-    <t>270k quạt, trưa 25k, cơm tối 20k</t>
-  </si>
-  <si>
-    <t>cơm điện tử</t>
-  </si>
-  <si>
     <t>25k ăn trưa</t>
   </si>
   <si>
+    <t>Hết tháng</t>
+  </si>
+  <si>
     <t>đổ xăng 50k, đóng tiền phòng 1659k, mua kệ 250k, 2 ổ bánh mì 30k</t>
   </si>
   <si>
@@ -166,9 +150,6 @@
     <t>25k ăn trưa, mua đồ bách hóa xanh (91k), nước ngọt và đá 19k</t>
   </si>
   <si>
-    <t>Hết tháng</t>
-  </si>
-  <si>
     <t>tiền cơm điện tử, Huy trả 150k</t>
   </si>
   <si>
@@ -181,33 +162,24 @@
     <t>ăn trưa 25k, chia tiền ăn tối 35k</t>
   </si>
   <si>
+    <t>mua bia</t>
+  </si>
+  <si>
     <t>Tiền cơm điện tử</t>
   </si>
   <si>
-    <t>mua bia</t>
+    <t>mua nước ngọt và đá, 150 mua giáo trình tiếng anh</t>
   </si>
   <si>
     <t>25k com trưa, 5k giữ xe, 1k nước đá</t>
   </si>
   <si>
-    <t>mua nước ngọt và đá, 150 mua giáo trình tiếng anh</t>
-  </si>
-  <si>
     <t>25k com trưa, 5k giữ xe, 1k nước đá, xăng 50k, bhx 60k</t>
   </si>
   <si>
     <t>trả tiền phòng 783k, café + đường 130k</t>
   </si>
   <si>
-    <t>Kit STM32F103C8T6</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>esp32 cam</t>
-  </si>
-  <si>
     <t>mua đồ bách hóa xanh, đổ xăng</t>
   </si>
   <si>
@@ -223,6 +195,9 @@
     <t>mua thit 20k, hành tỏi 35k, ly đựng muỗng đũa 60k, nước 10k+5k giữ xe</t>
   </si>
   <si>
+    <t>tiền ktx</t>
+  </si>
+  <si>
     <t>ăn trưa 25k, đổ xăng 50k</t>
   </si>
   <si>
@@ -241,37 +216,34 @@
     <t>cơm trưa 25k, 5k giữ xe</t>
   </si>
   <si>
-    <t>tiền ktx</t>
-  </si>
-  <si>
     <t>15k ổi, 25k cơm trưa, 20k thịt, 19k coca + nước đá</t>
-  </si>
-  <si>
-    <t>25k com trưa, 20k thịt, 30k thối tiền khách, 1k nước đá</t>
   </si>
   <si>
     <t>116406 (20k)
 116410 (10k)</t>
   </si>
   <si>
+    <t>25k com trưa, 20k thịt, 30k thối tiền khách, 1k nước đá</t>
+  </si>
+  <si>
     <t>2k</t>
   </si>
   <si>
     <t>2k thói tiền khách, 25k ăn trưa, 137k mua đường+milo+bột giặt, 1k nước đá, 30k ăn tối</t>
   </si>
   <si>
+    <t>cơm trưa 25k, mua đồ ăn 32k đóng tiền học av 3760k</t>
+  </si>
+  <si>
     <t>25k com trưa, 1k nước đá, 90k tiền bia, 60k tiền tiêu, 406k tiền bách hóa xanh</t>
   </si>
   <si>
-    <t>cơm trưa 25k, mua đồ ăn 32k đóng tiền học av 3760k</t>
+    <t>mẹ gởi</t>
   </si>
   <si>
     <t>mua đồ ăn tối 30k, nồi 46k, tương ớt dầu gợi 65k, nước ngọt+đá 19k, arduino uno 150k</t>
   </si>
   <si>
-    <t>mẹ gởi</t>
-  </si>
-  <si>
     <t>tiền thối khách + phụ cấp</t>
   </si>
   <si>
@@ -281,12 +253,12 @@
     <t>35k gạo, 11 nước ngọt</t>
   </si>
   <si>
+    <t>sửa điện thoại 1500tr 1,5k nước đá</t>
+  </si>
+  <si>
     <t>mua đường và muối 32k, 25k cơm trưa</t>
   </si>
   <si>
-    <t>sửa điện thoại 1500tr 1,5k nước đá</t>
-  </si>
-  <si>
     <t>đổ xăng</t>
   </si>
   <si>
@@ -309,33 +281,195 @@
   </si>
   <si>
     <t>53k quà, 40k nước, nước ngọt 10k, mua đồ ăn tối 20k</t>
+  </si>
+  <si>
+    <t>20k thịt, 40k gạo nước</t>
+  </si>
+  <si>
+    <t>15k muỗng</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Kit STM32F103C8T6</t>
+  </si>
+  <si>
+    <t>esp32 cam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,8 +482,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -357,43 +677,325 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -442,7 +1044,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -475,26 +1077,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -527,23 +1112,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -685,51 +1253,46 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAE49B0-AACA-4A77-BE97-C23002D033D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D3:V225"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C109" workbookViewId="0">
-      <selection activeCell="F116" sqref="F116"/>
+      <selection activeCell="J121" sqref="J121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.2818181818182" customWidth="1"/>
+    <col min="5" max="5" width="10.5727272727273" customWidth="1"/>
+    <col min="9" max="9" width="13.2818181818182" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="10.5727272727273" customWidth="1"/>
+    <col min="15" max="15" width="19.7090909090909" customWidth="1"/>
+    <col min="16" max="16" width="11.5727272727273" customWidth="1"/>
+    <col min="17" max="17" width="13.2818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="9:21">
       <c r="I3" t="s">
         <v>0</v>
       </c>
       <c r="P3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="7:17">
+      <c r="G4" t="s">
         <v>3</v>
       </c>
-      <c r="U3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="G4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="H4" s="3">
         <v>44783</v>
       </c>
       <c r="I4">
@@ -737,7 +1300,7 @@
         <v>123000</v>
       </c>
       <c r="J4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P4">
         <f>40000+20000</f>
@@ -747,39 +1310,39 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="7:17">
       <c r="G5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="1">
+        <v>6</v>
+      </c>
+      <c r="H5" s="3">
         <v>44784</v>
       </c>
       <c r="I5">
         <v>24000</v>
       </c>
       <c r="J5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P5">
         <v>40000</v>
       </c>
       <c r="Q5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="7:17">
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="3">
+        <v>44785</v>
+      </c>
+      <c r="I6">
+        <f>13000+25000+25000+50000</f>
+        <v>113000</v>
+      </c>
+      <c r="J6" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="G6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="1">
-        <v>44785</v>
-      </c>
-      <c r="I6">
-        <f>13000+25000+25000 +50000</f>
-        <v>113000</v>
-      </c>
-      <c r="J6" t="s">
-        <v>9</v>
       </c>
       <c r="P6">
         <v>40000</v>
@@ -788,11 +1351,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="7:17">
       <c r="G7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="3">
         <v>44786</v>
       </c>
       <c r="I7">
@@ -809,11 +1372,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="7:10">
       <c r="G8" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="3">
         <v>44787</v>
       </c>
       <c r="I8">
@@ -821,14 +1384,14 @@
         <v>40000</v>
       </c>
       <c r="J8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="7:17">
+      <c r="G9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="1">
+      <c r="H9" s="3">
         <v>44788</v>
       </c>
       <c r="I9">
@@ -846,11 +1409,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="7:17">
       <c r="G10" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="3">
         <v>44789</v>
       </c>
       <c r="I10">
@@ -867,11 +1430,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="7:17">
       <c r="G11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="3">
         <v>44790</v>
       </c>
       <c r="I11">
@@ -888,11 +1451,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="7:17">
       <c r="G12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="1">
+        <v>6</v>
+      </c>
+      <c r="H12" s="3">
         <v>44791</v>
       </c>
       <c r="I12">
@@ -909,11 +1472,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="7:17">
       <c r="G13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="1">
+        <v>9</v>
+      </c>
+      <c r="H13" s="3">
         <v>44792</v>
       </c>
       <c r="I13">
@@ -930,11 +1493,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="7:17">
       <c r="G14" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="3">
         <v>44793</v>
       </c>
       <c r="I14">
@@ -951,31 +1514,31 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="7:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" ht="30.75" customHeight="1" spans="7:15">
       <c r="G15" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="3">
         <v>44794</v>
       </c>
       <c r="I15">
         <f>50000+40000+273000</f>
         <v>363000</v>
       </c>
-      <c r="J15" s="13" t="s">
+      <c r="J15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-    </row>
-    <row r="16" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="7:18">
       <c r="G16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="1">
+        <v>16</v>
+      </c>
+      <c r="H16" s="3">
         <v>44795</v>
       </c>
       <c r="I16">
@@ -993,12 +1556,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D17" s="2"/>
+    <row r="17" spans="4:17">
+      <c r="D17" s="4"/>
       <c r="G17" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="3">
         <v>44796</v>
       </c>
       <c r="I17">
@@ -1016,14 +1579,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:17">
       <c r="G18" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3">
         <v>44797</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="7">
         <v>572500</v>
       </c>
       <c r="J18" t="s">
@@ -1036,11 +1599,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:15">
       <c r="G19" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="1">
+        <v>6</v>
+      </c>
+      <c r="H19" s="3">
         <v>44798</v>
       </c>
       <c r="I19">
@@ -1050,14 +1613,14 @@
       <c r="J19" t="s">
         <v>33</v>
       </c>
-      <c r="M19" s="2"/>
-      <c r="O19" s="2"/>
-    </row>
-    <row r="20" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="M19" s="4"/>
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" spans="7:17">
       <c r="G20" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="1">
+        <v>9</v>
+      </c>
+      <c r="H20" s="3">
         <v>44799</v>
       </c>
       <c r="I20">
@@ -1065,20 +1628,20 @@
         <v>270045</v>
       </c>
       <c r="J20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P20">
         <v>80000</v>
       </c>
       <c r="Q20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="4:22" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="7:17">
       <c r="G21" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="3">
         <v>44800</v>
       </c>
       <c r="I21">
@@ -1086,28 +1649,28 @@
         <v>615000</v>
       </c>
       <c r="J21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P21">
         <v>40000</v>
       </c>
       <c r="Q21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="4:22" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="7:8">
       <c r="G22" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="3">
         <v>44801</v>
       </c>
     </row>
-    <row r="23" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:10">
       <c r="G23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="1">
+        <v>16</v>
+      </c>
+      <c r="H23" s="3">
         <v>44802</v>
       </c>
       <c r="I23">
@@ -1118,11 +1681,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:10">
       <c r="G24" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="3">
         <v>44803</v>
       </c>
       <c r="I24">
@@ -1132,11 +1695,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:10">
       <c r="G25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1">
+        <v>3</v>
+      </c>
+      <c r="H25" s="3">
         <v>44804</v>
       </c>
       <c r="I25">
@@ -1146,139 +1709,139 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:8">
       <c r="G26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="1">
+        <v>6</v>
+      </c>
+      <c r="H26" s="3">
         <v>44805</v>
       </c>
     </row>
-    <row r="27" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:8">
       <c r="G27" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="1">
+        <v>9</v>
+      </c>
+      <c r="H27" s="3">
         <v>44806</v>
       </c>
     </row>
-    <row r="28" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="7:8">
       <c r="G28" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="3">
         <v>44807</v>
       </c>
     </row>
-    <row r="29" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:22">
       <c r="E29" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="3">
         <v>44808</v>
       </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-    </row>
-    <row r="30" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+    </row>
+    <row r="30" spans="7:8">
       <c r="G30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="1">
+        <v>16</v>
+      </c>
+      <c r="H30" s="3">
         <v>44809</v>
       </c>
     </row>
-    <row r="31" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:17">
       <c r="E31">
         <v>1000</v>
       </c>
       <c r="G31" t="s">
         <v>19</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="3">
         <v>44810</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="4">
         <f>50000+1659000+250000+30000</f>
         <v>1989000</v>
       </c>
       <c r="J31" t="s">
-        <v>39</v>
-      </c>
-      <c r="P31" s="2">
+        <v>40</v>
+      </c>
+      <c r="P31" s="4">
         <f>700000</f>
         <v>700000</v>
       </c>
       <c r="Q31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="4:22" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="7:16">
       <c r="G32" t="s">
-        <v>1</v>
-      </c>
-      <c r="H32" s="1">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3">
         <v>44811</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="4">
         <f>25000+30000</f>
         <v>55000</v>
       </c>
       <c r="J32" t="s">
-        <v>41</v>
-      </c>
-      <c r="P32" s="2"/>
-    </row>
-    <row r="33" spans="5:17" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="P32" s="4"/>
+    </row>
+    <row r="33" spans="7:17">
       <c r="G33" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="1">
+        <v>6</v>
+      </c>
+      <c r="H33" s="3">
         <v>44812</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="4">
         <v>25000</v>
       </c>
       <c r="J33" t="s">
         <v>38</v>
       </c>
-      <c r="P33" s="2">
+      <c r="P33" s="4">
         <v>40000</v>
       </c>
       <c r="Q33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="5:17" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="7:17">
       <c r="G34" t="s">
-        <v>7</v>
-      </c>
-      <c r="H34" s="1">
+        <v>9</v>
+      </c>
+      <c r="H34" s="3">
         <v>44813</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="4">
         <f>25000+27000+64000+19000</f>
         <v>135000</v>
       </c>
       <c r="J34" t="s">
-        <v>42</v>
-      </c>
-      <c r="P34" s="2">
+        <v>43</v>
+      </c>
+      <c r="P34" s="4">
         <f>80000+150000</f>
         <v>230000</v>
       </c>
@@ -1286,69 +1849,69 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:16">
       <c r="G35" t="s">
         <v>11</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="3">
         <v>44814</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="4">
         <v>26000</v>
       </c>
       <c r="J35" t="s">
         <v>45</v>
       </c>
-      <c r="P35" s="2"/>
-    </row>
-    <row r="36" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E36" s="6"/>
+      <c r="P35" s="4"/>
+    </row>
+    <row r="36" spans="5:17">
+      <c r="E36" s="5"/>
       <c r="G36" t="s">
         <v>14</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="3">
         <v>44815</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="4">
         <f>500000+330000+40000+22000</f>
         <v>892000</v>
       </c>
       <c r="J36" t="s">
         <v>46</v>
       </c>
-      <c r="P36" s="2">
+      <c r="P36" s="4">
         <v>40000</v>
       </c>
       <c r="Q36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="5:17" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="7:17">
       <c r="G37" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" s="1">
+        <v>16</v>
+      </c>
+      <c r="H37" s="3">
         <v>44816</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="4">
         <v>25000</v>
       </c>
-      <c r="Q37" s="2"/>
-    </row>
-    <row r="38" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="Q37" s="4"/>
+    </row>
+    <row r="38" spans="7:16">
       <c r="G38" t="s">
         <v>19</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="3">
         <v>44817</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="4">
         <f>15000+25000</f>
         <v>40000</v>
       </c>
-      <c r="P38" s="2"/>
-    </row>
-    <row r="39" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="P38" s="4"/>
+    </row>
+    <row r="39" spans="5:16">
       <c r="E39">
         <v>116</v>
       </c>
@@ -1356,67 +1919,67 @@
         <v>130</v>
       </c>
       <c r="G39" t="s">
-        <v>1</v>
-      </c>
-      <c r="H39" s="1">
+        <v>3</v>
+      </c>
+      <c r="H39" s="3">
         <v>44818</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="4">
         <f>E39*1000</f>
         <v>116000</v>
       </c>
-      <c r="P39" s="2">
+      <c r="P39" s="4">
         <f>F39*1000</f>
         <v>130000</v>
       </c>
     </row>
-    <row r="40" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:16">
       <c r="E40">
         <f>25+35</f>
         <v>60</v>
       </c>
       <c r="G40" t="s">
-        <v>8</v>
-      </c>
-      <c r="H40" s="1">
+        <v>6</v>
+      </c>
+      <c r="H40" s="3">
         <v>44819</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40" s="4">
         <f t="shared" ref="I40:I103" si="0">E40*1000</f>
         <v>60000</v>
       </c>
       <c r="J40" t="s">
         <v>47</v>
       </c>
-      <c r="P40" s="2">
-        <f t="shared" ref="P40:P92" si="1">F40*1000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="P40" s="4">
+        <f t="shared" ref="P40:P93" si="1">F40*1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="5:16">
       <c r="E41">
         <f>25+370</f>
         <v>395</v>
       </c>
       <c r="G41" t="s">
-        <v>7</v>
-      </c>
-      <c r="H41" s="1">
+        <v>9</v>
+      </c>
+      <c r="H41" s="3">
         <v>44820</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="4">
         <f t="shared" si="0"/>
         <v>395000</v>
       </c>
       <c r="J41" t="s">
-        <v>49</v>
-      </c>
-      <c r="P41" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="5:17" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="P41" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="5:16">
       <c r="E42">
         <f>50+25</f>
         <v>75</v>
@@ -1424,19 +1987,19 @@
       <c r="G42" t="s">
         <v>11</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="3">
         <v>44821</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="4">
         <f t="shared" si="0"/>
         <v>75000</v>
       </c>
-      <c r="P42" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="P42" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="5:17">
       <c r="E43">
         <v>69</v>
       </c>
@@ -1446,63 +2009,63 @@
       <c r="G43" t="s">
         <v>14</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43" s="3">
         <v>44822</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="4">
         <f t="shared" si="0"/>
         <v>69000</v>
       </c>
-      <c r="K43" s="6"/>
-      <c r="P43" s="2">
+      <c r="K43" s="5"/>
+      <c r="P43" s="4">
         <f t="shared" si="1"/>
         <v>120000</v>
       </c>
       <c r="Q43" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="5:17" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="5:16">
       <c r="E44">
         <v>25</v>
       </c>
       <c r="G44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H44" s="1">
+        <v>16</v>
+      </c>
+      <c r="H44" s="3">
         <v>44823</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="4">
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
-      <c r="P44" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="P44" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="5:16">
       <c r="E45">
         <v>25</v>
       </c>
       <c r="G45" t="s">
         <v>19</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H45" s="3">
         <v>44824</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45" s="4">
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="P45" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="P45" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="5:16">
       <c r="E46">
         <v>25</v>
       </c>
@@ -1510,67 +2073,67 @@
         <v>120</v>
       </c>
       <c r="G46" t="s">
-        <v>1</v>
-      </c>
-      <c r="H46" s="1">
+        <v>3</v>
+      </c>
+      <c r="H46" s="3">
         <v>44825</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46" s="4">
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
-      <c r="P46" s="2">
+      <c r="P46" s="4">
         <f t="shared" si="1"/>
         <v>120000</v>
       </c>
     </row>
-    <row r="47" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:16">
       <c r="E47">
         <f>19+150</f>
         <v>169</v>
       </c>
       <c r="G47" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="1">
+        <v>6</v>
+      </c>
+      <c r="H47" s="3">
         <v>44826</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47" s="4">
         <f t="shared" si="0"/>
         <v>169000</v>
       </c>
       <c r="J47" t="s">
-        <v>51</v>
-      </c>
-      <c r="P47" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="5:17" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="P47" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="5:16">
       <c r="E48">
         <f>25+6</f>
         <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>7</v>
-      </c>
-      <c r="H48" s="1">
+        <v>9</v>
+      </c>
+      <c r="H48" s="3">
         <v>44827</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I48" s="4">
         <f t="shared" si="0"/>
         <v>31000</v>
       </c>
       <c r="J48" t="s">
-        <v>50</v>
-      </c>
-      <c r="P48" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="5:16" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="P48" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="5:16">
       <c r="E49">
         <f>25+50+60+5+1</f>
         <v>141</v>
@@ -1578,79 +2141,79 @@
       <c r="G49" t="s">
         <v>11</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49" s="3">
         <v>44828</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I49" s="4">
         <f t="shared" si="0"/>
         <v>141000</v>
       </c>
       <c r="J49" t="s">
         <v>52</v>
       </c>
-      <c r="P49" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="P49" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="5:16">
       <c r="E50">
         <v>25</v>
       </c>
       <c r="G50" t="s">
         <v>14</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50" s="3">
         <v>44829</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50" s="4">
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
-      <c r="P50" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="P50" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="5:16">
       <c r="E51">
         <v>25</v>
       </c>
       <c r="G51" t="s">
-        <v>15</v>
-      </c>
-      <c r="H51" s="1">
+        <v>16</v>
+      </c>
+      <c r="H51" s="3">
         <v>44830</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="4">
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
-      <c r="P51" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="P51" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="5:16">
       <c r="E52">
         <v>25</v>
       </c>
       <c r="G52" t="s">
         <v>19</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H52" s="3">
         <v>44831</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52" s="4">
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
-      <c r="P52" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="P52" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="5:16">
       <c r="E53">
         <f>25+5+1</f>
         <v>31</v>
@@ -1659,64 +2222,64 @@
         <v>393</v>
       </c>
       <c r="G53" t="s">
-        <v>1</v>
-      </c>
-      <c r="H53" s="1">
+        <v>3</v>
+      </c>
+      <c r="H53" s="3">
         <v>44832</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I53" s="4">
         <f t="shared" si="0"/>
         <v>31000</v>
       </c>
-      <c r="P53" s="2">
+      <c r="P53" s="4">
         <f t="shared" si="1"/>
         <v>393000</v>
       </c>
     </row>
-    <row r="54" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:16">
       <c r="E54">
         <f>783+130+25+1</f>
         <v>939</v>
       </c>
       <c r="G54" t="s">
-        <v>8</v>
-      </c>
-      <c r="H54" s="1">
+        <v>6</v>
+      </c>
+      <c r="H54" s="3">
         <v>44833</v>
       </c>
-      <c r="I54" s="2">
+      <c r="I54" s="4">
         <f t="shared" si="0"/>
         <v>939000</v>
       </c>
       <c r="J54" t="s">
         <v>53</v>
       </c>
-      <c r="P54" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="P54" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="5:16">
       <c r="E55">
         <f>25+1+5</f>
         <v>31</v>
       </c>
       <c r="G55" t="s">
-        <v>7</v>
-      </c>
-      <c r="H55" s="1">
+        <v>9</v>
+      </c>
+      <c r="H55" s="3">
         <v>44834</v>
       </c>
-      <c r="I55" s="2">
+      <c r="I55" s="4">
         <f t="shared" si="0"/>
         <v>31000</v>
       </c>
-      <c r="P55" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="P55" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="5:16">
       <c r="E56">
         <f>22+25</f>
         <v>47</v>
@@ -1724,40 +2287,40 @@
       <c r="G56" t="s">
         <v>11</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H56" s="3">
         <v>44835</v>
       </c>
-      <c r="I56" s="2">
+      <c r="I56" s="4">
         <f t="shared" si="0"/>
         <v>47000</v>
       </c>
-      <c r="P56" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="5:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E57" s="4">
+      <c r="P56" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="5:16">
+      <c r="E57" s="1">
         <v>6</v>
       </c>
       <c r="G57" t="s">
         <v>14</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H57" s="3">
         <v>44836</v>
       </c>
-      <c r="I57" s="7">
+      <c r="I57" s="8">
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
-      <c r="J57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="P57" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="J57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="P57" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="5:16">
       <c r="E58">
         <v>26</v>
       </c>
@@ -1765,21 +2328,21 @@
         <v>5125</v>
       </c>
       <c r="G58" t="s">
-        <v>15</v>
-      </c>
-      <c r="H58" s="1">
+        <v>16</v>
+      </c>
+      <c r="H58" s="3">
         <v>44837</v>
       </c>
-      <c r="I58" s="2">
+      <c r="I58" s="4">
         <f t="shared" si="0"/>
         <v>26000</v>
       </c>
-      <c r="P58" s="2">
+      <c r="P58" s="4">
         <f t="shared" si="1"/>
         <v>5125000</v>
       </c>
     </row>
-    <row r="59" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:16">
       <c r="E59">
         <f>50+25+53+697</f>
         <v>825</v>
@@ -1790,84 +2353,84 @@
       <c r="G59" t="s">
         <v>19</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H59" s="3">
         <v>44838</v>
       </c>
-      <c r="I59" s="2">
+      <c r="I59" s="4">
         <f t="shared" si="0"/>
         <v>825000</v>
       </c>
       <c r="J59" t="s">
-        <v>57</v>
-      </c>
-      <c r="K59" s="6"/>
-      <c r="P59" s="2">
+        <v>54</v>
+      </c>
+      <c r="K59" s="5"/>
+      <c r="P59" s="4">
         <f t="shared" si="1"/>
         <v>120000</v>
       </c>
     </row>
-    <row r="60" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:16">
       <c r="E60">
         <f>25+1+50+5</f>
         <v>81</v>
       </c>
       <c r="G60" t="s">
-        <v>1</v>
-      </c>
-      <c r="H60" s="1">
+        <v>3</v>
+      </c>
+      <c r="H60" s="3">
         <v>44839</v>
       </c>
-      <c r="I60" s="2">
+      <c r="I60" s="4">
         <f t="shared" si="0"/>
         <v>81000</v>
       </c>
-      <c r="P60" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="P60" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="5:16">
       <c r="E61">
         <f>25+1+20</f>
         <v>46</v>
       </c>
       <c r="G61" t="s">
-        <v>8</v>
-      </c>
-      <c r="H61" s="1">
+        <v>6</v>
+      </c>
+      <c r="H61" s="3">
         <v>44840</v>
       </c>
-      <c r="I61" s="2">
+      <c r="I61" s="4">
         <f t="shared" si="0"/>
         <v>46000</v>
       </c>
-      <c r="J61" s="6"/>
-      <c r="P61" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="J61" s="5"/>
+      <c r="P61" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="5:16">
       <c r="E62">
         <f>103+26</f>
         <v>129</v>
       </c>
       <c r="G62" t="s">
-        <v>7</v>
-      </c>
-      <c r="H62" s="1">
+        <v>9</v>
+      </c>
+      <c r="H62" s="3">
         <v>44841</v>
       </c>
-      <c r="I62" s="2">
+      <c r="I62" s="4">
         <f t="shared" si="0"/>
         <v>129000</v>
       </c>
-      <c r="P62" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="P62" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="5:16">
       <c r="E63">
         <f>25+1</f>
         <v>26</v>
@@ -1875,19 +2438,19 @@
       <c r="G63" t="s">
         <v>11</v>
       </c>
-      <c r="H63" s="1">
+      <c r="H63" s="3">
         <v>44842</v>
       </c>
-      <c r="I63" s="2">
+      <c r="I63" s="4">
         <f t="shared" si="0"/>
         <v>26000</v>
       </c>
-      <c r="P63" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="P63" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="5:16">
       <c r="E64">
         <f>90+30</f>
         <v>120</v>
@@ -1895,39 +2458,39 @@
       <c r="G64" t="s">
         <v>14</v>
       </c>
-      <c r="H64" s="1">
+      <c r="H64" s="3">
         <v>44843</v>
       </c>
-      <c r="I64" s="2">
+      <c r="I64" s="4">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-      <c r="P64" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="P64" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="5:16">
       <c r="E65">
         <f>25</f>
         <v>25</v>
       </c>
       <c r="G65" t="s">
-        <v>15</v>
-      </c>
-      <c r="H65" s="1">
+        <v>16</v>
+      </c>
+      <c r="H65" s="3">
         <v>44844</v>
       </c>
-      <c r="I65" s="2">
+      <c r="I65" s="4">
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
-      <c r="P65" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="P65" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="5:16">
       <c r="E66">
         <f>25+20+80+40</f>
         <v>165</v>
@@ -1935,19 +2498,19 @@
       <c r="G66" t="s">
         <v>19</v>
       </c>
-      <c r="H66" s="1">
+      <c r="H66" s="3">
         <v>44845</v>
       </c>
-      <c r="I66" s="2">
+      <c r="I66" s="4">
         <f t="shared" si="0"/>
         <v>165000</v>
       </c>
-      <c r="P66" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="P66" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="5:16">
       <c r="E67">
         <f>25+25+35</f>
         <v>85</v>
@@ -1956,67 +2519,67 @@
         <v>660</v>
       </c>
       <c r="G67" t="s">
-        <v>1</v>
-      </c>
-      <c r="H67" s="1">
+        <v>3</v>
+      </c>
+      <c r="H67" s="3">
         <v>44846</v>
       </c>
-      <c r="I67" s="2">
+      <c r="I67" s="4">
         <f t="shared" si="0"/>
         <v>85000</v>
       </c>
-      <c r="P67" s="2">
+      <c r="P67" s="4">
         <f t="shared" si="1"/>
         <v>660000</v>
       </c>
     </row>
-    <row r="68" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:16">
       <c r="E68">
         <f>25+100+20+62</f>
         <v>207</v>
       </c>
       <c r="G68" t="s">
-        <v>8</v>
-      </c>
-      <c r="H68" s="1">
+        <v>6</v>
+      </c>
+      <c r="H68" s="3">
         <v>44847</v>
       </c>
-      <c r="I68" s="2">
+      <c r="I68" s="4">
         <f t="shared" si="0"/>
         <v>207000</v>
       </c>
       <c r="J68" t="s">
-        <v>58</v>
-      </c>
-      <c r="P68" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="5:17" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="P68" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="5:16">
       <c r="E69">
         <f>25+5+25+56</f>
         <v>111</v>
       </c>
       <c r="G69" t="s">
-        <v>7</v>
-      </c>
-      <c r="H69" s="1">
+        <v>9</v>
+      </c>
+      <c r="H69" s="3">
         <v>44848</v>
       </c>
-      <c r="I69" s="2">
+      <c r="I69" s="4">
         <f t="shared" si="0"/>
         <v>111000</v>
       </c>
       <c r="J69" t="s">
-        <v>59</v>
-      </c>
-      <c r="P69" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="5:17" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="P69" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="5:16">
       <c r="E70">
         <f>25+20+60</f>
         <v>105</v>
@@ -2024,22 +2587,22 @@
       <c r="G70" t="s">
         <v>11</v>
       </c>
-      <c r="H70" s="1">
+      <c r="H70" s="3">
         <v>44849</v>
       </c>
-      <c r="I70" s="2">
+      <c r="I70" s="4">
         <f t="shared" si="0"/>
         <v>105000</v>
       </c>
       <c r="J70" t="s">
-        <v>60</v>
-      </c>
-      <c r="P70" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="5:17" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="P70" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="5:16">
       <c r="E71">
         <f>20+35+60+10+5</f>
         <v>130</v>
@@ -2047,22 +2610,22 @@
       <c r="G71" t="s">
         <v>14</v>
       </c>
-      <c r="H71" s="1">
+      <c r="H71" s="3">
         <v>44850</v>
       </c>
-      <c r="I71" s="2">
+      <c r="I71" s="4">
         <f t="shared" si="0"/>
         <v>130000</v>
       </c>
       <c r="J71" t="s">
-        <v>61</v>
-      </c>
-      <c r="P71" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="5:17" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="P71" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="5:17">
       <c r="E72">
         <f>25+20+20</f>
         <v>65</v>
@@ -2071,24 +2634,24 @@
         <v>100</v>
       </c>
       <c r="G72" t="s">
-        <v>15</v>
-      </c>
-      <c r="H72" s="1">
+        <v>16</v>
+      </c>
+      <c r="H72" s="3">
         <v>44851</v>
       </c>
-      <c r="I72" s="2">
+      <c r="I72" s="4">
         <f t="shared" si="0"/>
         <v>65000</v>
       </c>
-      <c r="P72" s="2">
+      <c r="P72" s="4">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="Q72" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="73" spans="5:17" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="5:16">
       <c r="E73">
         <f>25+50</f>
         <v>75</v>
@@ -2096,82 +2659,82 @@
       <c r="G73" t="s">
         <v>19</v>
       </c>
-      <c r="H73" s="1">
+      <c r="H73" s="3">
         <v>44852</v>
       </c>
-      <c r="I73" s="2">
+      <c r="I73" s="4">
         <f t="shared" si="0"/>
         <v>75000</v>
       </c>
       <c r="J73" t="s">
-        <v>62</v>
-      </c>
-      <c r="P73" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="5:17" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="P73" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="5:16">
       <c r="E74">
         <f>25+20</f>
         <v>45</v>
       </c>
       <c r="G74" t="s">
-        <v>1</v>
-      </c>
-      <c r="H74" s="1">
+        <v>3</v>
+      </c>
+      <c r="H74" s="3">
         <v>44853</v>
       </c>
-      <c r="I74" s="2">
+      <c r="I74" s="4">
         <f t="shared" si="0"/>
         <v>45000</v>
       </c>
-      <c r="P74" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="P74" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="5:16">
       <c r="E75">
         <f>25+13+20</f>
         <v>58</v>
       </c>
       <c r="G75" t="s">
-        <v>8</v>
-      </c>
-      <c r="H75" s="1">
+        <v>6</v>
+      </c>
+      <c r="H75" s="3">
         <v>44854</v>
       </c>
-      <c r="I75" s="2">
+      <c r="I75" s="4">
         <f t="shared" si="0"/>
         <v>58000</v>
       </c>
-      <c r="J75" s="6"/>
-      <c r="P75" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="J75" s="5"/>
+      <c r="P75" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="5:16">
       <c r="E76">
         <v>55</v>
       </c>
       <c r="G76" t="s">
-        <v>7</v>
-      </c>
-      <c r="H76" s="1">
+        <v>9</v>
+      </c>
+      <c r="H76" s="3">
         <v>44855</v>
       </c>
-      <c r="I76" s="2">
+      <c r="I76" s="4">
         <f t="shared" si="0"/>
         <v>55000</v>
       </c>
-      <c r="P76" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="P76" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="5:16">
       <c r="E77">
         <f>25+120+13+5+1+12</f>
         <v>176</v>
@@ -2179,22 +2742,22 @@
       <c r="G77" t="s">
         <v>11</v>
       </c>
-      <c r="H77" s="1">
+      <c r="H77" s="3">
         <v>44856</v>
       </c>
-      <c r="I77" s="2">
+      <c r="I77" s="4">
         <f t="shared" si="0"/>
         <v>176000</v>
       </c>
       <c r="J77" t="s">
-        <v>63</v>
-      </c>
-      <c r="P77" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="5:17" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="P77" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="5:16">
       <c r="E78">
         <f>40+19+5</f>
         <v>64</v>
@@ -2202,45 +2765,45 @@
       <c r="G78" t="s">
         <v>14</v>
       </c>
-      <c r="H78" s="1">
+      <c r="H78" s="3">
         <v>44857</v>
       </c>
-      <c r="I78" s="2">
+      <c r="I78" s="4">
         <f t="shared" si="0"/>
         <v>64000</v>
       </c>
       <c r="J78" t="s">
-        <v>64</v>
-      </c>
-      <c r="P78" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="5:17" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="P78" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="5:16">
       <c r="E79">
         <f>25+1</f>
         <v>26</v>
       </c>
       <c r="G79" t="s">
-        <v>15</v>
-      </c>
-      <c r="H79" s="1">
+        <v>16</v>
+      </c>
+      <c r="H79" s="3">
         <v>44858</v>
       </c>
-      <c r="I79" s="2">
+      <c r="I79" s="4">
         <f t="shared" si="0"/>
         <v>26000</v>
       </c>
       <c r="J79" t="s">
-        <v>65</v>
-      </c>
-      <c r="P79" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="5:17" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="P79" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="5:16">
       <c r="E80">
         <f>25+20</f>
         <v>45</v>
@@ -2248,22 +2811,22 @@
       <c r="G80" t="s">
         <v>19</v>
       </c>
-      <c r="H80" s="1">
+      <c r="H80" s="3">
         <v>44859</v>
       </c>
-      <c r="I80" s="2">
+      <c r="I80" s="4">
         <f t="shared" si="0"/>
         <v>45000</v>
       </c>
       <c r="J80" t="s">
-        <v>66</v>
-      </c>
-      <c r="P80" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="4:17" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="P80" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="5:17">
       <c r="E81">
         <f>25+5</f>
         <v>30</v>
@@ -2272,73 +2835,73 @@
         <v>598</v>
       </c>
       <c r="G81" t="s">
-        <v>1</v>
-      </c>
-      <c r="H81" s="1">
+        <v>3</v>
+      </c>
+      <c r="H81" s="3">
         <v>44860</v>
       </c>
-      <c r="I81" s="2">
+      <c r="I81" s="4">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
       <c r="J81" t="s">
-        <v>67</v>
-      </c>
-      <c r="P81" s="2">
+        <v>65</v>
+      </c>
+      <c r="P81" s="4">
         <f t="shared" si="1"/>
         <v>598000</v>
       </c>
       <c r="Q81" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="82" spans="4:17" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="5:16">
       <c r="E82">
         <f>25+19+20+15</f>
         <v>79</v>
       </c>
       <c r="G82" t="s">
-        <v>8</v>
-      </c>
-      <c r="H82" s="1">
+        <v>6</v>
+      </c>
+      <c r="H82" s="3">
         <v>44861</v>
       </c>
-      <c r="I82" s="2">
+      <c r="I82" s="4">
         <f t="shared" si="0"/>
         <v>79000</v>
       </c>
-      <c r="J82" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="P82" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="J82" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P82" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="5:16">
       <c r="E83">
         <f>25+5+1</f>
         <v>31</v>
       </c>
       <c r="G83" t="s">
-        <v>7</v>
-      </c>
-      <c r="H83" s="1">
+        <v>9</v>
+      </c>
+      <c r="H83" s="3">
         <v>44862</v>
       </c>
-      <c r="I83" s="2">
+      <c r="I83" s="4">
         <f t="shared" si="0"/>
         <v>31000</v>
       </c>
-      <c r="J83" s="6"/>
-      <c r="P83" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="4:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="D84" s="9" t="s">
-        <v>71</v>
+      <c r="J83" s="5"/>
+      <c r="P83" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" ht="29" spans="4:16">
+      <c r="D84" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="E84">
         <f>25+30+1+20</f>
@@ -2347,22 +2910,22 @@
       <c r="G84" t="s">
         <v>11</v>
       </c>
-      <c r="H84" s="1">
+      <c r="H84" s="3">
         <v>44863</v>
       </c>
-      <c r="I84" s="2">
+      <c r="I84" s="4">
         <f t="shared" si="0"/>
         <v>76000</v>
       </c>
       <c r="J84" t="s">
-        <v>70</v>
-      </c>
-      <c r="P84" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="4:17" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="P84" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="5:16">
       <c r="E85">
         <f>6</f>
         <v>6</v>
@@ -2370,128 +2933,128 @@
       <c r="G85" t="s">
         <v>14</v>
       </c>
-      <c r="H85" s="1">
+      <c r="H85" s="3">
         <v>44864</v>
       </c>
-      <c r="I85" s="2">
+      <c r="I85" s="4">
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
-      <c r="P85" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="P85" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="4:16">
       <c r="D86" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E86">
         <f>2+25+137+30</f>
         <v>194</v>
       </c>
       <c r="G86" t="s">
-        <v>15</v>
-      </c>
-      <c r="H86" s="1">
+        <v>16</v>
+      </c>
+      <c r="H86" s="3">
         <v>44865</v>
       </c>
-      <c r="I86" s="2">
+      <c r="I86" s="4">
         <f t="shared" si="0"/>
         <v>194000</v>
       </c>
       <c r="J86" t="s">
-        <v>73</v>
-      </c>
-      <c r="P86" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="4:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E87" s="4">
+        <v>70</v>
+      </c>
+      <c r="P86" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" s="1" customFormat="1" spans="5:16">
+      <c r="E87" s="1">
         <f>25+5</f>
         <v>30</v>
       </c>
-      <c r="G87" s="4" t="s">
+      <c r="G87" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H87" s="5">
+      <c r="H87" s="11">
         <v>44866</v>
       </c>
-      <c r="I87" s="7">
+      <c r="I87" s="8">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="P87" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="4:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E88" s="10">
+      <c r="P87" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" s="2" customFormat="1" spans="5:16">
+      <c r="E88" s="2">
         <f>25+20+29</f>
         <v>74</v>
       </c>
-      <c r="F88" s="10">
+      <c r="F88" s="2">
         <v>6400</v>
       </c>
-      <c r="G88" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="H88" s="11">
+      <c r="G88" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H88" s="12">
         <v>44867</v>
       </c>
-      <c r="I88" s="12">
+      <c r="I88" s="13">
         <f t="shared" si="0"/>
         <v>74000</v>
       </c>
-      <c r="P88" s="12">
+      <c r="P88" s="13">
         <f t="shared" si="1"/>
         <v>6400000</v>
       </c>
     </row>
-    <row r="89" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:16">
       <c r="E89">
         <f>26</f>
         <v>26</v>
       </c>
       <c r="G89" t="s">
-        <v>8</v>
-      </c>
-      <c r="H89" s="1">
+        <v>6</v>
+      </c>
+      <c r="H89" s="3">
         <v>44868</v>
       </c>
-      <c r="I89" s="12">
+      <c r="I89" s="13">
         <f t="shared" si="0"/>
         <v>26000</v>
       </c>
-      <c r="P89" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="P89" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="5:16">
       <c r="E90">
         <f>32+25+3760</f>
         <v>3817</v>
       </c>
       <c r="G90" t="s">
-        <v>7</v>
-      </c>
-      <c r="H90" s="1">
+        <v>9</v>
+      </c>
+      <c r="H90" s="3">
         <v>44869</v>
       </c>
-      <c r="I90" s="12">
+      <c r="I90" s="13">
         <f t="shared" si="0"/>
         <v>3817000</v>
       </c>
-      <c r="P90" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="P90" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="5:16">
       <c r="E91">
         <f>25+1+90+60+406</f>
         <v>582</v>
@@ -2499,22 +3062,22 @@
       <c r="G91" t="s">
         <v>11</v>
       </c>
-      <c r="H91" s="1">
+      <c r="H91" s="3">
         <v>44870</v>
       </c>
-      <c r="I91" s="12">
+      <c r="I91" s="13">
         <f t="shared" si="0"/>
         <v>582000</v>
       </c>
       <c r="J91" t="s">
-        <v>75</v>
-      </c>
-      <c r="P91" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="4:17" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="P91" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="5:17">
       <c r="E92">
         <f>45+130</f>
         <v>175</v>
@@ -2525,25 +3088,25 @@
       <c r="G92" t="s">
         <v>14</v>
       </c>
-      <c r="H92" s="1">
+      <c r="H92" s="3">
         <v>44871</v>
       </c>
-      <c r="I92" s="12">
+      <c r="I92" s="13">
         <f t="shared" si="0"/>
         <v>175000</v>
       </c>
       <c r="J92" t="s">
-        <v>74</v>
-      </c>
-      <c r="P92" s="2">
+        <v>72</v>
+      </c>
+      <c r="P92" s="4">
         <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
       <c r="Q92" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="93" spans="4:17" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="93" spans="5:17">
       <c r="E93">
         <f>30+47+65+19+150</f>
         <v>311</v>
@@ -2553,27 +3116,27 @@
         <v>1116</v>
       </c>
       <c r="G93" t="s">
-        <v>15</v>
-      </c>
-      <c r="H93" s="1">
+        <v>16</v>
+      </c>
+      <c r="H93" s="3">
         <v>44872</v>
       </c>
-      <c r="I93" s="12">
+      <c r="I93" s="13">
         <f t="shared" si="0"/>
         <v>311000</v>
       </c>
       <c r="J93" t="s">
-        <v>76</v>
-      </c>
-      <c r="P93" s="2">
-        <f>F93*1000</f>
+        <v>74</v>
+      </c>
+      <c r="P93" s="4">
+        <f t="shared" si="1"/>
         <v>1116000</v>
       </c>
       <c r="Q93" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="94" spans="4:17" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="94" spans="5:16">
       <c r="E94">
         <f>1</f>
         <v>1</v>
@@ -2581,85 +3144,85 @@
       <c r="G94" t="s">
         <v>19</v>
       </c>
-      <c r="H94" s="1">
+      <c r="H94" s="3">
         <v>44873</v>
       </c>
-      <c r="I94" s="12">
+      <c r="I94" s="13">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="P94" s="2">
+      <c r="P94" s="4">
         <f t="shared" ref="P94:P120" si="2">F94*1000</f>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:16">
       <c r="E95">
         <f>25+20+1</f>
         <v>46</v>
       </c>
       <c r="G95" t="s">
-        <v>1</v>
-      </c>
-      <c r="H95" s="1">
+        <v>3</v>
+      </c>
+      <c r="H95" s="3">
         <v>44874</v>
       </c>
-      <c r="I95" s="12">
+      <c r="I95" s="13">
         <f t="shared" si="0"/>
         <v>46000</v>
       </c>
-      <c r="J95" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="P95" s="2">
+      <c r="J95" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P95" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:16">
       <c r="E96">
         <f>35+11+1</f>
         <v>47</v>
       </c>
       <c r="G96" t="s">
-        <v>8</v>
-      </c>
-      <c r="H96" s="1">
+        <v>6</v>
+      </c>
+      <c r="H96" s="3">
         <v>44875</v>
       </c>
-      <c r="I96" s="12">
+      <c r="I96" s="13">
         <f t="shared" si="0"/>
         <v>47000</v>
       </c>
       <c r="J96" t="s">
-        <v>80</v>
-      </c>
-      <c r="P96" s="2">
+        <v>77</v>
+      </c>
+      <c r="P96" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:16">
       <c r="E97">
         <f>20+18</f>
         <v>38</v>
       </c>
       <c r="G97" t="s">
-        <v>7</v>
-      </c>
-      <c r="H97" s="1">
+        <v>9</v>
+      </c>
+      <c r="H97" s="3">
         <v>44876</v>
       </c>
-      <c r="I97" s="12">
+      <c r="I97" s="13">
         <f t="shared" si="0"/>
         <v>38000</v>
       </c>
-      <c r="P97" s="2">
+      <c r="P97" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:16">
       <c r="E98">
         <f>1500+1.5</f>
         <v>1501.5</v>
@@ -2667,22 +3230,22 @@
       <c r="G98" t="s">
         <v>11</v>
       </c>
-      <c r="H98" s="1">
+      <c r="H98" s="3">
         <v>44877</v>
       </c>
-      <c r="I98" s="12">
+      <c r="I98" s="13">
         <f t="shared" si="0"/>
         <v>1501500</v>
       </c>
       <c r="J98" t="s">
-        <v>82</v>
-      </c>
-      <c r="P98" s="2">
+        <v>78</v>
+      </c>
+      <c r="P98" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:16">
       <c r="E99">
         <f>32+25</f>
         <v>57</v>
@@ -2690,45 +3253,45 @@
       <c r="G99" t="s">
         <v>14</v>
       </c>
-      <c r="H99" s="1">
+      <c r="H99" s="3">
         <v>44878</v>
       </c>
-      <c r="I99" s="12">
+      <c r="I99" s="13">
         <f t="shared" si="0"/>
         <v>57000</v>
       </c>
       <c r="J99" t="s">
-        <v>81</v>
-      </c>
-      <c r="P99" s="2">
+        <v>79</v>
+      </c>
+      <c r="P99" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:16">
       <c r="E100">
         <f>50</f>
         <v>50</v>
       </c>
       <c r="G100" t="s">
-        <v>15</v>
-      </c>
-      <c r="H100" s="1">
+        <v>16</v>
+      </c>
+      <c r="H100" s="3">
         <v>44879</v>
       </c>
-      <c r="I100" s="12">
+      <c r="I100" s="13">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
       <c r="J100" t="s">
-        <v>83</v>
-      </c>
-      <c r="P100" s="2">
+        <v>80</v>
+      </c>
+      <c r="P100" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:16">
       <c r="E101">
         <f>25+30</f>
         <v>55</v>
@@ -2736,87 +3299,87 @@
       <c r="G101" t="s">
         <v>19</v>
       </c>
-      <c r="H101" s="1">
+      <c r="H101" s="3">
         <v>44880</v>
       </c>
-      <c r="I101" s="2">
+      <c r="I101" s="4">
         <f t="shared" si="0"/>
         <v>55000</v>
       </c>
       <c r="J101" t="s">
-        <v>84</v>
-      </c>
-      <c r="P101" s="2">
+        <v>81</v>
+      </c>
+      <c r="P101" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:16">
       <c r="E102">
         <v>55</v>
       </c>
       <c r="G102" t="s">
-        <v>1</v>
-      </c>
-      <c r="H102" s="1">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3">
         <v>44881</v>
       </c>
-      <c r="I102" s="2">
+      <c r="I102" s="4">
         <f t="shared" si="0"/>
         <v>55000</v>
       </c>
-      <c r="P102" s="2">
+      <c r="P102" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:16">
       <c r="E103">
         <f>50+8</f>
         <v>58</v>
       </c>
       <c r="G103" t="s">
-        <v>8</v>
-      </c>
-      <c r="H103" s="1">
+        <v>6</v>
+      </c>
+      <c r="H103" s="3">
         <v>44882</v>
       </c>
-      <c r="I103" s="2">
+      <c r="I103" s="4">
         <f t="shared" si="0"/>
         <v>58000</v>
       </c>
       <c r="J103" t="s">
-        <v>85</v>
-      </c>
-      <c r="P103" s="2">
+        <v>82</v>
+      </c>
+      <c r="P103" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:16">
       <c r="E104">
         <f>20+17+35</f>
         <v>72</v>
       </c>
       <c r="G104" t="s">
-        <v>7</v>
-      </c>
-      <c r="H104" s="1">
+        <v>9</v>
+      </c>
+      <c r="H104" s="3">
         <v>44883</v>
       </c>
-      <c r="I104" s="2">
+      <c r="I104" s="4">
         <f t="shared" ref="I104:I167" si="3">E104*1000</f>
         <v>72000</v>
       </c>
       <c r="J104" t="s">
-        <v>86</v>
-      </c>
-      <c r="P104" s="2">
+        <v>83</v>
+      </c>
+      <c r="P104" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:16">
       <c r="E105">
         <f>65</f>
         <v>65</v>
@@ -2824,22 +3387,22 @@
       <c r="G105" t="s">
         <v>11</v>
       </c>
-      <c r="H105" s="1">
+      <c r="H105" s="3">
         <v>44884</v>
       </c>
-      <c r="I105" s="2">
+      <c r="I105" s="4">
         <f t="shared" si="3"/>
         <v>65000</v>
       </c>
       <c r="J105" t="s">
-        <v>87</v>
-      </c>
-      <c r="P105" s="2">
+        <v>84</v>
+      </c>
+      <c r="P105" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:17">
       <c r="E106">
         <f>67+25+5+20</f>
         <v>117</v>
@@ -2850,42 +3413,42 @@
       <c r="G106" t="s">
         <v>14</v>
       </c>
-      <c r="H106" s="1">
+      <c r="H106" s="3">
         <v>44885</v>
       </c>
-      <c r="I106" s="2">
+      <c r="I106" s="4">
         <f t="shared" si="3"/>
         <v>117000</v>
       </c>
-      <c r="P106" s="2">
+      <c r="P106" s="4">
         <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
       <c r="Q106" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="107" spans="5:17" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="107" spans="5:16">
       <c r="E107">
         <f>10</f>
         <v>10</v>
       </c>
       <c r="G107" t="s">
-        <v>15</v>
-      </c>
-      <c r="H107" s="1">
+        <v>16</v>
+      </c>
+      <c r="H107" s="3">
         <v>44886</v>
       </c>
-      <c r="I107" s="2">
+      <c r="I107" s="4">
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-      <c r="P107" s="2">
+      <c r="P107" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:16">
       <c r="E108">
         <f>25</f>
         <v>25</v>
@@ -2893,81 +3456,81 @@
       <c r="G108" t="s">
         <v>19</v>
       </c>
-      <c r="H108" s="1">
+      <c r="H108" s="3">
         <v>44887</v>
       </c>
-      <c r="I108" s="2">
+      <c r="I108" s="4">
         <f t="shared" si="3"/>
         <v>25000</v>
       </c>
-      <c r="P108" s="2">
+      <c r="P108" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:16">
       <c r="E109">
         <f>20</f>
         <v>20</v>
       </c>
       <c r="G109" t="s">
-        <v>1</v>
-      </c>
-      <c r="H109" s="1">
+        <v>3</v>
+      </c>
+      <c r="H109" s="3">
         <v>44888</v>
       </c>
-      <c r="I109" s="2">
+      <c r="I109" s="4">
         <f t="shared" si="3"/>
         <v>20000</v>
       </c>
-      <c r="P109" s="2">
+      <c r="P109" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:16">
       <c r="E110">
         <v>0</v>
       </c>
       <c r="G110" t="s">
-        <v>8</v>
-      </c>
-      <c r="H110" s="1">
+        <v>6</v>
+      </c>
+      <c r="H110" s="3">
         <v>44889</v>
       </c>
-      <c r="I110" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P110" s="2">
+      <c r="I110" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P110" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:16">
       <c r="E111">
         <f>30+20+70+19</f>
         <v>139</v>
       </c>
       <c r="G111" t="s">
-        <v>7</v>
-      </c>
-      <c r="H111" s="1">
+        <v>9</v>
+      </c>
+      <c r="H111" s="3">
         <v>44890</v>
       </c>
-      <c r="I111" s="2">
+      <c r="I111" s="4">
         <f t="shared" si="3"/>
         <v>139000</v>
       </c>
       <c r="J111" t="s">
-        <v>88</v>
-      </c>
-      <c r="P111" s="2">
+        <v>85</v>
+      </c>
+      <c r="P111" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="5:16">
       <c r="E112">
         <f>50+20</f>
         <v>70</v>
@@ -2975,19 +3538,19 @@
       <c r="G112" t="s">
         <v>11</v>
       </c>
-      <c r="H112" s="1">
+      <c r="H112" s="3">
         <v>44891</v>
       </c>
-      <c r="I112" s="2">
+      <c r="I112" s="4">
         <f t="shared" si="3"/>
         <v>70000</v>
       </c>
-      <c r="P112" s="2">
+      <c r="P112" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:16">
       <c r="E113">
         <f>822</f>
         <v>822</v>
@@ -2998,42 +3561,42 @@
       <c r="G113" t="s">
         <v>14</v>
       </c>
-      <c r="H113" s="1">
+      <c r="H113" s="3">
         <v>44892</v>
       </c>
-      <c r="I113" s="2">
+      <c r="I113" s="4">
         <f t="shared" si="3"/>
         <v>822000</v>
       </c>
-      <c r="J113" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="P113" s="2">
+      <c r="J113" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P113" s="4">
         <f t="shared" si="2"/>
         <v>50000</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:16">
       <c r="E114">
         <f>30</f>
         <v>30</v>
       </c>
       <c r="G114" t="s">
-        <v>15</v>
-      </c>
-      <c r="H114" s="1">
+        <v>16</v>
+      </c>
+      <c r="H114" s="3">
         <v>44893</v>
       </c>
-      <c r="I114" s="2">
+      <c r="I114" s="4">
         <f t="shared" si="3"/>
         <v>30000</v>
       </c>
-      <c r="P114" s="2">
+      <c r="P114" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:16">
       <c r="E115">
         <f>53+40+3+10+20</f>
         <v>126</v>
@@ -3041,1123 +3604,1137 @@
       <c r="G115" t="s">
         <v>19</v>
       </c>
-      <c r="H115" s="1">
+      <c r="H115" s="3">
         <v>44894</v>
       </c>
-      <c r="I115" s="2">
+      <c r="I115" s="4">
         <f t="shared" si="3"/>
         <v>126000</v>
       </c>
       <c r="J115" t="s">
-        <v>90</v>
-      </c>
-      <c r="P115" s="2">
+        <v>87</v>
+      </c>
+      <c r="P115" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:16">
       <c r="E116">
         <f>10+15</f>
         <v>25</v>
       </c>
       <c r="G116" t="s">
-        <v>1</v>
-      </c>
-      <c r="H116" s="1">
+        <v>3</v>
+      </c>
+      <c r="H116" s="3">
         <v>44895</v>
       </c>
-      <c r="I116" s="2">
+      <c r="I116" s="4">
         <f t="shared" si="3"/>
         <v>25000</v>
       </c>
-      <c r="P116" s="2">
+      <c r="P116" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="7:16">
       <c r="G117" t="s">
-        <v>8</v>
-      </c>
-      <c r="H117" s="1">
+        <v>6</v>
+      </c>
+      <c r="H117" s="3">
         <v>44896</v>
       </c>
-      <c r="I117" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P117" s="2">
+      <c r="I117" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P117" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="7:16">
       <c r="G118" t="s">
-        <v>7</v>
-      </c>
-      <c r="H118" s="1">
+        <v>9</v>
+      </c>
+      <c r="H118" s="3">
         <v>44897</v>
       </c>
-      <c r="I118" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P118" s="2">
+      <c r="I118" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P118" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:16">
+      <c r="E119">
+        <f>20+40</f>
+        <v>60</v>
+      </c>
       <c r="G119" t="s">
         <v>11</v>
       </c>
-      <c r="H119" s="1">
+      <c r="H119" s="3">
         <v>44898</v>
       </c>
-      <c r="I119" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P119" s="2">
+      <c r="I119" s="4">
+        <f t="shared" si="3"/>
+        <v>60000</v>
+      </c>
+      <c r="J119" t="s">
+        <v>88</v>
+      </c>
+      <c r="P119" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="5:16">
+      <c r="E120">
+        <f>15</f>
+        <v>15</v>
+      </c>
       <c r="G120" t="s">
         <v>14</v>
       </c>
-      <c r="H120" s="1">
+      <c r="H120" s="3">
         <v>44899</v>
       </c>
-      <c r="I120" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P120" s="2">
+      <c r="I120" s="4">
+        <f t="shared" si="3"/>
+        <v>15000</v>
+      </c>
+      <c r="J120" t="s">
+        <v>89</v>
+      </c>
+      <c r="P120" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="7:9">
       <c r="G121" t="s">
-        <v>15</v>
-      </c>
-      <c r="H121" s="1">
+        <v>16</v>
+      </c>
+      <c r="H121" s="3">
         <v>44900</v>
       </c>
-      <c r="I121" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="I121" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="7:9">
       <c r="G122" t="s">
         <v>19</v>
       </c>
-      <c r="H122" s="1">
+      <c r="H122" s="3">
         <v>44901</v>
       </c>
-      <c r="I122" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="I122" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="7:9">
       <c r="G123" t="s">
-        <v>1</v>
-      </c>
-      <c r="H123" s="1">
+        <v>3</v>
+      </c>
+      <c r="H123" s="3">
         <v>44902</v>
       </c>
-      <c r="I123" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="I123" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="7:9">
       <c r="G124" t="s">
-        <v>8</v>
-      </c>
-      <c r="H124" s="1">
+        <v>6</v>
+      </c>
+      <c r="H124" s="3">
         <v>44903</v>
       </c>
-      <c r="I124" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="I124" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="7:9">
       <c r="G125" t="s">
-        <v>7</v>
-      </c>
-      <c r="H125" s="1">
+        <v>9</v>
+      </c>
+      <c r="H125" s="3">
         <v>44904</v>
       </c>
-      <c r="I125" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="I125" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="7:9">
       <c r="G126" t="s">
         <v>11</v>
       </c>
-      <c r="H126" s="1">
+      <c r="H126" s="3">
         <v>44905</v>
       </c>
-      <c r="I126" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="I126" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="7:9">
       <c r="G127" t="s">
         <v>14</v>
       </c>
-      <c r="H127" s="1">
+      <c r="H127" s="3">
         <v>44906</v>
       </c>
-      <c r="I127" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="I127" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="7:9">
       <c r="G128" t="s">
-        <v>15</v>
-      </c>
-      <c r="H128" s="1">
+        <v>16</v>
+      </c>
+      <c r="H128" s="3">
         <v>44907</v>
       </c>
-      <c r="I128" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="I128" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="7:9">
       <c r="G129" t="s">
         <v>19</v>
       </c>
-      <c r="H129" s="1">
+      <c r="H129" s="3">
         <v>44908</v>
       </c>
-      <c r="I129" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="I129" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="7:9">
       <c r="G130" t="s">
-        <v>1</v>
-      </c>
-      <c r="H130" s="1">
+        <v>3</v>
+      </c>
+      <c r="H130" s="3">
         <v>44909</v>
       </c>
-      <c r="I130" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="I130" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="7:9">
       <c r="G131" t="s">
-        <v>8</v>
-      </c>
-      <c r="H131" s="1">
+        <v>6</v>
+      </c>
+      <c r="H131" s="3">
         <v>44910</v>
       </c>
-      <c r="I131" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="I131" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="7:9">
       <c r="G132" t="s">
-        <v>7</v>
-      </c>
-      <c r="H132" s="1">
+        <v>9</v>
+      </c>
+      <c r="H132" s="3">
         <v>44911</v>
       </c>
-      <c r="I132" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="I132" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="7:9">
       <c r="G133" t="s">
         <v>11</v>
       </c>
-      <c r="H133" s="1">
+      <c r="H133" s="3">
         <v>44912</v>
       </c>
-      <c r="I133" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="I133" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="7:9">
       <c r="G134" t="s">
         <v>14</v>
       </c>
-      <c r="H134" s="1">
+      <c r="H134" s="3">
         <v>44913</v>
       </c>
-      <c r="I134" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="I134" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="7:9">
       <c r="G135" t="s">
-        <v>15</v>
-      </c>
-      <c r="H135" s="1">
+        <v>16</v>
+      </c>
+      <c r="H135" s="3">
         <v>44914</v>
       </c>
-      <c r="I135" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="I135" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="7:9">
       <c r="G136" t="s">
         <v>19</v>
       </c>
-      <c r="H136" s="1">
+      <c r="H136" s="3">
         <v>44915</v>
       </c>
-      <c r="I136" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="I136" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="7:9">
       <c r="G137" t="s">
-        <v>1</v>
-      </c>
-      <c r="H137" s="1">
+        <v>3</v>
+      </c>
+      <c r="H137" s="3">
         <v>44916</v>
       </c>
-      <c r="I137" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="I137" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="7:9">
       <c r="G138" t="s">
-        <v>8</v>
-      </c>
-      <c r="H138" s="1">
+        <v>6</v>
+      </c>
+      <c r="H138" s="3">
         <v>44917</v>
       </c>
-      <c r="I138" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="I138" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="7:9">
       <c r="G139" t="s">
-        <v>7</v>
-      </c>
-      <c r="H139" s="1">
+        <v>9</v>
+      </c>
+      <c r="H139" s="3">
         <v>44918</v>
       </c>
-      <c r="I139" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="I139" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="7:9">
       <c r="G140" t="s">
         <v>11</v>
       </c>
-      <c r="H140" s="1">
+      <c r="H140" s="3">
         <v>44919</v>
       </c>
-      <c r="I140" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="I140" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="7:9">
       <c r="G141" t="s">
         <v>14</v>
       </c>
-      <c r="H141" s="1">
+      <c r="H141" s="3">
         <v>44920</v>
       </c>
-      <c r="I141" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="I141" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="7:9">
       <c r="G142" t="s">
-        <v>15</v>
-      </c>
-      <c r="H142" s="1">
+        <v>16</v>
+      </c>
+      <c r="H142" s="3">
         <v>44921</v>
       </c>
-      <c r="I142" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="I142" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="7:9">
       <c r="G143" t="s">
         <v>19</v>
       </c>
-      <c r="H143" s="1">
+      <c r="H143" s="3">
         <v>44922</v>
       </c>
-      <c r="I143" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="I143" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="7:9">
       <c r="G144" t="s">
-        <v>1</v>
-      </c>
-      <c r="H144" s="1">
+        <v>3</v>
+      </c>
+      <c r="H144" s="3">
         <v>44923</v>
       </c>
-      <c r="I144" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="I144" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="7:9">
       <c r="G145" t="s">
-        <v>8</v>
-      </c>
-      <c r="H145" s="1">
+        <v>6</v>
+      </c>
+      <c r="H145" s="3">
         <v>44924</v>
       </c>
-      <c r="I145" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="I145" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="7:9">
       <c r="G146" t="s">
-        <v>7</v>
-      </c>
-      <c r="H146" s="1">
+        <v>9</v>
+      </c>
+      <c r="H146" s="3">
         <v>44925</v>
       </c>
-      <c r="I146" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="I146" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="7:9">
       <c r="G147" t="s">
         <v>11</v>
       </c>
-      <c r="H147" s="1">
+      <c r="H147" s="3">
         <v>44926</v>
       </c>
-      <c r="I147" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="I147" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="7:9">
       <c r="G148" t="s">
         <v>14</v>
       </c>
-      <c r="H148" s="1">
+      <c r="H148" s="3">
         <v>44927</v>
       </c>
-      <c r="I148" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="H149" s="1">
+      <c r="I148" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="8:9">
+      <c r="H149" s="3">
         <v>44928</v>
       </c>
-      <c r="I149" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="H150" s="1">
+      <c r="I149" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="8:9">
+      <c r="H150" s="3">
         <v>44929</v>
       </c>
-      <c r="I150" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="H151" s="1">
+      <c r="I150" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="8:9">
+      <c r="H151" s="3">
         <v>44930</v>
       </c>
-      <c r="I151" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="H152" s="1">
+      <c r="I151" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="8:9">
+      <c r="H152" s="3">
         <v>44931</v>
       </c>
-      <c r="I152" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="H153" s="1">
+      <c r="I152" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="8:9">
+      <c r="H153" s="3">
         <v>44932</v>
       </c>
-      <c r="I153" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="H154" s="1">
+      <c r="I153" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="8:9">
+      <c r="H154" s="3">
         <v>44933</v>
       </c>
-      <c r="I154" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="H155" s="1">
+      <c r="I154" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="8:9">
+      <c r="H155" s="3">
         <v>44934</v>
       </c>
-      <c r="I155" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="H156" s="1">
+      <c r="I155" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="8:9">
+      <c r="H156" s="3">
         <v>44935</v>
       </c>
-      <c r="I156" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="H157" s="1">
+      <c r="I156" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="8:9">
+      <c r="H157" s="3">
         <v>44936</v>
       </c>
-      <c r="I157" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="H158" s="1">
+      <c r="I157" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="8:9">
+      <c r="H158" s="3">
         <v>44937</v>
       </c>
-      <c r="I158" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="H159" s="1">
+      <c r="I158" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="8:9">
+      <c r="H159" s="3">
         <v>44938</v>
       </c>
-      <c r="I159" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="H160" s="1">
+      <c r="I159" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="8:9">
+      <c r="H160" s="3">
         <v>44939</v>
       </c>
-      <c r="I160" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H161" s="1">
+      <c r="I160" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="8:9">
+      <c r="H161" s="3">
         <v>44940</v>
       </c>
-      <c r="I161" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H162" s="1">
+      <c r="I161" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="8:9">
+      <c r="H162" s="3">
         <v>44941</v>
       </c>
-      <c r="I162" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H163" s="1">
+      <c r="I162" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="8:9">
+      <c r="H163" s="3">
         <v>44942</v>
       </c>
-      <c r="I163" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H164" s="1">
+      <c r="I163" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="8:9">
+      <c r="H164" s="3">
         <v>44943</v>
       </c>
-      <c r="I164" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H165" s="1">
+      <c r="I164" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="8:9">
+      <c r="H165" s="3">
         <v>44944</v>
       </c>
-      <c r="I165" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H166" s="1">
+      <c r="I165" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="8:9">
+      <c r="H166" s="3">
         <v>44945</v>
       </c>
-      <c r="I166" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H167" s="1">
+      <c r="I166" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="8:9">
+      <c r="H167" s="3">
         <v>44946</v>
       </c>
-      <c r="I167" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H168" s="1">
+      <c r="I167" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="8:9">
+      <c r="H168" s="3">
         <v>44947</v>
       </c>
-      <c r="I168" s="2">
+      <c r="I168" s="4">
         <f t="shared" ref="I168:I223" si="4">E168*1000</f>
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H169" s="1">
+    <row r="169" spans="8:9">
+      <c r="H169" s="3">
         <v>44948</v>
       </c>
-      <c r="I169" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H170" s="1">
+      <c r="I169" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="8:9">
+      <c r="H170" s="3">
         <v>44949</v>
       </c>
-      <c r="I170" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H171" s="1">
+      <c r="I170" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="8:9">
+      <c r="H171" s="3">
         <v>44950</v>
       </c>
-      <c r="I171" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H172" s="1">
+      <c r="I171" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="8:9">
+      <c r="H172" s="3">
         <v>44951</v>
       </c>
-      <c r="I172" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H173" s="1">
+      <c r="I172" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="8:9">
+      <c r="H173" s="3">
         <v>44952</v>
       </c>
-      <c r="I173" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H174" s="1">
+      <c r="I173" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="8:9">
+      <c r="H174" s="3">
         <v>44953</v>
       </c>
-      <c r="I174" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H175" s="1">
+      <c r="I174" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="8:9">
+      <c r="H175" s="3">
         <v>44954</v>
       </c>
-      <c r="I175" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H176" s="1">
+      <c r="I175" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="8:9">
+      <c r="H176" s="3">
         <v>44955</v>
       </c>
-      <c r="I176" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H177" s="1">
+      <c r="I176" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="8:9">
+      <c r="H177" s="3">
         <v>44956</v>
       </c>
-      <c r="I177" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H178" s="1">
+      <c r="I177" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="8:9">
+      <c r="H178" s="3">
         <v>44957</v>
       </c>
-      <c r="I178" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H179" s="1">
+      <c r="I178" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="8:9">
+      <c r="H179" s="3">
         <v>44958</v>
       </c>
-      <c r="I179" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H180" s="1">
+      <c r="I179" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="8:9">
+      <c r="H180" s="3">
         <v>44959</v>
       </c>
-      <c r="I180" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H181" s="1">
+      <c r="I180" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="8:9">
+      <c r="H181" s="3">
         <v>44960</v>
       </c>
-      <c r="I181" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H182" s="1">
+      <c r="I181" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="8:9">
+      <c r="H182" s="3">
         <v>44961</v>
       </c>
-      <c r="I182" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H183" s="1">
+      <c r="I182" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="8:9">
+      <c r="H183" s="3">
         <v>44962</v>
       </c>
-      <c r="I183" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H184" s="1">
+      <c r="I183" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="8:9">
+      <c r="H184" s="3">
         <v>44963</v>
       </c>
-      <c r="I184" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H185" s="1">
+      <c r="I184" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="8:9">
+      <c r="H185" s="3">
         <v>44964</v>
       </c>
-      <c r="I185" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H186" s="1">
+      <c r="I185" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="8:9">
+      <c r="H186" s="3">
         <v>44965</v>
       </c>
-      <c r="I186" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H187" s="1">
+      <c r="I186" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="8:9">
+      <c r="H187" s="3">
         <v>44966</v>
       </c>
-      <c r="I187" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H188" s="1">
+      <c r="I187" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="8:9">
+      <c r="H188" s="3">
         <v>44967</v>
       </c>
-      <c r="I188" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H189" s="1">
+      <c r="I188" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="8:9">
+      <c r="H189" s="3">
         <v>44968</v>
       </c>
-      <c r="I189" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H190" s="1">
+      <c r="I189" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="8:9">
+      <c r="H190" s="3">
         <v>44969</v>
       </c>
-      <c r="I190" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H191" s="1">
+      <c r="I190" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="8:9">
+      <c r="H191" s="3">
         <v>44970</v>
       </c>
-      <c r="I191" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H192" s="1">
+      <c r="I191" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="8:9">
+      <c r="H192" s="3">
         <v>44971</v>
       </c>
-      <c r="I192" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H193" s="1">
+      <c r="I192" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="8:9">
+      <c r="H193" s="3">
         <v>44972</v>
       </c>
-      <c r="I193" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H194" s="1">
+      <c r="I193" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="8:9">
+      <c r="H194" s="3">
         <v>44973</v>
       </c>
-      <c r="I194" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H195" s="1">
+      <c r="I194" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="8:9">
+      <c r="H195" s="3">
         <v>44974</v>
       </c>
-      <c r="I195" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H196" s="1">
+      <c r="I195" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="8:9">
+      <c r="H196" s="3">
         <v>44975</v>
       </c>
-      <c r="I196" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H197" s="1">
+      <c r="I196" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="8:9">
+      <c r="H197" s="3">
         <v>44976</v>
       </c>
-      <c r="I197" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H198" s="1">
+      <c r="I197" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="8:9">
+      <c r="H198" s="3">
         <v>44977</v>
       </c>
-      <c r="I198" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H199" s="1">
+      <c r="I198" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="8:9">
+      <c r="H199" s="3">
         <v>44978</v>
       </c>
-      <c r="I199" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H200" s="1">
+      <c r="I199" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="8:9">
+      <c r="H200" s="3">
         <v>44979</v>
       </c>
-      <c r="I200" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H201" s="1">
+      <c r="I200" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="8:9">
+      <c r="H201" s="3">
         <v>44980</v>
       </c>
-      <c r="I201" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H202" s="1">
+      <c r="I201" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="8:9">
+      <c r="H202" s="3">
         <v>44981</v>
       </c>
-      <c r="I202" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H203" s="1">
+      <c r="I202" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="8:9">
+      <c r="H203" s="3">
         <v>44982</v>
       </c>
-      <c r="I203" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H204" s="1">
+      <c r="I203" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="8:9">
+      <c r="H204" s="3">
         <v>44983</v>
       </c>
-      <c r="I204" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H205" s="1">
+      <c r="I204" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="8:9">
+      <c r="H205" s="3">
         <v>44984</v>
       </c>
-      <c r="I205" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H206" s="1">
+      <c r="I205" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="8:9">
+      <c r="H206" s="3">
         <v>44985</v>
       </c>
-      <c r="I206" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H207" s="1">
+      <c r="I206" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="8:9">
+      <c r="H207" s="3">
         <v>44986</v>
       </c>
-      <c r="I207" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H208" s="1">
+      <c r="I207" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="8:9">
+      <c r="H208" s="3">
         <v>44987</v>
       </c>
-      <c r="I208" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H209" s="1">
+      <c r="I208" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="8:9">
+      <c r="H209" s="3">
         <v>44988</v>
       </c>
-      <c r="I209" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H210" s="1">
+      <c r="I209" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="8:9">
+      <c r="H210" s="3">
         <v>44989</v>
       </c>
-      <c r="I210" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H211" s="1">
+      <c r="I210" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="8:9">
+      <c r="H211" s="3">
         <v>44990</v>
       </c>
-      <c r="I211" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H212" s="1">
+      <c r="I211" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="8:9">
+      <c r="H212" s="3">
         <v>44991</v>
       </c>
-      <c r="I212" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H213" s="1">
+      <c r="I212" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="8:9">
+      <c r="H213" s="3">
         <v>44992</v>
       </c>
-      <c r="I213" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H214" s="1">
+      <c r="I213" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="8:9">
+      <c r="H214" s="3">
         <v>44993</v>
       </c>
-      <c r="I214" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H215" s="1">
+      <c r="I214" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="8:9">
+      <c r="H215" s="3">
         <v>44994</v>
       </c>
-      <c r="I215" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H216" s="1">
+      <c r="I215" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="8:9">
+      <c r="H216" s="3">
         <v>44995</v>
       </c>
-      <c r="I216" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H217" s="1">
+      <c r="I216" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="8:9">
+      <c r="H217" s="3">
         <v>44996</v>
       </c>
-      <c r="I217" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H218" s="1">
+      <c r="I217" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="8:9">
+      <c r="H218" s="3">
         <v>44997</v>
       </c>
-      <c r="I218" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H219" s="1">
+      <c r="I218" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="8:9">
+      <c r="H219" s="3">
         <v>44998</v>
       </c>
-      <c r="I219" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H220" s="1">
+      <c r="I219" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="8:9">
+      <c r="H220" s="3">
         <v>44999</v>
       </c>
-      <c r="I220" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H221" s="1">
+      <c r="I220" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="8:9">
+      <c r="H221" s="3">
         <v>45000</v>
       </c>
-      <c r="I221" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H222" s="1">
+      <c r="I221" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="8:9">
+      <c r="H222" s="3">
         <v>45001</v>
       </c>
-      <c r="I222" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H223" s="1">
+      <c r="I222" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="8:9">
+      <c r="H223" s="3">
         <v>45002</v>
       </c>
-      <c r="I223" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H224" s="1">
+      <c r="I223" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="8:8">
+      <c r="H224" s="3">
         <v>45003</v>
       </c>
     </row>
-    <row r="225" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H225" s="1">
+    <row r="225" spans="8:8">
+      <c r="H225" s="3">
         <v>45004</v>
       </c>
     </row>
@@ -4166,37 +4743,40 @@
     <mergeCell ref="J15:O15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD28247-DF75-4BC4-AED2-4BDF60AE8E5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="E6:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <sheetData>
-    <row r="6" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:5">
       <c r="E6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="5:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5">
       <c r="E7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="5:5" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="5:5">
       <c r="E8" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/daily expenses.xlsx
+++ b/daily expenses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragon\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C38F35-A897-48E5-BEE2-6D4937FBCEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001B1AC5-1914-46A8-ABF3-BDE0036CCFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-330" yWindow="4425" windowWidth="18000" windowHeight="9360" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -699,7 +699,7 @@
   <dimension ref="D3:V225"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C109" workbookViewId="0">
-      <selection activeCell="F116" sqref="F116"/>
+      <selection activeCell="L125" sqref="L125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3061,6 +3061,9 @@
         <f>10+15</f>
         <v>25</v>
       </c>
+      <c r="F116">
+        <v>800</v>
+      </c>
       <c r="G116" t="s">
         <v>1</v>
       </c>
@@ -3073,10 +3076,14 @@
       </c>
       <c r="P116" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="117" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E117">
+        <f>20+19+50</f>
+        <v>89</v>
+      </c>
       <c r="G117" t="s">
         <v>8</v>
       </c>
@@ -3085,7 +3092,7 @@
       </c>
       <c r="I117" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>89000</v>
       </c>
       <c r="P117" s="2">
         <f t="shared" si="2"/>
@@ -3093,6 +3100,10 @@
       </c>
     </row>
     <row r="118" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E118">
+        <f>30</f>
+        <v>30</v>
+      </c>
       <c r="G118" t="s">
         <v>7</v>
       </c>
@@ -3101,7 +3112,7 @@
       </c>
       <c r="I118" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="P118" s="2">
         <f t="shared" si="2"/>
@@ -3109,6 +3120,10 @@
       </c>
     </row>
     <row r="119" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E119">
+        <f>20+40</f>
+        <v>60</v>
+      </c>
       <c r="G119" t="s">
         <v>11</v>
       </c>
@@ -3117,7 +3132,7 @@
       </c>
       <c r="I119" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="P119" s="2">
         <f t="shared" si="2"/>
@@ -3125,6 +3140,10 @@
       </c>
     </row>
     <row r="120" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E120">
+        <f>15+50+45+61+19</f>
+        <v>190</v>
+      </c>
       <c r="G120" t="s">
         <v>14</v>
       </c>
@@ -3133,7 +3152,7 @@
       </c>
       <c r="I120" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>190000</v>
       </c>
       <c r="P120" s="2">
         <f t="shared" si="2"/>

--- a/daily expenses.xlsx
+++ b/daily expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragon\Desktop\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B0A169-9209-4B24-89CD-B6F1D8F8D63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE0B504-9330-4F43-AA03-130FA5B79DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
   <si>
     <t>Tiền</t>
   </si>
@@ -309,6 +309,9 @@
   </si>
   <si>
     <t>53k quà, 40k nước, nước ngọt 10k, mua đồ ăn tối 20k</t>
+  </si>
+  <si>
+    <t>mẹ mượn 1tr, 20k thịt, 13k cà chua, 1k nước đá</t>
   </si>
 </sst>
 </file>
@@ -699,7 +702,7 @@
   <dimension ref="D3:V225"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C109" workbookViewId="0">
-      <selection activeCell="L125" sqref="L125"/>
+      <selection activeCell="J122" sqref="J122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3160,6 +3163,10 @@
       </c>
     </row>
     <row r="121" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E121">
+        <f>1000+20+13+1</f>
+        <v>1034</v>
+      </c>
       <c r="G121" t="s">
         <v>15</v>
       </c>
@@ -3168,7 +3175,10 @@
       </c>
       <c r="I121" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1034000</v>
+      </c>
+      <c r="J121" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="122" spans="5:16" x14ac:dyDescent="0.25">

--- a/daily expenses.xlsx
+++ b/daily expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragon\Desktop\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE0B504-9330-4F43-AA03-130FA5B79DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099C0067-41B2-4DAA-ACB5-FE8CF82DCA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
   </bookViews>
@@ -702,7 +702,7 @@
   <dimension ref="D3:V225"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C109" workbookViewId="0">
-      <selection activeCell="J122" sqref="J122"/>
+      <selection activeCell="E123" sqref="E123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3182,6 +3182,10 @@
       </c>
     </row>
     <row r="122" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E122">
+        <f>160+20+15</f>
+        <v>195</v>
+      </c>
       <c r="G122" t="s">
         <v>19</v>
       </c>
@@ -3190,7 +3194,7 @@
       </c>
       <c r="I122" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>195000</v>
       </c>
     </row>
     <row r="123" spans="5:16" x14ac:dyDescent="0.25">

--- a/daily expenses.xlsx
+++ b/daily expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragon\Desktop\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099C0067-41B2-4DAA-ACB5-FE8CF82DCA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0583BB4D-3E79-428E-9263-8876ED4A89DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
   </bookViews>
@@ -702,7 +702,7 @@
   <dimension ref="D3:V225"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C109" workbookViewId="0">
-      <selection activeCell="E123" sqref="E123"/>
+      <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3198,6 +3198,10 @@
       </c>
     </row>
     <row r="123" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E123">
+        <f>18+20</f>
+        <v>38</v>
+      </c>
       <c r="G123" t="s">
         <v>1</v>
       </c>
@@ -3206,7 +3210,7 @@
       </c>
       <c r="I123" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="124" spans="5:16" x14ac:dyDescent="0.25">

--- a/daily expenses.xlsx
+++ b/daily expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragon\Desktop\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0583BB4D-3E79-428E-9263-8876ED4A89DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC27D29A-12E9-456C-809A-D4A74DF13A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,9 +24,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -702,7 +705,7 @@
   <dimension ref="D3:V225"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C109" workbookViewId="0">
-      <selection activeCell="E124" sqref="E124"/>
+      <selection activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3214,6 +3217,10 @@
       </c>
     </row>
     <row r="124" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E124">
+        <f>2</f>
+        <v>2</v>
+      </c>
       <c r="G124" t="s">
         <v>8</v>
       </c>
@@ -3222,7 +3229,7 @@
       </c>
       <c r="I124" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="125" spans="5:16" x14ac:dyDescent="0.25">

--- a/daily expenses.xlsx
+++ b/daily expenses.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragon\Desktop\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC27D29A-12E9-456C-809A-D4A74DF13A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025D7434-6F50-443B-81C0-661E68565047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
+    <workbookView xWindow="0" yWindow="3540" windowWidth="18000" windowHeight="9360" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="93">
   <si>
     <t>Tiền</t>
   </si>
@@ -315,6 +315,9 @@
   </si>
   <si>
     <t>mẹ mượn 1tr, 20k thịt, 13k cà chua, 1k nước đá</t>
+  </si>
+  <si>
+    <t>104 led, 20 thịt, 13k cà chua, 145k nhớt, 108 xúc xích</t>
   </si>
 </sst>
 </file>
@@ -368,7 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -381,8 +384,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -704,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAE49B0-AACA-4A77-BE97-C23002D033D1}">
   <dimension ref="D3:V225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C109" workbookViewId="0">
-      <selection activeCell="E125" sqref="E125"/>
+    <sheetView tabSelected="1" topLeftCell="C121" workbookViewId="0">
+      <selection activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,14 +969,14 @@
         <f>50000+40000+273000</f>
         <v>363000</v>
       </c>
-      <c r="J15" s="13" t="s">
+      <c r="J15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
     </row>
     <row r="16" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
@@ -2434,25 +2435,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="4:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E88" s="10">
+    <row r="88" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="E88">
         <f>25+20+29</f>
         <v>74</v>
       </c>
-      <c r="F88" s="10">
+      <c r="F88">
         <v>6400</v>
       </c>
-      <c r="G88" s="10" t="s">
+      <c r="G88" t="s">
         <v>1</v>
       </c>
-      <c r="H88" s="11">
+      <c r="H88" s="1">
         <v>44867</v>
       </c>
-      <c r="I88" s="12">
+      <c r="I88" s="10">
         <f t="shared" si="0"/>
         <v>74000</v>
       </c>
-      <c r="P88" s="12">
+      <c r="P88" s="10">
         <f t="shared" si="1"/>
         <v>6400000</v>
       </c>
@@ -2468,7 +2469,7 @@
       <c r="H89" s="1">
         <v>44868</v>
       </c>
-      <c r="I89" s="12">
+      <c r="I89" s="10">
         <f t="shared" si="0"/>
         <v>26000</v>
       </c>
@@ -2488,7 +2489,7 @@
       <c r="H90" s="1">
         <v>44869</v>
       </c>
-      <c r="I90" s="12">
+      <c r="I90" s="10">
         <f t="shared" si="0"/>
         <v>3817000</v>
       </c>
@@ -2508,7 +2509,7 @@
       <c r="H91" s="1">
         <v>44870</v>
       </c>
-      <c r="I91" s="12">
+      <c r="I91" s="10">
         <f t="shared" si="0"/>
         <v>582000</v>
       </c>
@@ -2534,7 +2535,7 @@
       <c r="H92" s="1">
         <v>44871</v>
       </c>
-      <c r="I92" s="12">
+      <c r="I92" s="10">
         <f t="shared" si="0"/>
         <v>175000</v>
       </c>
@@ -2564,7 +2565,7 @@
       <c r="H93" s="1">
         <v>44872</v>
       </c>
-      <c r="I93" s="12">
+      <c r="I93" s="10">
         <f t="shared" si="0"/>
         <v>311000</v>
       </c>
@@ -2590,7 +2591,7 @@
       <c r="H94" s="1">
         <v>44873</v>
       </c>
-      <c r="I94" s="12">
+      <c r="I94" s="10">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
@@ -2610,7 +2611,7 @@
       <c r="H95" s="1">
         <v>44874</v>
       </c>
-      <c r="I95" s="12">
+      <c r="I95" s="10">
         <f t="shared" si="0"/>
         <v>46000</v>
       </c>
@@ -2633,7 +2634,7 @@
       <c r="H96" s="1">
         <v>44875</v>
       </c>
-      <c r="I96" s="12">
+      <c r="I96" s="10">
         <f t="shared" si="0"/>
         <v>47000</v>
       </c>
@@ -2656,7 +2657,7 @@
       <c r="H97" s="1">
         <v>44876</v>
       </c>
-      <c r="I97" s="12">
+      <c r="I97" s="10">
         <f t="shared" si="0"/>
         <v>38000</v>
       </c>
@@ -2676,7 +2677,7 @@
       <c r="H98" s="1">
         <v>44877</v>
       </c>
-      <c r="I98" s="12">
+      <c r="I98" s="10">
         <f t="shared" si="0"/>
         <v>1501500</v>
       </c>
@@ -2699,7 +2700,7 @@
       <c r="H99" s="1">
         <v>44878</v>
       </c>
-      <c r="I99" s="12">
+      <c r="I99" s="10">
         <f t="shared" si="0"/>
         <v>57000</v>
       </c>
@@ -2722,7 +2723,7 @@
       <c r="H100" s="1">
         <v>44879</v>
       </c>
-      <c r="I100" s="12">
+      <c r="I100" s="10">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
@@ -3233,6 +3234,13 @@
       </c>
     </row>
     <row r="125" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E125">
+        <f>104+20+13+108+145</f>
+        <v>390</v>
+      </c>
+      <c r="F125">
+        <v>110</v>
+      </c>
       <c r="G125" t="s">
         <v>7</v>
       </c>
@@ -3241,10 +3249,16 @@
       </c>
       <c r="I125" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>390000</v>
+      </c>
+      <c r="J125" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="126" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E126">
+        <v>30</v>
+      </c>
       <c r="G126" t="s">
         <v>11</v>
       </c>
@@ -3253,7 +3267,7 @@
       </c>
       <c r="I126" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="127" spans="5:16" x14ac:dyDescent="0.25">

--- a/daily expenses.xlsx
+++ b/daily expenses.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragon\Desktop\arduino\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragon\Desktop\arduino\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025D7434-6F50-443B-81C0-661E68565047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFA91B6-BF3E-4681-8282-5F15C7DDE556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3540" windowWidth="18000" windowHeight="9360" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -706,7 +706,7 @@
   <dimension ref="D3:V225"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C121" workbookViewId="0">
-      <selection activeCell="E127" sqref="E127"/>
+      <selection activeCell="K130" sqref="K130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3271,6 +3271,12 @@
       </c>
     </row>
     <row r="127" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E127">
+        <v>240</v>
+      </c>
+      <c r="F127">
+        <v>42</v>
+      </c>
       <c r="G127" t="s">
         <v>14</v>
       </c>
@@ -3279,10 +3285,16 @@
       </c>
       <c r="I127" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="128" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E128">
+        <v>135</v>
+      </c>
+      <c r="F128">
+        <v>53</v>
+      </c>
       <c r="G128" t="s">
         <v>15</v>
       </c>
@@ -3291,7 +3303,7 @@
       </c>
       <c r="I128" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>135000</v>
       </c>
     </row>
     <row r="129" spans="7:9" x14ac:dyDescent="0.25">

--- a/daily expenses.xlsx
+++ b/daily expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragon\Desktop\arduino\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFA91B6-BF3E-4681-8282-5F15C7DDE556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02026C78-8B2D-4C70-924B-79F7BB842541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3540" windowWidth="18000" windowHeight="9360" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
   </bookViews>
@@ -706,7 +706,7 @@
   <dimension ref="D3:V225"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C121" workbookViewId="0">
-      <selection activeCell="K130" sqref="K130"/>
+      <selection activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3306,7 +3306,11 @@
         <v>135000</v>
       </c>
     </row>
-    <row r="129" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E129">
+        <f>50</f>
+        <v>50</v>
+      </c>
       <c r="G129" t="s">
         <v>19</v>
       </c>
@@ -3315,10 +3319,10 @@
       </c>
       <c r="I129" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="7:9" x14ac:dyDescent="0.25">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="130" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G130" t="s">
         <v>1</v>
       </c>
@@ -3330,7 +3334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G131" t="s">
         <v>8</v>
       </c>
@@ -3342,7 +3346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G132" t="s">
         <v>7</v>
       </c>
@@ -3354,7 +3358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G133" t="s">
         <v>11</v>
       </c>
@@ -3366,7 +3370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G134" t="s">
         <v>14</v>
       </c>
@@ -3378,7 +3382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G135" t="s">
         <v>15</v>
       </c>
@@ -3390,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G136" t="s">
         <v>19</v>
       </c>
@@ -3402,7 +3406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G137" t="s">
         <v>1</v>
       </c>
@@ -3414,7 +3418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G138" t="s">
         <v>8</v>
       </c>
@@ -3426,7 +3430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G139" t="s">
         <v>7</v>
       </c>
@@ -3438,7 +3442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G140" t="s">
         <v>11</v>
       </c>
@@ -3450,7 +3454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G141" t="s">
         <v>14</v>
       </c>
@@ -3462,7 +3466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G142" t="s">
         <v>15</v>
       </c>
@@ -3474,7 +3478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G143" t="s">
         <v>19</v>
       </c>
@@ -3486,7 +3490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G144" t="s">
         <v>1</v>
       </c>

--- a/daily expenses.xlsx
+++ b/daily expenses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragon\Desktop\arduino\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02026C78-8B2D-4C70-924B-79F7BB842541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9F49BD-CFB2-44A6-8BBE-363A0F75C4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3540" windowWidth="18000" windowHeight="9360" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -706,7 +706,7 @@
   <dimension ref="D3:V225"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C121" workbookViewId="0">
-      <selection activeCell="E130" sqref="E130"/>
+      <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3323,6 +3323,10 @@
       </c>
     </row>
     <row r="130" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E130">
+        <f>80</f>
+        <v>80</v>
+      </c>
       <c r="G130" t="s">
         <v>1</v>
       </c>
@@ -3331,7 +3335,7 @@
       </c>
       <c r="I130" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="131" spans="5:9" x14ac:dyDescent="0.25">

--- a/daily expenses.xlsx
+++ b/daily expenses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragon\Desktop\arduino\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9F49BD-CFB2-44A6-8BBE-363A0F75C4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E692C5B-74A7-4A76-AC92-AC3D9F88D40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="18000" windowHeight="9360" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="94">
   <si>
     <t>Tiền</t>
   </si>
@@ -318,6 +318,9 @@
   </si>
   <si>
     <t>104 led, 20 thịt, 13k cà chua, 145k nhớt, 108 xúc xích</t>
+  </si>
+  <si>
+    <t>132k cà phê và nước mắm, 30k thịt+ cà chua,  28k trứng</t>
   </si>
 </sst>
 </file>
@@ -706,7 +709,7 @@
   <dimension ref="D3:V225"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C121" workbookViewId="0">
-      <selection activeCell="E131" sqref="E131"/>
+      <selection activeCell="J133" sqref="J133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3306,7 +3309,7 @@
         <v>135000</v>
       </c>
     </row>
-    <row r="129" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E129">
         <f>50</f>
         <v>50</v>
@@ -3322,7 +3325,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="130" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E130">
         <f>80</f>
         <v>80</v>
@@ -3338,7 +3341,11 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="131" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E131">
+        <f>20</f>
+        <v>20</v>
+      </c>
       <c r="G131" t="s">
         <v>8</v>
       </c>
@@ -3347,10 +3354,14 @@
       </c>
       <c r="I131" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="5:9" x14ac:dyDescent="0.25">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="132" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E132">
+        <f>132+20+10+28</f>
+        <v>190</v>
+      </c>
       <c r="G132" t="s">
         <v>7</v>
       </c>
@@ -3359,10 +3370,13 @@
       </c>
       <c r="I132" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="5:9" x14ac:dyDescent="0.25">
+        <v>190000</v>
+      </c>
+      <c r="J132" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="133" spans="5:10" x14ac:dyDescent="0.25">
       <c r="G133" t="s">
         <v>11</v>
       </c>
@@ -3374,7 +3388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="5:10" x14ac:dyDescent="0.25">
       <c r="G134" t="s">
         <v>14</v>
       </c>
@@ -3386,7 +3400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="5:10" x14ac:dyDescent="0.25">
       <c r="G135" t="s">
         <v>15</v>
       </c>
@@ -3398,7 +3412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="5:10" x14ac:dyDescent="0.25">
       <c r="G136" t="s">
         <v>19</v>
       </c>
@@ -3410,7 +3424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="5:10" x14ac:dyDescent="0.25">
       <c r="G137" t="s">
         <v>1</v>
       </c>
@@ -3422,7 +3436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="5:10" x14ac:dyDescent="0.25">
       <c r="G138" t="s">
         <v>8</v>
       </c>
@@ -3434,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="5:10" x14ac:dyDescent="0.25">
       <c r="G139" t="s">
         <v>7</v>
       </c>
@@ -3446,7 +3460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="5:10" x14ac:dyDescent="0.25">
       <c r="G140" t="s">
         <v>11</v>
       </c>
@@ -3458,7 +3472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="5:10" x14ac:dyDescent="0.25">
       <c r="G141" t="s">
         <v>14</v>
       </c>
@@ -3470,7 +3484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="5:10" x14ac:dyDescent="0.25">
       <c r="G142" t="s">
         <v>15</v>
       </c>
@@ -3482,7 +3496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="5:10" x14ac:dyDescent="0.25">
       <c r="G143" t="s">
         <v>19</v>
       </c>
@@ -3494,7 +3508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="5:10" x14ac:dyDescent="0.25">
       <c r="G144" t="s">
         <v>1</v>
       </c>

--- a/daily expenses.xlsx
+++ b/daily expenses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragon\Desktop\arduino\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E692C5B-74A7-4A76-AC92-AC3D9F88D40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8A2E23-8D06-4869-AA5E-ADD412F90A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="18000" windowHeight="9360" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
+    <workbookView xWindow="6000" yWindow="3060" windowWidth="18000" windowHeight="9360" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="96">
   <si>
     <t>Tiền</t>
   </si>
@@ -321,6 +321,12 @@
   </si>
   <si>
     <t>132k cà phê và nước mắm, 30k thịt+ cà chua,  28k trứng</t>
+  </si>
+  <si>
+    <t>32+87k robot hút bụi</t>
+  </si>
+  <si>
+    <t>33 k đồ ăn, 318k robot hút bụi+50k trà sữa</t>
   </si>
 </sst>
 </file>
@@ -709,7 +715,7 @@
   <dimension ref="D3:V225"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C121" workbookViewId="0">
-      <selection activeCell="J133" sqref="J133"/>
+      <selection activeCell="N129" sqref="N129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3389,6 +3395,10 @@
       </c>
     </row>
     <row r="134" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E134">
+        <f>33+318+50</f>
+        <v>401</v>
+      </c>
       <c r="G134" t="s">
         <v>14</v>
       </c>
@@ -3397,10 +3407,17 @@
       </c>
       <c r="I134" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>401000</v>
+      </c>
+      <c r="J134" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="135" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E135">
+        <f>32+87</f>
+        <v>119</v>
+      </c>
       <c r="G135" t="s">
         <v>15</v>
       </c>
@@ -3409,7 +3426,10 @@
       </c>
       <c r="I135" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>119000</v>
+      </c>
+      <c r="J135" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="136" spans="5:10" x14ac:dyDescent="0.25">

--- a/daily expenses.xlsx
+++ b/daily expenses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragon\Desktop\arduino\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8A2E23-8D06-4869-AA5E-ADD412F90A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6716B9-E6C1-4503-B12C-A5172F4453A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="3060" windowWidth="18000" windowHeight="9360" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -715,7 +715,7 @@
   <dimension ref="D3:V225"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C121" workbookViewId="0">
-      <selection activeCell="N129" sqref="N129"/>
+      <selection activeCell="E137" sqref="E137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3433,6 +3433,10 @@
       </c>
     </row>
     <row r="136" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E136">
+        <f>50+20</f>
+        <v>70</v>
+      </c>
       <c r="G136" t="s">
         <v>19</v>
       </c>
@@ -3441,7 +3445,7 @@
       </c>
       <c r="I136" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="137" spans="5:10" x14ac:dyDescent="0.25">

--- a/daily expenses.xlsx
+++ b/daily expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragon\Desktop\arduino\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6716B9-E6C1-4503-B12C-A5172F4453A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC7D4DA-C0E8-4C9F-917B-E45B96B64C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
   </bookViews>
@@ -714,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAE49B0-AACA-4A77-BE97-C23002D033D1}">
   <dimension ref="D3:V225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C121" workbookViewId="0">
-      <selection activeCell="E137" sqref="E137"/>
+    <sheetView tabSelected="1" topLeftCell="C119" workbookViewId="0">
+      <selection activeCell="E138" sqref="E138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3449,6 +3449,10 @@
       </c>
     </row>
     <row r="137" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E137">
+        <f>20+30</f>
+        <v>50</v>
+      </c>
       <c r="G137" t="s">
         <v>1</v>
       </c>
@@ -3457,7 +3461,7 @@
       </c>
       <c r="I137" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="138" spans="5:10" x14ac:dyDescent="0.25">

--- a/daily expenses.xlsx
+++ b/daily expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragon\Desktop\arduino\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC7D4DA-C0E8-4C9F-917B-E45B96B64C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E89C240-3B94-4EA7-914F-BACAE8C7C263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
   </bookViews>
@@ -715,7 +715,7 @@
   <dimension ref="D3:V225"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C119" workbookViewId="0">
-      <selection activeCell="E138" sqref="E138"/>
+      <selection activeCell="O133" sqref="O133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3465,6 +3465,10 @@
       </c>
     </row>
     <row r="138" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E138">
+        <f>1</f>
+        <v>1</v>
+      </c>
       <c r="G138" t="s">
         <v>8</v>
       </c>
@@ -3473,10 +3477,14 @@
       </c>
       <c r="I138" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="139" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E139">
+        <f>20+12+20</f>
+        <v>52</v>
+      </c>
       <c r="G139" t="s">
         <v>7</v>
       </c>
@@ -3485,7 +3493,7 @@
       </c>
       <c r="I139" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>52000</v>
       </c>
     </row>
     <row r="140" spans="5:10" x14ac:dyDescent="0.25">

--- a/daily expenses.xlsx
+++ b/daily expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragon\Desktop\arduino\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E89C240-3B94-4EA7-914F-BACAE8C7C263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B58210D-C26A-4BDE-A89B-0378ECDEDDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
   </bookViews>
@@ -715,7 +715,7 @@
   <dimension ref="D3:V225"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C119" workbookViewId="0">
-      <selection activeCell="O133" sqref="O133"/>
+      <selection activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3497,6 +3497,10 @@
       </c>
     </row>
     <row r="140" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E140">
+        <f>50+81+15</f>
+        <v>146</v>
+      </c>
       <c r="G140" t="s">
         <v>11</v>
       </c>
@@ -3505,7 +3509,7 @@
       </c>
       <c r="I140" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>146000</v>
       </c>
     </row>
     <row r="141" spans="5:10" x14ac:dyDescent="0.25">

--- a/daily expenses.xlsx
+++ b/daily expenses.xlsx
@@ -5,32 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragon\Desktop\arduino\arduino\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\te\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E89C240-3B94-4EA7-914F-BACAE8C7C263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6625595D-88D5-4176-9AA5-512A756458C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -714,23 +703,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAE49B0-AACA-4A77-BE97-C23002D033D1}">
   <dimension ref="D3:V225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C119" workbookViewId="0">
-      <selection activeCell="O133" sqref="O133"/>
+    <sheetView tabSelected="1" topLeftCell="C137" workbookViewId="0">
+      <selection activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.7265625" customWidth="1"/>
+    <col min="16" max="16" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="7:21" x14ac:dyDescent="0.35">
       <c r="I3" t="s">
         <v>0</v>
       </c>
@@ -741,7 +730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="7:21" x14ac:dyDescent="0.35">
       <c r="G4" t="s">
         <v>1</v>
       </c>
@@ -763,7 +752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="7:21" x14ac:dyDescent="0.35">
       <c r="G5" t="s">
         <v>8</v>
       </c>
@@ -783,7 +772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="7:21" x14ac:dyDescent="0.35">
       <c r="G6" t="s">
         <v>7</v>
       </c>
@@ -804,7 +793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="7:21" x14ac:dyDescent="0.35">
       <c r="G7" t="s">
         <v>11</v>
       </c>
@@ -825,7 +814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="7:21" x14ac:dyDescent="0.35">
       <c r="G8" t="s">
         <v>14</v>
       </c>
@@ -840,7 +829,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="7:21" x14ac:dyDescent="0.35">
       <c r="G9" t="s">
         <v>15</v>
       </c>
@@ -862,7 +851,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="7:21" x14ac:dyDescent="0.35">
       <c r="G10" t="s">
         <v>19</v>
       </c>
@@ -883,7 +872,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="7:21" x14ac:dyDescent="0.35">
       <c r="G11" t="s">
         <v>1</v>
       </c>
@@ -904,7 +893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="7:21" x14ac:dyDescent="0.35">
       <c r="G12" t="s">
         <v>8</v>
       </c>
@@ -925,7 +914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="7:21" x14ac:dyDescent="0.35">
       <c r="G13" t="s">
         <v>7</v>
       </c>
@@ -946,7 +935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="7:21" x14ac:dyDescent="0.35">
       <c r="G14" t="s">
         <v>11</v>
       </c>
@@ -967,7 +956,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="7:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="7:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G15" t="s">
         <v>14</v>
       </c>
@@ -987,7 +976,7 @@
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
     </row>
-    <row r="16" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="7:21" x14ac:dyDescent="0.35">
       <c r="G16" t="s">
         <v>15</v>
       </c>
@@ -1009,7 +998,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:22" x14ac:dyDescent="0.35">
       <c r="D17" s="2"/>
       <c r="G17" t="s">
         <v>19</v>
@@ -1032,7 +1021,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:22" x14ac:dyDescent="0.35">
       <c r="G18" t="s">
         <v>1</v>
       </c>
@@ -1052,7 +1041,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:22" x14ac:dyDescent="0.35">
       <c r="G19" t="s">
         <v>8</v>
       </c>
@@ -1069,7 +1058,7 @@
       <c r="M19" s="2"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:22" x14ac:dyDescent="0.35">
       <c r="G20" t="s">
         <v>7</v>
       </c>
@@ -1090,7 +1079,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:22" x14ac:dyDescent="0.35">
       <c r="G21" t="s">
         <v>11</v>
       </c>
@@ -1111,7 +1100,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:22" x14ac:dyDescent="0.35">
       <c r="G22" t="s">
         <v>14</v>
       </c>
@@ -1119,7 +1108,7 @@
         <v>44801</v>
       </c>
     </row>
-    <row r="23" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:22" x14ac:dyDescent="0.35">
       <c r="G23" t="s">
         <v>15</v>
       </c>
@@ -1134,7 +1123,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:22" x14ac:dyDescent="0.35">
       <c r="G24" t="s">
         <v>19</v>
       </c>
@@ -1148,7 +1137,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:22" x14ac:dyDescent="0.35">
       <c r="G25" t="s">
         <v>1</v>
       </c>
@@ -1162,7 +1151,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:22" x14ac:dyDescent="0.35">
       <c r="G26" t="s">
         <v>8</v>
       </c>
@@ -1170,7 +1159,7 @@
         <v>44805</v>
       </c>
     </row>
-    <row r="27" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:22" x14ac:dyDescent="0.35">
       <c r="G27" t="s">
         <v>7</v>
       </c>
@@ -1178,7 +1167,7 @@
         <v>44806</v>
       </c>
     </row>
-    <row r="28" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:22" x14ac:dyDescent="0.35">
       <c r="G28" t="s">
         <v>11</v>
       </c>
@@ -1186,7 +1175,7 @@
         <v>44807</v>
       </c>
     </row>
-    <row r="29" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:22" x14ac:dyDescent="0.35">
       <c r="E29" t="s">
         <v>43</v>
       </c>
@@ -1211,7 +1200,7 @@
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
     </row>
-    <row r="30" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:22" x14ac:dyDescent="0.35">
       <c r="G30" t="s">
         <v>15</v>
       </c>
@@ -1219,7 +1208,7 @@
         <v>44809</v>
       </c>
     </row>
-    <row r="31" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:22" x14ac:dyDescent="0.35">
       <c r="E31">
         <v>1000</v>
       </c>
@@ -1244,7 +1233,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:22" x14ac:dyDescent="0.35">
       <c r="G32" t="s">
         <v>1</v>
       </c>
@@ -1260,7 +1249,7 @@
       </c>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:17" x14ac:dyDescent="0.35">
       <c r="G33" t="s">
         <v>8</v>
       </c>
@@ -1280,7 +1269,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:17" x14ac:dyDescent="0.35">
       <c r="G34" t="s">
         <v>7</v>
       </c>
@@ -1302,7 +1291,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:17" x14ac:dyDescent="0.35">
       <c r="G35" t="s">
         <v>11</v>
       </c>
@@ -1317,7 +1306,7 @@
       </c>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E36" s="6"/>
       <c r="G36" t="s">
         <v>14</v>
@@ -1339,7 +1328,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:17" x14ac:dyDescent="0.35">
       <c r="G37" t="s">
         <v>15</v>
       </c>
@@ -1351,7 +1340,7 @@
       </c>
       <c r="Q37" s="2"/>
     </row>
-    <row r="38" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:17" x14ac:dyDescent="0.35">
       <c r="G38" t="s">
         <v>19</v>
       </c>
@@ -1364,7 +1353,7 @@
       </c>
       <c r="P38" s="2"/>
     </row>
-    <row r="39" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E39">
         <v>116</v>
       </c>
@@ -1386,7 +1375,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="40" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E40">
         <f>25+35</f>
         <v>60</v>
@@ -1409,7 +1398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E41">
         <f>25+370</f>
         <v>395</v>
@@ -1432,7 +1421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E42">
         <f>50+25</f>
         <v>75</v>
@@ -1452,7 +1441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E43">
         <v>69</v>
       </c>
@@ -1478,7 +1467,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E44">
         <v>25</v>
       </c>
@@ -1497,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E45">
         <v>25</v>
       </c>
@@ -1518,7 +1507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E46">
         <v>25</v>
       </c>
@@ -1540,7 +1529,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="47" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E47">
         <f>19+150</f>
         <v>169</v>
@@ -1563,7 +1552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E48">
         <f>25+6</f>
         <v>31</v>
@@ -1586,7 +1575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E49">
         <f>25+50+60+5+1</f>
         <v>141</v>
@@ -1609,7 +1598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E50">
         <v>25</v>
       </c>
@@ -1628,7 +1617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E51">
         <v>25</v>
       </c>
@@ -1647,7 +1636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E52">
         <v>25</v>
       </c>
@@ -1666,7 +1655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E53">
         <f>25+5+1</f>
         <v>31</v>
@@ -1689,7 +1678,7 @@
         <v>393000</v>
       </c>
     </row>
-    <row r="54" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E54">
         <f>783+130+25+1</f>
         <v>939</v>
@@ -1712,7 +1701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E55">
         <f>25+1+5</f>
         <v>31</v>
@@ -1732,7 +1721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E56">
         <f>22+25</f>
         <v>47</v>
@@ -1752,7 +1741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="5:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E57" s="4">
         <v>6</v>
       </c>
@@ -1773,7 +1762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E58">
         <v>26</v>
       </c>
@@ -1795,7 +1784,7 @@
         <v>5125000</v>
       </c>
     </row>
-    <row r="59" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E59">
         <f>50+25+53+697</f>
         <v>825</v>
@@ -1822,7 +1811,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="60" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E60">
         <f>25+1+50+5</f>
         <v>81</v>
@@ -1842,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E61">
         <f>25+1+20</f>
         <v>46</v>
@@ -1863,7 +1852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E62">
         <f>103+26</f>
         <v>129</v>
@@ -1883,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E63">
         <f>25+1</f>
         <v>26</v>
@@ -1903,7 +1892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E64">
         <f>90+30</f>
         <v>120</v>
@@ -1923,7 +1912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E65">
         <f>25</f>
         <v>25</v>
@@ -1943,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E66">
         <f>25+20+80+40</f>
         <v>165</v>
@@ -1963,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E67">
         <f>25+25+35</f>
         <v>85</v>
@@ -1986,7 +1975,7 @@
         <v>660000</v>
       </c>
     </row>
-    <row r="68" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E68">
         <f>25+100+20+62</f>
         <v>207</v>
@@ -2009,7 +1998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E69">
         <f>25+5+25+56</f>
         <v>111</v>
@@ -2032,7 +2021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E70">
         <f>25+20+60</f>
         <v>105</v>
@@ -2055,7 +2044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E71">
         <f>20+35+60+10+5</f>
         <v>130</v>
@@ -2078,7 +2067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E72">
         <f>25+20+20</f>
         <v>65</v>
@@ -2104,7 +2093,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E73">
         <f>25+50</f>
         <v>75</v>
@@ -2127,7 +2116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E74">
         <f>25+20</f>
         <v>45</v>
@@ -2147,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E75">
         <f>25+13+20</f>
         <v>58</v>
@@ -2168,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E76">
         <v>55</v>
       </c>
@@ -2187,7 +2176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E77">
         <f>25+120+13+5+1+12</f>
         <v>176</v>
@@ -2210,7 +2199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E78">
         <f>40+19+5</f>
         <v>64</v>
@@ -2233,7 +2222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E79">
         <f>25+1</f>
         <v>26</v>
@@ -2256,7 +2245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E80">
         <f>25+20</f>
         <v>45</v>
@@ -2279,7 +2268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:17" x14ac:dyDescent="0.35">
       <c r="E81">
         <f>25+5</f>
         <v>30</v>
@@ -2308,7 +2297,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="82" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:17" x14ac:dyDescent="0.35">
       <c r="E82">
         <f>25+19+20+15</f>
         <v>79</v>
@@ -2331,7 +2320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:17" x14ac:dyDescent="0.35">
       <c r="E83">
         <f>25+5+1</f>
         <v>31</v>
@@ -2352,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="4:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:17" ht="29" x14ac:dyDescent="0.35">
       <c r="D84" s="9" t="s">
         <v>71</v>
       </c>
@@ -2378,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:17" x14ac:dyDescent="0.35">
       <c r="E85">
         <f>6</f>
         <v>6</v>
@@ -2398,7 +2387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D86" t="s">
         <v>72</v>
       </c>
@@ -2424,7 +2413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="4:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:17" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E87" s="4">
         <f>25+5</f>
         <v>30</v>
@@ -2444,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:17" x14ac:dyDescent="0.35">
       <c r="E88">
         <f>25+20+29</f>
         <v>74</v>
@@ -2467,7 +2456,7 @@
         <v>6400000</v>
       </c>
     </row>
-    <row r="89" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:17" x14ac:dyDescent="0.35">
       <c r="E89">
         <f>26</f>
         <v>26</v>
@@ -2487,7 +2476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:17" x14ac:dyDescent="0.35">
       <c r="E90">
         <f>32+25+3760</f>
         <v>3817</v>
@@ -2507,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:17" x14ac:dyDescent="0.35">
       <c r="E91">
         <f>25+1+90+60+406</f>
         <v>582</v>
@@ -2530,7 +2519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:17" x14ac:dyDescent="0.35">
       <c r="E92">
         <f>45+130</f>
         <v>175</v>
@@ -2559,7 +2548,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="93" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:17" x14ac:dyDescent="0.35">
       <c r="E93">
         <f>30+47+65+19+150</f>
         <v>311</v>
@@ -2589,7 +2578,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="94" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:17" x14ac:dyDescent="0.35">
       <c r="E94">
         <f>1</f>
         <v>1</v>
@@ -2609,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:17" x14ac:dyDescent="0.35">
       <c r="E95">
         <f>25+20+1</f>
         <v>46</v>
@@ -2632,7 +2621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:17" x14ac:dyDescent="0.35">
       <c r="E96">
         <f>35+11+1</f>
         <v>47</v>
@@ -2655,7 +2644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E97">
         <f>20+18</f>
         <v>38</v>
@@ -2675,7 +2664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E98">
         <f>1500+1.5</f>
         <v>1501.5</v>
@@ -2698,7 +2687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E99">
         <f>32+25</f>
         <v>57</v>
@@ -2721,7 +2710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E100">
         <f>50</f>
         <v>50</v>
@@ -2744,7 +2733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E101">
         <f>25+30</f>
         <v>55</v>
@@ -2767,7 +2756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E102">
         <v>55</v>
       </c>
@@ -2786,7 +2775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E103">
         <f>50+8</f>
         <v>58</v>
@@ -2809,7 +2798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E104">
         <f>20+17+35</f>
         <v>72</v>
@@ -2832,7 +2821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E105">
         <f>65</f>
         <v>65</v>
@@ -2855,7 +2844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E106">
         <f>67+25+5+20</f>
         <v>117</v>
@@ -2881,7 +2870,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="107" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E107">
         <f>10</f>
         <v>10</v>
@@ -2901,7 +2890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E108">
         <f>25</f>
         <v>25</v>
@@ -2921,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E109">
         <f>20</f>
         <v>20</v>
@@ -2941,7 +2930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E110">
         <v>0</v>
       </c>
@@ -2960,7 +2949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E111">
         <f>30+20+70+19</f>
         <v>139</v>
@@ -2983,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E112">
         <f>50+20</f>
         <v>70</v>
@@ -3003,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E113">
         <f>822</f>
         <v>822</v>
@@ -3029,7 +3018,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E114">
         <f>30</f>
         <v>30</v>
@@ -3049,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E115">
         <f>53+40+3+10+20</f>
         <v>126</v>
@@ -3072,7 +3061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E116">
         <f>10+15</f>
         <v>25</v>
@@ -3095,7 +3084,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="117" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E117">
         <f>20+19+50</f>
         <v>89</v>
@@ -3115,7 +3104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E118">
         <f>30</f>
         <v>30</v>
@@ -3135,7 +3124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E119">
         <f>20+40</f>
         <v>60</v>
@@ -3155,7 +3144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E120">
         <f>15+50+45+61+19</f>
         <v>190</v>
@@ -3175,7 +3164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E121">
         <f>1000+20+13+1</f>
         <v>1034</v>
@@ -3194,7 +3183,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="122" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E122">
         <f>160+20+15</f>
         <v>195</v>
@@ -3210,7 +3199,7 @@
         <v>195000</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E123">
         <f>18+20</f>
         <v>38</v>
@@ -3226,7 +3215,7 @@
         <v>38000</v>
       </c>
     </row>
-    <row r="124" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E124">
         <f>2</f>
         <v>2</v>
@@ -3242,7 +3231,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="125" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E125">
         <f>104+20+13+108+145</f>
         <v>390</v>
@@ -3264,7 +3253,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="126" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E126">
         <v>30</v>
       </c>
@@ -3279,7 +3268,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="127" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E127">
         <v>240</v>
       </c>
@@ -3297,7 +3286,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="128" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E128">
         <v>135</v>
       </c>
@@ -3315,7 +3304,7 @@
         <v>135000</v>
       </c>
     </row>
-    <row r="129" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E129">
         <f>50</f>
         <v>50</v>
@@ -3331,7 +3320,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="130" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E130">
         <f>80</f>
         <v>80</v>
@@ -3347,7 +3336,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="131" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E131">
         <f>20</f>
         <v>20</v>
@@ -3363,7 +3352,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="132" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E132">
         <f>132+20+10+28</f>
         <v>190</v>
@@ -3382,7 +3371,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="133" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="5:10" x14ac:dyDescent="0.35">
       <c r="G133" t="s">
         <v>11</v>
       </c>
@@ -3394,7 +3383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E134">
         <f>33+318+50</f>
         <v>401</v>
@@ -3413,7 +3402,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="135" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E135">
         <f>32+87</f>
         <v>119</v>
@@ -3432,7 +3421,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="136" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E136">
         <f>50+20</f>
         <v>70</v>
@@ -3448,7 +3437,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="137" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E137">
         <f>20+30</f>
         <v>50</v>
@@ -3464,7 +3453,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="138" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E138">
         <f>1</f>
         <v>1</v>
@@ -3480,7 +3469,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="139" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E139">
         <f>20+12+20</f>
         <v>52</v>
@@ -3496,7 +3485,7 @@
         <v>52000</v>
       </c>
     </row>
-    <row r="140" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="5:10" x14ac:dyDescent="0.35">
       <c r="G140" t="s">
         <v>11</v>
       </c>
@@ -3508,7 +3497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="5:10" x14ac:dyDescent="0.35">
       <c r="G141" t="s">
         <v>14</v>
       </c>
@@ -3520,7 +3509,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E142">
+        <f>25+35</f>
+        <v>60</v>
+      </c>
       <c r="G142" t="s">
         <v>15</v>
       </c>
@@ -3529,10 +3522,10 @@
       </c>
       <c r="I142" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="5:10" x14ac:dyDescent="0.25">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="143" spans="5:10" x14ac:dyDescent="0.35">
       <c r="G143" t="s">
         <v>19</v>
       </c>
@@ -3544,7 +3537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="5:10" x14ac:dyDescent="0.35">
       <c r="G144" t="s">
         <v>1</v>
       </c>
@@ -3556,7 +3549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G145" t="s">
         <v>8</v>
       </c>
@@ -3568,7 +3561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G146" t="s">
         <v>7</v>
       </c>
@@ -3580,7 +3573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G147" t="s">
         <v>11</v>
       </c>
@@ -3592,7 +3585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G148" t="s">
         <v>14</v>
       </c>
@@ -3604,7 +3597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="7:9" x14ac:dyDescent="0.35">
       <c r="H149" s="1">
         <v>44928</v>
       </c>
@@ -3613,7 +3606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="7:9" x14ac:dyDescent="0.35">
       <c r="H150" s="1">
         <v>44929</v>
       </c>
@@ -3622,7 +3615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="7:9" x14ac:dyDescent="0.35">
       <c r="H151" s="1">
         <v>44930</v>
       </c>
@@ -3631,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="7:9" x14ac:dyDescent="0.35">
       <c r="H152" s="1">
         <v>44931</v>
       </c>
@@ -3640,7 +3633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="7:9" x14ac:dyDescent="0.35">
       <c r="H153" s="1">
         <v>44932</v>
       </c>
@@ -3649,7 +3642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="7:9" x14ac:dyDescent="0.35">
       <c r="H154" s="1">
         <v>44933</v>
       </c>
@@ -3658,7 +3651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="7:9" x14ac:dyDescent="0.35">
       <c r="H155" s="1">
         <v>44934</v>
       </c>
@@ -3667,7 +3660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="7:9" x14ac:dyDescent="0.35">
       <c r="H156" s="1">
         <v>44935</v>
       </c>
@@ -3676,7 +3669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="7:9" x14ac:dyDescent="0.35">
       <c r="H157" s="1">
         <v>44936</v>
       </c>
@@ -3685,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="7:9" x14ac:dyDescent="0.35">
       <c r="H158" s="1">
         <v>44937</v>
       </c>
@@ -3694,7 +3687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="7:9" x14ac:dyDescent="0.35">
       <c r="H159" s="1">
         <v>44938</v>
       </c>
@@ -3703,7 +3696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="7:9" x14ac:dyDescent="0.35">
       <c r="H160" s="1">
         <v>44939</v>
       </c>
@@ -3712,7 +3705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H161" s="1">
         <v>44940</v>
       </c>
@@ -3721,7 +3714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H162" s="1">
         <v>44941</v>
       </c>
@@ -3730,7 +3723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H163" s="1">
         <v>44942</v>
       </c>
@@ -3739,7 +3732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H164" s="1">
         <v>44943</v>
       </c>
@@ -3748,7 +3741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H165" s="1">
         <v>44944</v>
       </c>
@@ -3757,7 +3750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H166" s="1">
         <v>44945</v>
       </c>
@@ -3766,7 +3759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H167" s="1">
         <v>44946</v>
       </c>
@@ -3775,7 +3768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H168" s="1">
         <v>44947</v>
       </c>
@@ -3784,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H169" s="1">
         <v>44948</v>
       </c>
@@ -3793,7 +3786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H170" s="1">
         <v>44949</v>
       </c>
@@ -3802,7 +3795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H171" s="1">
         <v>44950</v>
       </c>
@@ -3811,7 +3804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H172" s="1">
         <v>44951</v>
       </c>
@@ -3820,7 +3813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H173" s="1">
         <v>44952</v>
       </c>
@@ -3829,7 +3822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H174" s="1">
         <v>44953</v>
       </c>
@@ -3838,7 +3831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H175" s="1">
         <v>44954</v>
       </c>
@@ -3847,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H176" s="1">
         <v>44955</v>
       </c>
@@ -3856,7 +3849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H177" s="1">
         <v>44956</v>
       </c>
@@ -3865,7 +3858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H178" s="1">
         <v>44957</v>
       </c>
@@ -3874,7 +3867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H179" s="1">
         <v>44958</v>
       </c>
@@ -3883,7 +3876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H180" s="1">
         <v>44959</v>
       </c>
@@ -3892,7 +3885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H181" s="1">
         <v>44960</v>
       </c>
@@ -3901,7 +3894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H182" s="1">
         <v>44961</v>
       </c>
@@ -3910,7 +3903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H183" s="1">
         <v>44962</v>
       </c>
@@ -3919,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H184" s="1">
         <v>44963</v>
       </c>
@@ -3928,7 +3921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H185" s="1">
         <v>44964</v>
       </c>
@@ -3937,7 +3930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H186" s="1">
         <v>44965</v>
       </c>
@@ -3946,7 +3939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H187" s="1">
         <v>44966</v>
       </c>
@@ -3955,7 +3948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H188" s="1">
         <v>44967</v>
       </c>
@@ -3964,7 +3957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H189" s="1">
         <v>44968</v>
       </c>
@@ -3973,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H190" s="1">
         <v>44969</v>
       </c>
@@ -3982,7 +3975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H191" s="1">
         <v>44970</v>
       </c>
@@ -3991,7 +3984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H192" s="1">
         <v>44971</v>
       </c>
@@ -4000,7 +3993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H193" s="1">
         <v>44972</v>
       </c>
@@ -4009,7 +4002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H194" s="1">
         <v>44973</v>
       </c>
@@ -4018,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H195" s="1">
         <v>44974</v>
       </c>
@@ -4027,7 +4020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H196" s="1">
         <v>44975</v>
       </c>
@@ -4036,7 +4029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H197" s="1">
         <v>44976</v>
       </c>
@@ -4045,7 +4038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H198" s="1">
         <v>44977</v>
       </c>
@@ -4054,7 +4047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H199" s="1">
         <v>44978</v>
       </c>
@@ -4063,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H200" s="1">
         <v>44979</v>
       </c>
@@ -4072,7 +4065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H201" s="1">
         <v>44980</v>
       </c>
@@ -4081,7 +4074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H202" s="1">
         <v>44981</v>
       </c>
@@ -4090,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H203" s="1">
         <v>44982</v>
       </c>
@@ -4099,7 +4092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H204" s="1">
         <v>44983</v>
       </c>
@@ -4108,7 +4101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H205" s="1">
         <v>44984</v>
       </c>
@@ -4117,7 +4110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H206" s="1">
         <v>44985</v>
       </c>
@@ -4126,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H207" s="1">
         <v>44986</v>
       </c>
@@ -4135,7 +4128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H208" s="1">
         <v>44987</v>
       </c>
@@ -4144,7 +4137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H209" s="1">
         <v>44988</v>
       </c>
@@ -4153,7 +4146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H210" s="1">
         <v>44989</v>
       </c>
@@ -4162,7 +4155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H211" s="1">
         <v>44990</v>
       </c>
@@ -4171,7 +4164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H212" s="1">
         <v>44991</v>
       </c>
@@ -4180,7 +4173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H213" s="1">
         <v>44992</v>
       </c>
@@ -4189,7 +4182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H214" s="1">
         <v>44993</v>
       </c>
@@ -4198,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H215" s="1">
         <v>44994</v>
       </c>
@@ -4207,7 +4200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H216" s="1">
         <v>44995</v>
       </c>
@@ -4216,7 +4209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H217" s="1">
         <v>44996</v>
       </c>
@@ -4225,7 +4218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H218" s="1">
         <v>44997</v>
       </c>
@@ -4234,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H219" s="1">
         <v>44998</v>
       </c>
@@ -4243,7 +4236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H220" s="1">
         <v>44999</v>
       </c>
@@ -4252,7 +4245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H221" s="1">
         <v>45000</v>
       </c>
@@ -4261,7 +4254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H222" s="1">
         <v>45001</v>
       </c>
@@ -4270,7 +4263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H223" s="1">
         <v>45002</v>
       </c>
@@ -4279,12 +4272,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H224" s="1">
         <v>45003</v>
       </c>
     </row>
-    <row r="225" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H225" s="1">
         <v>45004</v>
       </c>
@@ -4306,19 +4299,19 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="6" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
         <v>56</v>
       </c>

--- a/daily expenses.xlsx
+++ b/daily expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragon\Desktop\arduino\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B58210D-C26A-4BDE-A89B-0378ECDEDDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AA2D57-813F-4296-8872-1E0BAF5547E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="97">
   <si>
     <t>Tiền</t>
   </si>
@@ -327,6 +327,9 @@
   </si>
   <si>
     <t>33 k đồ ăn, 318k robot hút bụi+50k trà sữa</t>
+  </si>
+  <si>
+    <t>20k sâm lạnh, 219.5k đồ điện tử, 18k nước ngọt</t>
   </si>
 </sst>
 </file>
@@ -714,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAE49B0-AACA-4A77-BE97-C23002D033D1}">
   <dimension ref="D3:V225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C119" workbookViewId="0">
-      <selection activeCell="E141" sqref="E141"/>
+    <sheetView tabSelected="1" topLeftCell="C123" workbookViewId="0">
+      <selection activeCell="I142" sqref="I142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2605,7 +2608,7 @@
         <v>1000</v>
       </c>
       <c r="P94" s="2">
-        <f t="shared" ref="P94:P120" si="2">F94*1000</f>
+        <f t="shared" ref="P94:P150" si="2">F94*1000</f>
         <v>0</v>
       </c>
     </row>
@@ -3193,6 +3196,10 @@
       <c r="J121" t="s">
         <v>91</v>
       </c>
+      <c r="P121" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="122" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E122">
@@ -3209,6 +3216,10 @@
         <f t="shared" si="3"/>
         <v>195000</v>
       </c>
+      <c r="P122" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="123" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E123">
@@ -3225,6 +3236,10 @@
         <f t="shared" si="3"/>
         <v>38000</v>
       </c>
+      <c r="P123" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="124" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E124">
@@ -3241,6 +3256,10 @@
         <f t="shared" si="3"/>
         <v>2000</v>
       </c>
+      <c r="P124" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="125" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E125">
@@ -3263,6 +3282,10 @@
       <c r="J125" t="s">
         <v>92</v>
       </c>
+      <c r="P125" s="2">
+        <f t="shared" si="2"/>
+        <v>110000</v>
+      </c>
     </row>
     <row r="126" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E126">
@@ -3278,6 +3301,10 @@
         <f t="shared" si="3"/>
         <v>30000</v>
       </c>
+      <c r="P126" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="127" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E127">
@@ -3296,6 +3323,10 @@
         <f t="shared" si="3"/>
         <v>240000</v>
       </c>
+      <c r="P127" s="2">
+        <f t="shared" si="2"/>
+        <v>42000</v>
+      </c>
     </row>
     <row r="128" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E128">
@@ -3314,8 +3345,12 @@
         <f t="shared" si="3"/>
         <v>135000</v>
       </c>
-    </row>
-    <row r="129" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P128" s="2">
+        <f t="shared" si="2"/>
+        <v>53000</v>
+      </c>
+    </row>
+    <row r="129" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E129">
         <f>50</f>
         <v>50</v>
@@ -3330,8 +3365,12 @@
         <f t="shared" si="3"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="130" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P129" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E130">
         <f>80</f>
         <v>80</v>
@@ -3346,8 +3385,12 @@
         <f t="shared" si="3"/>
         <v>80000</v>
       </c>
-    </row>
-    <row r="131" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P130" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E131">
         <f>20</f>
         <v>20</v>
@@ -3362,8 +3405,12 @@
         <f t="shared" si="3"/>
         <v>20000</v>
       </c>
-    </row>
-    <row r="132" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P131" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E132">
         <f>132+20+10+28</f>
         <v>190</v>
@@ -3381,8 +3428,12 @@
       <c r="J132" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="133" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P132" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="5:16" x14ac:dyDescent="0.25">
       <c r="G133" t="s">
         <v>11</v>
       </c>
@@ -3393,8 +3444,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P133" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E134">
         <f>33+318+50</f>
         <v>401</v>
@@ -3412,8 +3467,12 @@
       <c r="J134" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="135" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P134" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E135">
         <f>32+87</f>
         <v>119</v>
@@ -3431,8 +3490,12 @@
       <c r="J135" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="136" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P135" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E136">
         <f>50+20</f>
         <v>70</v>
@@ -3447,8 +3510,12 @@
         <f t="shared" si="3"/>
         <v>70000</v>
       </c>
-    </row>
-    <row r="137" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P136" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E137">
         <f>20+30</f>
         <v>50</v>
@@ -3463,8 +3530,12 @@
         <f t="shared" si="3"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="138" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P137" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E138">
         <f>1</f>
         <v>1</v>
@@ -3479,8 +3550,12 @@
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-    </row>
-    <row r="139" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P138" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E139">
         <f>20+12+20</f>
         <v>52</v>
@@ -3495,8 +3570,12 @@
         <f t="shared" si="3"/>
         <v>52000</v>
       </c>
-    </row>
-    <row r="140" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P139" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E140">
         <f>50+81+15</f>
         <v>146</v>
@@ -3511,8 +3590,16 @@
         <f t="shared" si="3"/>
         <v>146000</v>
       </c>
-    </row>
-    <row r="141" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P140" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E141">
+        <f>20+166.5+53+18</f>
+        <v>257.5</v>
+      </c>
       <c r="G141" t="s">
         <v>14</v>
       </c>
@@ -3521,10 +3608,24 @@
       </c>
       <c r="I141" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="5:10" x14ac:dyDescent="0.25">
+        <v>257500</v>
+      </c>
+      <c r="J141" t="s">
+        <v>96</v>
+      </c>
+      <c r="P141" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E142">
+        <f>18+20+74+130</f>
+        <v>242</v>
+      </c>
+      <c r="F142">
+        <v>240</v>
+      </c>
       <c r="G142" t="s">
         <v>15</v>
       </c>
@@ -3533,10 +3634,14 @@
       </c>
       <c r="I142" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="5:10" x14ac:dyDescent="0.25">
+        <v>242000</v>
+      </c>
+      <c r="P142" s="2">
+        <f t="shared" si="2"/>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="143" spans="5:16" x14ac:dyDescent="0.25">
       <c r="G143" t="s">
         <v>19</v>
       </c>
@@ -3547,8 +3652,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P143" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="5:16" x14ac:dyDescent="0.25">
       <c r="G144" t="s">
         <v>1</v>
       </c>
@@ -3559,8 +3668,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="P144" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G145" t="s">
         <v>8</v>
       </c>
@@ -3571,8 +3684,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="P145" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G146" t="s">
         <v>7</v>
       </c>
@@ -3583,8 +3700,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="P146" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G147" t="s">
         <v>11</v>
       </c>
@@ -3595,8 +3716,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="P147" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G148" t="s">
         <v>14</v>
       </c>
@@ -3607,8 +3732,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="P148" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="7:16" x14ac:dyDescent="0.25">
       <c r="H149" s="1">
         <v>44928</v>
       </c>
@@ -3616,8 +3745,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="P149" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="7:16" x14ac:dyDescent="0.25">
       <c r="H150" s="1">
         <v>44929</v>
       </c>
@@ -3625,8 +3758,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="P150" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="7:16" x14ac:dyDescent="0.25">
       <c r="H151" s="1">
         <v>44930</v>
       </c>
@@ -3635,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="7:16" x14ac:dyDescent="0.25">
       <c r="H152" s="1">
         <v>44931</v>
       </c>
@@ -3644,7 +3781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="7:16" x14ac:dyDescent="0.25">
       <c r="H153" s="1">
         <v>44932</v>
       </c>
@@ -3653,7 +3790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="7:16" x14ac:dyDescent="0.25">
       <c r="H154" s="1">
         <v>44933</v>
       </c>
@@ -3662,7 +3799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="7:16" x14ac:dyDescent="0.25">
       <c r="H155" s="1">
         <v>44934</v>
       </c>
@@ -3671,7 +3808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="7:16" x14ac:dyDescent="0.25">
       <c r="H156" s="1">
         <v>44935</v>
       </c>
@@ -3680,7 +3817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="7:16" x14ac:dyDescent="0.25">
       <c r="H157" s="1">
         <v>44936</v>
       </c>
@@ -3689,7 +3826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="7:16" x14ac:dyDescent="0.25">
       <c r="H158" s="1">
         <v>44937</v>
       </c>
@@ -3698,7 +3835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="7:16" x14ac:dyDescent="0.25">
       <c r="H159" s="1">
         <v>44938</v>
       </c>
@@ -3707,7 +3844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="7:16" x14ac:dyDescent="0.25">
       <c r="H160" s="1">
         <v>44939</v>
       </c>

--- a/daily expenses.xlsx
+++ b/daily expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragon\Desktop\arduino\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AA2D57-813F-4296-8872-1E0BAF5547E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389AB345-BBB4-44E0-9614-6BE9595D6E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
   </bookViews>
@@ -717,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAE49B0-AACA-4A77-BE97-C23002D033D1}">
   <dimension ref="D3:V225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C123" workbookViewId="0">
-      <selection activeCell="I142" sqref="I142"/>
+    <sheetView tabSelected="1" topLeftCell="C129" workbookViewId="0">
+      <selection activeCell="E145" sqref="E145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3642,6 +3642,9 @@
       </c>
     </row>
     <row r="143" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E143">
+        <v>30</v>
+      </c>
       <c r="G143" t="s">
         <v>19</v>
       </c>
@@ -3650,7 +3653,7 @@
       </c>
       <c r="I143" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="P143" s="2">
         <f t="shared" si="2"/>
@@ -3658,6 +3661,10 @@
       </c>
     </row>
     <row r="144" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E144">
+        <f>111+20+20</f>
+        <v>151</v>
+      </c>
       <c r="G144" t="s">
         <v>1</v>
       </c>
@@ -3666,7 +3673,7 @@
       </c>
       <c r="I144" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>151000</v>
       </c>
       <c r="P144" s="2">
         <f t="shared" si="2"/>

--- a/daily expenses.xlsx
+++ b/daily expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragon\Desktop\arduino\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389AB345-BBB4-44E0-9614-6BE9595D6E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AD78EE-6771-4C2C-A58E-EE4E0A00BE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
   </bookViews>
@@ -717,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAE49B0-AACA-4A77-BE97-C23002D033D1}">
   <dimension ref="D3:V225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C129" workbookViewId="0">
-      <selection activeCell="E145" sqref="E145"/>
+    <sheetView tabSelected="1" topLeftCell="C135" workbookViewId="0">
+      <selection activeCell="M152" sqref="M152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3680,7 +3680,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E145">
+        <f>94</f>
+        <v>94</v>
+      </c>
       <c r="G145" t="s">
         <v>8</v>
       </c>
@@ -3689,14 +3693,18 @@
       </c>
       <c r="I145" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>94000</v>
       </c>
       <c r="P145" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E146">
+        <f>11</f>
+        <v>11</v>
+      </c>
       <c r="G146" t="s">
         <v>7</v>
       </c>
@@ -3705,14 +3713,14 @@
       </c>
       <c r="I146" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="P146" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="5:16" x14ac:dyDescent="0.25">
       <c r="G147" t="s">
         <v>11</v>
       </c>
@@ -3728,7 +3736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="5:16" x14ac:dyDescent="0.25">
       <c r="G148" t="s">
         <v>14</v>
       </c>
@@ -3744,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="5:16" x14ac:dyDescent="0.25">
       <c r="H149" s="1">
         <v>44928</v>
       </c>
@@ -3757,7 +3765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="5:16" x14ac:dyDescent="0.25">
       <c r="H150" s="1">
         <v>44929</v>
       </c>
@@ -3770,7 +3778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="5:16" x14ac:dyDescent="0.25">
       <c r="H151" s="1">
         <v>44930</v>
       </c>
@@ -3779,7 +3787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="5:16" x14ac:dyDescent="0.25">
       <c r="H152" s="1">
         <v>44931</v>
       </c>
@@ -3788,7 +3796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="5:16" x14ac:dyDescent="0.25">
       <c r="H153" s="1">
         <v>44932</v>
       </c>
@@ -3797,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="5:16" x14ac:dyDescent="0.25">
       <c r="H154" s="1">
         <v>44933</v>
       </c>
@@ -3806,7 +3814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="5:16" x14ac:dyDescent="0.25">
       <c r="H155" s="1">
         <v>44934</v>
       </c>
@@ -3815,7 +3823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="5:16" x14ac:dyDescent="0.25">
       <c r="H156" s="1">
         <v>44935</v>
       </c>
@@ -3824,7 +3832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="5:16" x14ac:dyDescent="0.25">
       <c r="H157" s="1">
         <v>44936</v>
       </c>
@@ -3833,7 +3841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="5:16" x14ac:dyDescent="0.25">
       <c r="H158" s="1">
         <v>44937</v>
       </c>
@@ -3842,7 +3850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="5:16" x14ac:dyDescent="0.25">
       <c r="H159" s="1">
         <v>44938</v>
       </c>
@@ -3851,7 +3859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="5:16" x14ac:dyDescent="0.25">
       <c r="H160" s="1">
         <v>44939</v>
       </c>

--- a/daily expenses.xlsx
+++ b/daily expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragon\Desktop\arduino\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AD78EE-6771-4C2C-A58E-EE4E0A00BE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E85E0B-B65C-431F-8DEB-AEC34E9B589E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="98">
   <si>
     <t>Tiền</t>
   </si>
@@ -330,6 +330,9 @@
   </si>
   <si>
     <t>20k sâm lạnh, 219.5k đồ điện tử, 18k nước ngọt</t>
+  </si>
+  <si>
+    <t>bàn 720k, thịt 72k. Đồ chơi 196k+19k nước ngọt</t>
   </si>
 </sst>
 </file>
@@ -717,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAE49B0-AACA-4A77-BE97-C23002D033D1}">
   <dimension ref="D3:V225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C135" workbookViewId="0">
-      <selection activeCell="M152" sqref="M152"/>
+    <sheetView tabSelected="1" topLeftCell="C138" workbookViewId="0">
+      <selection activeCell="E150" sqref="E150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3721,6 +3724,10 @@
       </c>
     </row>
     <row r="147" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E147">
+        <f>720+19+72+7+189</f>
+        <v>1007</v>
+      </c>
       <c r="G147" t="s">
         <v>11</v>
       </c>
@@ -3729,7 +3736,10 @@
       </c>
       <c r="I147" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1007000</v>
+      </c>
+      <c r="J147" t="s">
+        <v>97</v>
       </c>
       <c r="P147" s="2">
         <f t="shared" si="2"/>
@@ -3737,6 +3747,12 @@
       </c>
     </row>
     <row r="148" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E148">
+        <v>2490</v>
+      </c>
+      <c r="F148">
+        <v>7118</v>
+      </c>
       <c r="G148" t="s">
         <v>14</v>
       </c>
@@ -3745,20 +3761,27 @@
       </c>
       <c r="I148" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2490000</v>
       </c>
       <c r="P148" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7118000</v>
       </c>
     </row>
     <row r="149" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E149">
+        <f>30+30+170</f>
+        <v>230</v>
+      </c>
+      <c r="G149" t="s">
+        <v>15</v>
+      </c>
       <c r="H149" s="1">
         <v>44928</v>
       </c>
       <c r="I149" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>230000</v>
       </c>
       <c r="P149" s="2">
         <f t="shared" si="2"/>
@@ -3766,6 +3789,9 @@
       </c>
     </row>
     <row r="150" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="G150" t="s">
+        <v>19</v>
+      </c>
       <c r="H150" s="1">
         <v>44929</v>
       </c>
@@ -3779,6 +3805,9 @@
       </c>
     </row>
     <row r="151" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="G151" t="s">
+        <v>1</v>
+      </c>
       <c r="H151" s="1">
         <v>44930</v>
       </c>
@@ -3788,6 +3817,9 @@
       </c>
     </row>
     <row r="152" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="G152" t="s">
+        <v>8</v>
+      </c>
       <c r="H152" s="1">
         <v>44931</v>
       </c>
@@ -3797,6 +3829,9 @@
       </c>
     </row>
     <row r="153" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="G153" t="s">
+        <v>7</v>
+      </c>
       <c r="H153" s="1">
         <v>44932</v>
       </c>
@@ -3806,6 +3841,9 @@
       </c>
     </row>
     <row r="154" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="G154" t="s">
+        <v>11</v>
+      </c>
       <c r="H154" s="1">
         <v>44933</v>
       </c>
@@ -3815,6 +3853,9 @@
       </c>
     </row>
     <row r="155" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="G155" t="s">
+        <v>14</v>
+      </c>
       <c r="H155" s="1">
         <v>44934</v>
       </c>
@@ -3824,6 +3865,9 @@
       </c>
     </row>
     <row r="156" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="G156" t="s">
+        <v>15</v>
+      </c>
       <c r="H156" s="1">
         <v>44935</v>
       </c>
@@ -3833,6 +3877,9 @@
       </c>
     </row>
     <row r="157" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="G157" t="s">
+        <v>19</v>
+      </c>
       <c r="H157" s="1">
         <v>44936</v>
       </c>
@@ -3842,6 +3889,9 @@
       </c>
     </row>
     <row r="158" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="G158" t="s">
+        <v>1</v>
+      </c>
       <c r="H158" s="1">
         <v>44937</v>
       </c>
@@ -3851,6 +3901,9 @@
       </c>
     </row>
     <row r="159" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="G159" t="s">
+        <v>8</v>
+      </c>
       <c r="H159" s="1">
         <v>44938</v>
       </c>
@@ -3860,6 +3913,9 @@
       </c>
     </row>
     <row r="160" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="G160" t="s">
+        <v>7</v>
+      </c>
       <c r="H160" s="1">
         <v>44939</v>
       </c>
@@ -3868,7 +3924,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G161" t="s">
+        <v>11</v>
+      </c>
       <c r="H161" s="1">
         <v>44940</v>
       </c>
@@ -3877,7 +3936,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G162" t="s">
+        <v>14</v>
+      </c>
       <c r="H162" s="1">
         <v>44941</v>
       </c>
@@ -3886,7 +3948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H163" s="1">
         <v>44942</v>
       </c>
@@ -3895,7 +3957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H164" s="1">
         <v>44943</v>
       </c>
@@ -3904,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H165" s="1">
         <v>44944</v>
       </c>
@@ -3913,7 +3975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H166" s="1">
         <v>44945</v>
       </c>
@@ -3922,7 +3984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H167" s="1">
         <v>44946</v>
       </c>
@@ -3931,7 +3993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H168" s="1">
         <v>44947</v>
       </c>
@@ -3940,7 +4002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H169" s="1">
         <v>44948</v>
       </c>
@@ -3949,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H170" s="1">
         <v>44949</v>
       </c>
@@ -3958,7 +4020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H171" s="1">
         <v>44950</v>
       </c>
@@ -3967,7 +4029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H172" s="1">
         <v>44951</v>
       </c>
@@ -3976,7 +4038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H173" s="1">
         <v>44952</v>
       </c>
@@ -3985,7 +4047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H174" s="1">
         <v>44953</v>
       </c>
@@ -3994,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H175" s="1">
         <v>44954</v>
       </c>
@@ -4003,7 +4065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H176" s="1">
         <v>44955</v>
       </c>

--- a/daily expenses.xlsx
+++ b/daily expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragon\Desktop\arduino\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E85E0B-B65C-431F-8DEB-AEC34E9B589E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04B25C9-AABB-42B1-8A7F-A58BF8D4B651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="99">
   <si>
     <t>Tiền</t>
   </si>
@@ -333,6 +333,9 @@
   </si>
   <si>
     <t>bàn 720k, thịt 72k. Đồ chơi 196k+19k nước ngọt</t>
+  </si>
+  <si>
+    <t>nap cad 100k mua đồ 47k, dầu gội 15k</t>
   </si>
 </sst>
 </file>
@@ -720,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAE49B0-AACA-4A77-BE97-C23002D033D1}">
   <dimension ref="D3:V225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C138" workbookViewId="0">
-      <selection activeCell="E150" sqref="E150"/>
+    <sheetView tabSelected="1" topLeftCell="C141" workbookViewId="0">
+      <selection activeCell="K155" sqref="K155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3789,6 +3792,10 @@
       </c>
     </row>
     <row r="150" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E150">
+        <f>100+47+15</f>
+        <v>162</v>
+      </c>
       <c r="G150" t="s">
         <v>19</v>
       </c>
@@ -3797,7 +3804,10 @@
       </c>
       <c r="I150" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>162000</v>
+      </c>
+      <c r="J150" t="s">
+        <v>98</v>
       </c>
       <c r="P150" s="2">
         <f t="shared" si="2"/>
@@ -3805,6 +3815,10 @@
       </c>
     </row>
     <row r="151" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E151">
+        <f>15+23+14+28</f>
+        <v>80</v>
+      </c>
       <c r="G151" t="s">
         <v>1</v>
       </c>
@@ -3813,10 +3827,14 @@
       </c>
       <c r="I151" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="152" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E152">
+        <f>15+29+30</f>
+        <v>74</v>
+      </c>
       <c r="G152" t="s">
         <v>8</v>
       </c>
@@ -3825,10 +3843,14 @@
       </c>
       <c r="I152" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>74000</v>
       </c>
     </row>
     <row r="153" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E153">
+        <f>135+28+10+18</f>
+        <v>191</v>
+      </c>
       <c r="G153" t="s">
         <v>7</v>
       </c>
@@ -3837,10 +3859,14 @@
       </c>
       <c r="I153" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>191000</v>
       </c>
     </row>
     <row r="154" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E154">
+        <f>6+9+20</f>
+        <v>35</v>
+      </c>
       <c r="G154" t="s">
         <v>11</v>
       </c>
@@ -3849,7 +3875,7 @@
       </c>
       <c r="I154" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="155" spans="5:16" x14ac:dyDescent="0.25">
@@ -3859,12 +3885,13 @@
       <c r="H155" s="1">
         <v>44934</v>
       </c>
-      <c r="I155" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="I155" s="2"/>
     </row>
     <row r="156" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E156">
+        <f>13+45+3590</f>
+        <v>3648</v>
+      </c>
       <c r="G156" t="s">
         <v>15</v>
       </c>
@@ -3872,8 +3899,8 @@
         <v>44935</v>
       </c>
       <c r="I156" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>E156*1000</f>
+        <v>3648000</v>
       </c>
     </row>
     <row r="157" spans="5:16" x14ac:dyDescent="0.25">

--- a/daily expenses.xlsx
+++ b/daily expenses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragon\Desktop\arduino\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04B25C9-AABB-42B1-8A7F-A58BF8D4B651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF9472B-5F42-44BB-97D1-FB47E8B730B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
+    <workbookView xWindow="3060" yWindow="1755" windowWidth="18000" windowHeight="9360" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="99">
   <si>
     <t>Tiền</t>
   </si>
@@ -713,7 +713,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -723,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAE49B0-AACA-4A77-BE97-C23002D033D1}">
   <dimension ref="D3:V225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C141" workbookViewId="0">
-      <selection activeCell="K155" sqref="K155"/>
+    <sheetView tabSelected="1" topLeftCell="C162" workbookViewId="0">
+      <selection activeCell="E173" sqref="E173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3904,6 +3904,10 @@
       </c>
     </row>
     <row r="157" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E157">
+        <f>35+92+140</f>
+        <v>267</v>
+      </c>
       <c r="G157" t="s">
         <v>19</v>
       </c>
@@ -3912,10 +3916,14 @@
       </c>
       <c r="I157" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>267000</v>
       </c>
     </row>
     <row r="158" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E158">
+        <f>26+40+82</f>
+        <v>148</v>
+      </c>
       <c r="G158" t="s">
         <v>1</v>
       </c>
@@ -3924,10 +3932,14 @@
       </c>
       <c r="I158" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>148000</v>
       </c>
     </row>
     <row r="159" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E159">
+        <f>50+20</f>
+        <v>70</v>
+      </c>
       <c r="G159" t="s">
         <v>8</v>
       </c>
@@ -3936,10 +3948,13 @@
       </c>
       <c r="I159" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="160" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E160">
+        <v>64</v>
+      </c>
       <c r="G160" t="s">
         <v>7</v>
       </c>
@@ -3948,10 +3963,14 @@
       </c>
       <c r="I160" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="7:9" x14ac:dyDescent="0.25">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="161" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E161">
+        <f>50+20+15+15</f>
+        <v>100</v>
+      </c>
       <c r="G161" t="s">
         <v>11</v>
       </c>
@@ -3960,10 +3979,14 @@
       </c>
       <c r="I161" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="7:9" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="162" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E162">
+        <f>20+15</f>
+        <v>35</v>
+      </c>
       <c r="G162" t="s">
         <v>14</v>
       </c>
@@ -3972,28 +3995,46 @@
       </c>
       <c r="I162" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="7:9" x14ac:dyDescent="0.25">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="163" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E163">
+        <f>48+45+15</f>
+        <v>108</v>
+      </c>
+      <c r="G163" t="s">
+        <v>15</v>
+      </c>
       <c r="H163" s="1">
         <v>44942</v>
       </c>
       <c r="I163" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="7:9" x14ac:dyDescent="0.25">
+        <v>108000</v>
+      </c>
+    </row>
+    <row r="164" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E164">
+        <f>10+30+40+39</f>
+        <v>119</v>
+      </c>
+      <c r="G164" t="s">
+        <v>19</v>
+      </c>
       <c r="H164" s="1">
         <v>44943</v>
       </c>
       <c r="I164" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="7:9" x14ac:dyDescent="0.25">
+        <v>119000</v>
+      </c>
+      <c r="J164" s="6"/>
+    </row>
+    <row r="165" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G165" t="s">
+        <v>1</v>
+      </c>
       <c r="H165" s="1">
         <v>44944</v>
       </c>
@@ -4002,16 +4043,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E166">
+        <f>360+255+15</f>
+        <v>630</v>
+      </c>
+      <c r="G166" t="s">
+        <v>8</v>
+      </c>
       <c r="H166" s="1">
         <v>44945</v>
       </c>
       <c r="I166" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="7:9" x14ac:dyDescent="0.25">
+        <v>630000</v>
+      </c>
+    </row>
+    <row r="167" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G167" t="s">
+        <v>7</v>
+      </c>
       <c r="H167" s="1">
         <v>44946</v>
       </c>
@@ -4020,7 +4071,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G168" t="s">
+        <v>11</v>
+      </c>
       <c r="H168" s="1">
         <v>44947</v>
       </c>
@@ -4029,7 +4083,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G169" t="s">
+        <v>14</v>
+      </c>
       <c r="H169" s="1">
         <v>44948</v>
       </c>
@@ -4038,7 +4095,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G170" t="s">
+        <v>15</v>
+      </c>
       <c r="H170" s="1">
         <v>44949</v>
       </c>
@@ -4047,7 +4107,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G171" t="s">
+        <v>19</v>
+      </c>
       <c r="H171" s="1">
         <v>44950</v>
       </c>
@@ -4056,16 +4119,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E172">
+        <f>750+55+15</f>
+        <v>820</v>
+      </c>
+      <c r="G172" t="s">
+        <v>1</v>
+      </c>
       <c r="H172" s="1">
         <v>44951</v>
       </c>
       <c r="I172" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="7:9" x14ac:dyDescent="0.25">
+        <v>820000</v>
+      </c>
+    </row>
+    <row r="173" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G173" t="s">
+        <v>8</v>
+      </c>
       <c r="H173" s="1">
         <v>44952</v>
       </c>
@@ -4074,7 +4147,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G174" t="s">
+        <v>7</v>
+      </c>
       <c r="H174" s="1">
         <v>44953</v>
       </c>
@@ -4083,7 +4159,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G175" t="s">
+        <v>11</v>
+      </c>
       <c r="H175" s="1">
         <v>44954</v>
       </c>
@@ -4092,7 +4171,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G176" t="s">
+        <v>14</v>
+      </c>
       <c r="H176" s="1">
         <v>44955</v>
       </c>
@@ -4101,7 +4183,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G177" t="s">
+        <v>15</v>
+      </c>
       <c r="H177" s="1">
         <v>44956</v>
       </c>
@@ -4110,7 +4195,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G178" t="s">
+        <v>19</v>
+      </c>
       <c r="H178" s="1">
         <v>44957</v>
       </c>
@@ -4119,7 +4207,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G179" t="s">
+        <v>1</v>
+      </c>
       <c r="H179" s="1">
         <v>44958</v>
       </c>
@@ -4128,7 +4219,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G180" t="s">
+        <v>8</v>
+      </c>
       <c r="H180" s="1">
         <v>44959</v>
       </c>
@@ -4137,7 +4231,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G181" t="s">
+        <v>7</v>
+      </c>
       <c r="H181" s="1">
         <v>44960</v>
       </c>
@@ -4146,7 +4243,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G182" t="s">
+        <v>11</v>
+      </c>
       <c r="H182" s="1">
         <v>44961</v>
       </c>
@@ -4155,7 +4255,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G183" t="s">
+        <v>14</v>
+      </c>
       <c r="H183" s="1">
         <v>44962</v>
       </c>
@@ -4164,7 +4267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H184" s="1">
         <v>44963</v>
       </c>
@@ -4173,7 +4276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H185" s="1">
         <v>44964</v>
       </c>
@@ -4182,7 +4285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H186" s="1">
         <v>44965</v>
       </c>
@@ -4191,7 +4294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H187" s="1">
         <v>44966</v>
       </c>
@@ -4200,7 +4303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H188" s="1">
         <v>44967</v>
       </c>
@@ -4209,7 +4312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H189" s="1">
         <v>44968</v>
       </c>
@@ -4218,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H190" s="1">
         <v>44969</v>
       </c>
@@ -4227,7 +4330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H191" s="1">
         <v>44970</v>
       </c>
@@ -4236,7 +4339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H192" s="1">
         <v>44971</v>
       </c>

--- a/daily expenses.xlsx
+++ b/daily expenses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragon\Desktop\arduino\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF9472B-5F42-44BB-97D1-FB47E8B730B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD57650B-6A3F-46E9-AEC8-8651A327C6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="1755" windowWidth="18000" windowHeight="9360" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
+    <workbookView xWindow="3765" yWindow="1350" windowWidth="18000" windowHeight="9360" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="101">
   <si>
     <t>Tiền</t>
   </si>
@@ -336,6 +336,12 @@
   </si>
   <si>
     <t>nap cad 100k mua đồ 47k, dầu gội 15k</t>
+  </si>
+  <si>
+    <t>gạo 70k, đồ ăn 30k, 20k ổi, 1 k nước đá</t>
+  </si>
+  <si>
+    <t>734.3 k shopee, 150k sửa xe, 112k bhx, 628 bhx, 50k tương ớt, 20k thịt, 1570k nhà trọ</t>
   </si>
 </sst>
 </file>
@@ -723,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAE49B0-AACA-4A77-BE97-C23002D033D1}">
   <dimension ref="D3:V225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C162" workbookViewId="0">
-      <selection activeCell="E173" sqref="E173"/>
+    <sheetView tabSelected="1" topLeftCell="C168" workbookViewId="0">
+      <selection activeCell="K180" sqref="K180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4148,6 +4154,10 @@
       </c>
     </row>
     <row r="174" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E174">
+        <f>70+30+20+1</f>
+        <v>121</v>
+      </c>
       <c r="G174" t="s">
         <v>7</v>
       </c>
@@ -4156,7 +4166,10 @@
       </c>
       <c r="I174" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>121000</v>
+      </c>
+      <c r="J174" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="175" spans="5:10" x14ac:dyDescent="0.25">
@@ -4172,6 +4185,10 @@
       </c>
     </row>
     <row r="176" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E176">
+        <f>734.3+150+112+628+50+20+1570</f>
+        <v>3264.3</v>
+      </c>
       <c r="G176" t="s">
         <v>14</v>
       </c>
@@ -4180,7 +4197,10 @@
       </c>
       <c r="I176" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3264300</v>
+      </c>
+      <c r="J176" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="177" spans="7:9" x14ac:dyDescent="0.25">

--- a/daily expenses.xlsx
+++ b/daily expenses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragon\Desktop\arduino\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD57650B-6A3F-46E9-AEC8-8651A327C6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D6224B-9B41-4725-ADC9-91B29459B698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="1350" windowWidth="18000" windowHeight="9360" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
+    <workbookView xWindow="23880" yWindow="-1005" windowWidth="29040" windowHeight="15840" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="105">
   <si>
     <t>Tiền</t>
   </si>
@@ -341,7 +341,19 @@
     <t>gạo 70k, đồ ăn 30k, 20k ổi, 1 k nước đá</t>
   </si>
   <si>
-    <t>734.3 k shopee, 150k sửa xe, 112k bhx, 628 bhx, 50k tương ớt, 20k thịt, 1570k nhà trọ</t>
+    <t>734.3 k shopee, 150k sửa xe, 112k bhx, 628 bhx, 50k tương ớt, 20k thịt, 1570k nhà trọ, 85k xem phim</t>
+  </si>
+  <si>
+    <t>15k bánh mì, 29k thịt, 145k chảo chống dính</t>
+  </si>
+  <si>
+    <t>20k thit, 12k cà chua, 10k nước ngọt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redbull </t>
+  </si>
+  <si>
+    <t>35K BẮP,  60K tỏi hành tím, 3 k  hành, 1k nước đá</t>
   </si>
 </sst>
 </file>
@@ -719,7 +731,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -729,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAE49B0-AACA-4A77-BE97-C23002D033D1}">
   <dimension ref="D3:V225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C168" workbookViewId="0">
-      <selection activeCell="K180" sqref="K180"/>
+    <sheetView tabSelected="1" topLeftCell="C171" workbookViewId="0">
+      <selection activeCell="K188" sqref="K188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4186,8 +4198,8 @@
     </row>
     <row r="176" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E176">
-        <f>734.3+150+112+628+50+20+1570</f>
-        <v>3264.3</v>
+        <f>734.3+150+112+628+50+20+1570+85</f>
+        <v>3349.3</v>
       </c>
       <c r="G176" t="s">
         <v>14</v>
@@ -4197,13 +4209,17 @@
       </c>
       <c r="I176" s="2">
         <f t="shared" si="4"/>
-        <v>3264300</v>
+        <v>3349300</v>
       </c>
       <c r="J176" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="177" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E177">
+        <f>15+145+29</f>
+        <v>189</v>
+      </c>
       <c r="G177" t="s">
         <v>15</v>
       </c>
@@ -4212,10 +4228,17 @@
       </c>
       <c r="I177" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="7:9" x14ac:dyDescent="0.25">
+        <v>189000</v>
+      </c>
+      <c r="J177" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="178" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E178">
+        <f>20+12+10</f>
+        <v>42</v>
+      </c>
       <c r="G178" t="s">
         <v>19</v>
       </c>
@@ -4224,10 +4247,13 @@
       </c>
       <c r="I178" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="7:9" x14ac:dyDescent="0.25">
+        <v>42000</v>
+      </c>
+      <c r="J178" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="179" spans="5:10" x14ac:dyDescent="0.25">
       <c r="G179" t="s">
         <v>1</v>
       </c>
@@ -4239,7 +4265,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E180">
+        <v>220</v>
+      </c>
       <c r="G180" t="s">
         <v>8</v>
       </c>
@@ -4248,10 +4277,17 @@
       </c>
       <c r="I180" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="7:9" x14ac:dyDescent="0.25">
+        <v>220000</v>
+      </c>
+      <c r="J180" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="181" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E181">
+        <f>15+20+3+60+1</f>
+        <v>99</v>
+      </c>
       <c r="G181" t="s">
         <v>7</v>
       </c>
@@ -4260,10 +4296,13 @@
       </c>
       <c r="I181" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="7:9" x14ac:dyDescent="0.25">
+        <v>99000</v>
+      </c>
+      <c r="J181" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="182" spans="5:10" x14ac:dyDescent="0.25">
       <c r="G182" t="s">
         <v>11</v>
       </c>
@@ -4275,7 +4314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="5:10" x14ac:dyDescent="0.25">
       <c r="G183" t="s">
         <v>14</v>
       </c>
@@ -4287,7 +4326,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G184" t="s">
+        <v>15</v>
+      </c>
       <c r="H184" s="1">
         <v>44963</v>
       </c>
@@ -4296,7 +4338,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G185" t="s">
+        <v>19</v>
+      </c>
       <c r="H185" s="1">
         <v>44964</v>
       </c>
@@ -4305,7 +4350,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G186" t="s">
+        <v>1</v>
+      </c>
       <c r="H186" s="1">
         <v>44965</v>
       </c>
@@ -4314,7 +4362,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G187" t="s">
+        <v>8</v>
+      </c>
       <c r="H187" s="1">
         <v>44966</v>
       </c>
@@ -4323,7 +4374,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G188" t="s">
+        <v>7</v>
+      </c>
       <c r="H188" s="1">
         <v>44967</v>
       </c>
@@ -4332,7 +4386,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G189" t="s">
+        <v>11</v>
+      </c>
       <c r="H189" s="1">
         <v>44968</v>
       </c>
@@ -4341,7 +4398,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G190" t="s">
+        <v>14</v>
+      </c>
       <c r="H190" s="1">
         <v>44969</v>
       </c>
@@ -4350,7 +4410,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G191" t="s">
+        <v>15</v>
+      </c>
       <c r="H191" s="1">
         <v>44970</v>
       </c>
@@ -4359,7 +4422,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G192" t="s">
+        <v>19</v>
+      </c>
       <c r="H192" s="1">
         <v>44971</v>
       </c>
@@ -4368,7 +4434,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G193" t="s">
+        <v>1</v>
+      </c>
       <c r="H193" s="1">
         <v>44972</v>
       </c>
@@ -4377,7 +4446,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G194" t="s">
+        <v>8</v>
+      </c>
       <c r="H194" s="1">
         <v>44973</v>
       </c>
@@ -4386,7 +4458,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G195" t="s">
+        <v>7</v>
+      </c>
       <c r="H195" s="1">
         <v>44974</v>
       </c>
@@ -4395,7 +4470,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G196" t="s">
+        <v>11</v>
+      </c>
       <c r="H196" s="1">
         <v>44975</v>
       </c>
@@ -4404,7 +4482,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G197" t="s">
+        <v>14</v>
+      </c>
       <c r="H197" s="1">
         <v>44976</v>
       </c>
@@ -4413,7 +4494,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G198" t="s">
+        <v>15</v>
+      </c>
       <c r="H198" s="1">
         <v>44977</v>
       </c>
@@ -4422,7 +4506,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G199" t="s">
+        <v>19</v>
+      </c>
       <c r="H199" s="1">
         <v>44978</v>
       </c>
@@ -4431,7 +4518,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G200" t="s">
+        <v>1</v>
+      </c>
       <c r="H200" s="1">
         <v>44979</v>
       </c>
@@ -4440,7 +4530,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G201" t="s">
+        <v>8</v>
+      </c>
       <c r="H201" s="1">
         <v>44980</v>
       </c>
@@ -4449,7 +4542,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G202" t="s">
+        <v>7</v>
+      </c>
       <c r="H202" s="1">
         <v>44981</v>
       </c>
@@ -4458,7 +4554,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G203" t="s">
+        <v>11</v>
+      </c>
       <c r="H203" s="1">
         <v>44982</v>
       </c>
@@ -4467,7 +4566,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G204" t="s">
+        <v>14</v>
+      </c>
       <c r="H204" s="1">
         <v>44983</v>
       </c>
@@ -4476,7 +4578,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G205" t="s">
+        <v>15</v>
+      </c>
       <c r="H205" s="1">
         <v>44984</v>
       </c>
@@ -4485,7 +4590,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G206" t="s">
+        <v>19</v>
+      </c>
       <c r="H206" s="1">
         <v>44985</v>
       </c>
@@ -4494,7 +4602,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G207" t="s">
+        <v>1</v>
+      </c>
       <c r="H207" s="1">
         <v>44986</v>
       </c>
@@ -4503,7 +4614,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G208" t="s">
+        <v>8</v>
+      </c>
       <c r="H208" s="1">
         <v>44987</v>
       </c>
@@ -4512,7 +4626,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G209" t="s">
+        <v>7</v>
+      </c>
       <c r="H209" s="1">
         <v>44988</v>
       </c>
@@ -4521,7 +4638,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G210" t="s">
+        <v>11</v>
+      </c>
       <c r="H210" s="1">
         <v>44989</v>
       </c>
@@ -4530,7 +4650,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G211" t="s">
+        <v>14</v>
+      </c>
       <c r="H211" s="1">
         <v>44990</v>
       </c>
@@ -4539,7 +4662,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G212" t="s">
+        <v>15</v>
+      </c>
       <c r="H212" s="1">
         <v>44991</v>
       </c>
@@ -4548,7 +4674,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G213" t="s">
+        <v>19</v>
+      </c>
       <c r="H213" s="1">
         <v>44992</v>
       </c>
@@ -4557,7 +4686,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G214" t="s">
+        <v>1</v>
+      </c>
       <c r="H214" s="1">
         <v>44993</v>
       </c>
@@ -4566,7 +4698,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G215" t="s">
+        <v>8</v>
+      </c>
       <c r="H215" s="1">
         <v>44994</v>
       </c>
@@ -4575,7 +4710,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G216" t="s">
+        <v>7</v>
+      </c>
       <c r="H216" s="1">
         <v>44995</v>
       </c>
@@ -4584,7 +4722,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G217" t="s">
+        <v>11</v>
+      </c>
       <c r="H217" s="1">
         <v>44996</v>
       </c>
@@ -4593,7 +4734,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G218" t="s">
+        <v>14</v>
+      </c>
       <c r="H218" s="1">
         <v>44997</v>
       </c>
@@ -4602,7 +4746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H219" s="1">
         <v>44998</v>
       </c>
@@ -4611,7 +4755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H220" s="1">
         <v>44999</v>
       </c>
@@ -4620,7 +4764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H221" s="1">
         <v>45000</v>
       </c>
@@ -4629,7 +4773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H222" s="1">
         <v>45001</v>
       </c>
@@ -4638,7 +4782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H223" s="1">
         <v>45002</v>
       </c>
@@ -4647,7 +4791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H224" s="1">
         <v>45003</v>
       </c>

--- a/daily expenses.xlsx
+++ b/daily expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragon\Desktop\arduino\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D6224B-9B41-4725-ADC9-91B29459B698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17829B8E-5655-46B8-91DA-EEB33502579E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-1005" windowWidth="29040" windowHeight="15840" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="106">
   <si>
     <t>Tiền</t>
   </si>
@@ -354,6 +354,9 @@
   </si>
   <si>
     <t>35K BẮP,  60K tỏi hành tím, 3 k  hành, 1k nước đá</t>
+  </si>
+  <si>
+    <t>10k nạp card điện thoại đồ ăn 30k</t>
   </si>
 </sst>
 </file>
@@ -742,7 +745,7 @@
   <dimension ref="D3:V225"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C171" workbookViewId="0">
-      <selection activeCell="K188" sqref="K188"/>
+      <selection activeCell="J183" sqref="J183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4303,6 +4306,10 @@
       </c>
     </row>
     <row r="182" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E182">
+        <f>10+30</f>
+        <v>40</v>
+      </c>
       <c r="G182" t="s">
         <v>11</v>
       </c>
@@ -4311,7 +4318,10 @@
       </c>
       <c r="I182" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>40000</v>
+      </c>
+      <c r="J182" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="183" spans="5:10" x14ac:dyDescent="0.25">

--- a/daily expenses.xlsx
+++ b/daily expenses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragon\Desktop\arduino\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17829B8E-5655-46B8-91DA-EEB33502579E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0605EBBB-4FF6-427E-99A9-69AF6F89924C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-1005" windowWidth="29040" windowHeight="15840" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="108">
   <si>
     <t>Tiền</t>
   </si>
@@ -357,6 +357,12 @@
   </si>
   <si>
     <t>10k nạp card điện thoại đồ ăn 30k</t>
+  </si>
+  <si>
+    <t>90k thit bo, 9k hành 10k nước ngọt</t>
+  </si>
+  <si>
+    <t>mũ bảo hiểm 80k, 6k xe buýt</t>
   </si>
 </sst>
 </file>
@@ -745,7 +751,7 @@
   <dimension ref="D3:V225"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C171" workbookViewId="0">
-      <selection activeCell="J183" sqref="J183"/>
+      <selection activeCell="E189" sqref="E189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4325,6 +4331,10 @@
       </c>
     </row>
     <row r="183" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E183">
+        <f>30</f>
+        <v>30</v>
+      </c>
       <c r="G183" t="s">
         <v>14</v>
       </c>
@@ -4333,10 +4343,14 @@
       </c>
       <c r="I183" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="184" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E184">
+        <f>90+9+10</f>
+        <v>109</v>
+      </c>
       <c r="G184" t="s">
         <v>15</v>
       </c>
@@ -4345,7 +4359,10 @@
       </c>
       <c r="I184" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>109000</v>
+      </c>
+      <c r="J184" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="185" spans="5:10" x14ac:dyDescent="0.25">
@@ -4361,6 +4378,9 @@
       </c>
     </row>
     <row r="186" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E186">
+        <v>5</v>
+      </c>
       <c r="G186" t="s">
         <v>1</v>
       </c>
@@ -4369,10 +4389,14 @@
       </c>
       <c r="I186" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="187" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E187">
+        <f>80+6</f>
+        <v>86</v>
+      </c>
       <c r="G187" t="s">
         <v>8</v>
       </c>
@@ -4381,10 +4405,17 @@
       </c>
       <c r="I187" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>86000</v>
+      </c>
+      <c r="J187" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="188" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E188">
+        <f>11</f>
+        <v>11</v>
+      </c>
       <c r="G188" t="s">
         <v>7</v>
       </c>
@@ -4393,7 +4424,7 @@
       </c>
       <c r="I188" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="189" spans="5:10" x14ac:dyDescent="0.25">

--- a/daily expenses.xlsx
+++ b/daily expenses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragon\Desktop\arduino\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0605EBBB-4FF6-427E-99A9-69AF6F89924C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027633EB-C73D-43F5-A5FE-A1C8E6FD4A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="112">
   <si>
     <t>Tiền</t>
   </si>
@@ -363,6 +363,18 @@
   </si>
   <si>
     <t>mũ bảo hiểm 80k, 6k xe buýt</t>
+  </si>
+  <si>
+    <t>mua thit 20k, 50k trà sữa, 1k nước đá</t>
+  </si>
+  <si>
+    <t>85k áo mưa, 15k đậu hủ, 65k gạo</t>
+  </si>
+  <si>
+    <t>700k bhx, 87k lẩu,25k bắp</t>
+  </si>
+  <si>
+    <t>50k tiền xăng, 20k thịt, 2k nước đá</t>
   </si>
 </sst>
 </file>
@@ -750,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAE49B0-AACA-4A77-BE97-C23002D033D1}">
   <dimension ref="D3:V225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C171" workbookViewId="0">
-      <selection activeCell="E189" sqref="E189"/>
+    <sheetView tabSelected="1" topLeftCell="C181" workbookViewId="0">
+      <selection activeCell="J198" sqref="J198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4366,6 +4378,9 @@
       </c>
     </row>
     <row r="185" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E185">
+        <v>3</v>
+      </c>
       <c r="G185" t="s">
         <v>19</v>
       </c>
@@ -4374,12 +4389,13 @@
       </c>
       <c r="I185" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="186" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E186">
-        <v>5</v>
+        <f>5+6</f>
+        <v>11</v>
       </c>
       <c r="G186" t="s">
         <v>1</v>
@@ -4389,7 +4405,7 @@
       </c>
       <c r="I186" s="2">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="187" spans="5:10" x14ac:dyDescent="0.25">
@@ -4428,6 +4444,9 @@
       </c>
     </row>
     <row r="189" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E189">
+        <v>6</v>
+      </c>
       <c r="G189" t="s">
         <v>11</v>
       </c>
@@ -4436,10 +4455,14 @@
       </c>
       <c r="I189" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="190" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E190">
+        <f>6+20</f>
+        <v>26</v>
+      </c>
       <c r="G190" t="s">
         <v>14</v>
       </c>
@@ -4448,10 +4471,14 @@
       </c>
       <c r="I190" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="191" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E191">
+        <f>70+82+2+20</f>
+        <v>174</v>
+      </c>
       <c r="G191" t="s">
         <v>15</v>
       </c>
@@ -4460,10 +4487,14 @@
       </c>
       <c r="I191" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>174000</v>
       </c>
     </row>
     <row r="192" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E192">
+        <f>33+2</f>
+        <v>35</v>
+      </c>
       <c r="G192" t="s">
         <v>19</v>
       </c>
@@ -4472,10 +4503,14 @@
       </c>
       <c r="I192" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="7:9" x14ac:dyDescent="0.25">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="193" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E193">
+        <f>20+50+1</f>
+        <v>71</v>
+      </c>
       <c r="G193" t="s">
         <v>1</v>
       </c>
@@ -4484,10 +4519,13 @@
       </c>
       <c r="I193" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="7:9" x14ac:dyDescent="0.25">
+        <v>71000</v>
+      </c>
+      <c r="J193" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="194" spans="5:10" x14ac:dyDescent="0.25">
       <c r="G194" t="s">
         <v>8</v>
       </c>
@@ -4499,7 +4537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="5:10" x14ac:dyDescent="0.25">
       <c r="G195" t="s">
         <v>7</v>
       </c>
@@ -4511,7 +4549,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E196">
+        <f>85+15+65</f>
+        <v>165</v>
+      </c>
       <c r="G196" t="s">
         <v>11</v>
       </c>
@@ -4520,10 +4562,17 @@
       </c>
       <c r="I196" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="7:9" x14ac:dyDescent="0.25">
+        <v>165000</v>
+      </c>
+      <c r="J196" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="197" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E197">
+        <f>700+87+25</f>
+        <v>812</v>
+      </c>
       <c r="G197" t="s">
         <v>14</v>
       </c>
@@ -4532,10 +4581,17 @@
       </c>
       <c r="I197" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="7:9" x14ac:dyDescent="0.25">
+        <v>812000</v>
+      </c>
+      <c r="J197" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="198" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E198">
+        <f>50+2+20</f>
+        <v>72</v>
+      </c>
       <c r="G198" t="s">
         <v>15</v>
       </c>
@@ -4544,10 +4600,13 @@
       </c>
       <c r="I198" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="7:9" x14ac:dyDescent="0.25">
+        <v>72000</v>
+      </c>
+      <c r="J198" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="199" spans="5:10" x14ac:dyDescent="0.25">
       <c r="G199" t="s">
         <v>19</v>
       </c>
@@ -4559,7 +4618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="5:10" x14ac:dyDescent="0.25">
       <c r="G200" t="s">
         <v>1</v>
       </c>
@@ -4571,7 +4630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="5:10" x14ac:dyDescent="0.25">
       <c r="G201" t="s">
         <v>8</v>
       </c>
@@ -4583,7 +4642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="5:10" x14ac:dyDescent="0.25">
       <c r="G202" t="s">
         <v>7</v>
       </c>
@@ -4595,7 +4654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="5:10" x14ac:dyDescent="0.25">
       <c r="G203" t="s">
         <v>11</v>
       </c>
@@ -4607,7 +4666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="5:10" x14ac:dyDescent="0.25">
       <c r="G204" t="s">
         <v>14</v>
       </c>
@@ -4619,7 +4678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="5:10" x14ac:dyDescent="0.25">
       <c r="G205" t="s">
         <v>15</v>
       </c>
@@ -4631,7 +4690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="5:10" x14ac:dyDescent="0.25">
       <c r="G206" t="s">
         <v>19</v>
       </c>
@@ -4643,7 +4702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="5:10" x14ac:dyDescent="0.25">
       <c r="G207" t="s">
         <v>1</v>
       </c>
@@ -4655,7 +4714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="5:10" x14ac:dyDescent="0.25">
       <c r="G208" t="s">
         <v>8</v>
       </c>

--- a/daily expenses.xlsx
+++ b/daily expenses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragon\Desktop\arduino\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027633EB-C73D-43F5-A5FE-A1C8E6FD4A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1A5253-CD48-4C9C-8C40-3490519A9120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
+    <workbookView xWindow="0" yWindow="1290" windowWidth="21600" windowHeight="11385" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="114">
   <si>
     <t>Tiền</t>
   </si>
@@ -375,6 +375,12 @@
   </si>
   <si>
     <t>50k tiền xăng, 20k thịt, 2k nước đá</t>
+  </si>
+  <si>
+    <t>mua đồ 267k, 2k nước đá, 15k tàu hũ nóng</t>
+  </si>
+  <si>
+    <t>tiền mạng 1122k, bhx 124k</t>
   </si>
 </sst>
 </file>
@@ -762,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAE49B0-AACA-4A77-BE97-C23002D033D1}">
   <dimension ref="D3:V225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C181" workbookViewId="0">
-      <selection activeCell="J198" sqref="J198"/>
+    <sheetView tabSelected="1" topLeftCell="C184" workbookViewId="0">
+      <selection activeCell="J203" sqref="J203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4607,6 +4613,10 @@
       </c>
     </row>
     <row r="199" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E199">
+        <f>267+2+15</f>
+        <v>284</v>
+      </c>
       <c r="G199" t="s">
         <v>19</v>
       </c>
@@ -4615,7 +4625,10 @@
       </c>
       <c r="I199" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>284000</v>
+      </c>
+      <c r="J199" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="200" spans="5:10" x14ac:dyDescent="0.25">
@@ -4631,6 +4644,10 @@
       </c>
     </row>
     <row r="201" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E201">
+        <f>15</f>
+        <v>15</v>
+      </c>
       <c r="G201" t="s">
         <v>8</v>
       </c>
@@ -4639,10 +4656,14 @@
       </c>
       <c r="I201" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="202" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E202">
+        <f>1122+124</f>
+        <v>1246</v>
+      </c>
       <c r="G202" t="s">
         <v>7</v>
       </c>
@@ -4651,7 +4672,10 @@
       </c>
       <c r="I202" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1246000</v>
+      </c>
+      <c r="J202" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="203" spans="5:10" x14ac:dyDescent="0.25">

--- a/daily expenses.xlsx
+++ b/daily expenses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragon\Desktop\arduino\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1A5253-CD48-4C9C-8C40-3490519A9120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8AE583-B9B8-4B0F-821A-09B9738F4918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1290" windowWidth="21600" windowHeight="11385" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
+    <workbookView xWindow="0" yWindow="2625" windowWidth="21600" windowHeight="11385" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -768,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAE49B0-AACA-4A77-BE97-C23002D033D1}">
   <dimension ref="D3:V225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C184" workbookViewId="0">
-      <selection activeCell="J203" sqref="J203"/>
+    <sheetView tabSelected="1" topLeftCell="C190" workbookViewId="0">
+      <selection activeCell="E204" sqref="E204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4679,6 +4679,10 @@
       </c>
     </row>
     <row r="203" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E203">
+        <f>20</f>
+        <v>20</v>
+      </c>
       <c r="G203" t="s">
         <v>11</v>
       </c>
@@ -4687,7 +4691,7 @@
       </c>
       <c r="I203" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="204" spans="5:10" x14ac:dyDescent="0.25">

--- a/daily expenses.xlsx
+++ b/daily expenses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragon\Desktop\arduino\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8AE583-B9B8-4B0F-821A-09B9738F4918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD61B191-9565-49F3-8635-8538298B5CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2625" windowWidth="21600" windowHeight="11385" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="115">
   <si>
     <t>Tiền</t>
   </si>
@@ -381,6 +381,9 @@
   </si>
   <si>
     <t>tiền mạng 1122k, bhx 124k</t>
+  </si>
+  <si>
+    <t>bhx 69k, đỗ xăng 50k</t>
   </si>
 </sst>
 </file>
@@ -768,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAE49B0-AACA-4A77-BE97-C23002D033D1}">
   <dimension ref="D3:V225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C190" workbookViewId="0">
-      <selection activeCell="E204" sqref="E204"/>
+    <sheetView tabSelected="1" topLeftCell="B190" workbookViewId="0">
+      <selection activeCell="E208" sqref="E208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4707,6 +4710,10 @@
       </c>
     </row>
     <row r="205" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E205">
+        <f>27+1645</f>
+        <v>1672</v>
+      </c>
       <c r="G205" t="s">
         <v>15</v>
       </c>
@@ -4715,10 +4722,14 @@
       </c>
       <c r="I205" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1672000</v>
       </c>
     </row>
     <row r="206" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E206">
+        <f>50+69</f>
+        <v>119</v>
+      </c>
       <c r="G206" t="s">
         <v>19</v>
       </c>
@@ -4727,7 +4738,10 @@
       </c>
       <c r="I206" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>119000</v>
+      </c>
+      <c r="J206" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="207" spans="5:10" x14ac:dyDescent="0.25">

--- a/daily expenses.xlsx
+++ b/daily expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragon\Desktop\arduino\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD61B191-9565-49F3-8635-8538298B5CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF30D2E-DF6C-432E-AF64-23B46B97913B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="118">
   <si>
     <t>Tiền</t>
   </si>
@@ -384,6 +384,15 @@
   </si>
   <si>
     <t>bhx 69k, đỗ xăng 50k</t>
+  </si>
+  <si>
+    <t>18K NƯỚC NGỌT</t>
+  </si>
+  <si>
+    <t>40k cà phê mẹ, 15k đậu hủ, 65k gạo, 60k vá xe</t>
+  </si>
+  <si>
+    <t>52k bách hóa xanh, 2k nước đá</t>
   </si>
 </sst>
 </file>
@@ -771,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAE49B0-AACA-4A77-BE97-C23002D033D1}">
   <dimension ref="D3:V225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B190" workbookViewId="0">
-      <selection activeCell="E208" sqref="E208"/>
+    <sheetView tabSelected="1" topLeftCell="B196" workbookViewId="0">
+      <selection activeCell="J211" sqref="J211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4745,6 +4754,10 @@
       </c>
     </row>
     <row r="207" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E207">
+        <f>50+20+10+1150</f>
+        <v>1230</v>
+      </c>
       <c r="G207" t="s">
         <v>1</v>
       </c>
@@ -4753,10 +4766,14 @@
       </c>
       <c r="I207" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1230000</v>
       </c>
     </row>
     <row r="208" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E208">
+        <f>18</f>
+        <v>18</v>
+      </c>
       <c r="G208" t="s">
         <v>8</v>
       </c>
@@ -4765,10 +4782,17 @@
       </c>
       <c r="I208" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="7:9" x14ac:dyDescent="0.25">
+        <v>18000</v>
+      </c>
+      <c r="J208" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="209" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E209">
+        <f>40+60+65+15</f>
+        <v>180</v>
+      </c>
       <c r="G209" t="s">
         <v>7</v>
       </c>
@@ -4777,10 +4801,17 @@
       </c>
       <c r="I209" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="7:9" x14ac:dyDescent="0.25">
+        <v>180000</v>
+      </c>
+      <c r="J209" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="210" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E210">
+        <f>52+2</f>
+        <v>54</v>
+      </c>
       <c r="G210" t="s">
         <v>11</v>
       </c>
@@ -4789,10 +4820,13 @@
       </c>
       <c r="I210" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="7:9" x14ac:dyDescent="0.25">
+        <v>54000</v>
+      </c>
+      <c r="J210" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="211" spans="5:10" x14ac:dyDescent="0.25">
       <c r="G211" t="s">
         <v>14</v>
       </c>
@@ -4804,7 +4838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="5:10" x14ac:dyDescent="0.25">
       <c r="G212" t="s">
         <v>15</v>
       </c>
@@ -4816,7 +4850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="5:10" x14ac:dyDescent="0.25">
       <c r="G213" t="s">
         <v>19</v>
       </c>
@@ -4828,7 +4862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="5:10" x14ac:dyDescent="0.25">
       <c r="G214" t="s">
         <v>1</v>
       </c>
@@ -4840,7 +4874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="5:10" x14ac:dyDescent="0.25">
       <c r="G215" t="s">
         <v>8</v>
       </c>
@@ -4852,7 +4886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="5:10" x14ac:dyDescent="0.25">
       <c r="G216" t="s">
         <v>7</v>
       </c>
@@ -4864,7 +4898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="5:10" x14ac:dyDescent="0.25">
       <c r="G217" t="s">
         <v>11</v>
       </c>
@@ -4876,7 +4910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="5:10" x14ac:dyDescent="0.25">
       <c r="G218" t="s">
         <v>14</v>
       </c>
@@ -4888,7 +4922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="5:10" x14ac:dyDescent="0.25">
       <c r="H219" s="1">
         <v>44998</v>
       </c>
@@ -4897,7 +4931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="5:10" x14ac:dyDescent="0.25">
       <c r="H220" s="1">
         <v>44999</v>
       </c>
@@ -4906,7 +4940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="5:10" x14ac:dyDescent="0.25">
       <c r="H221" s="1">
         <v>45000</v>
       </c>
@@ -4915,7 +4949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="5:10" x14ac:dyDescent="0.25">
       <c r="H222" s="1">
         <v>45001</v>
       </c>
@@ -4924,7 +4958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="5:10" x14ac:dyDescent="0.25">
       <c r="H223" s="1">
         <v>45002</v>
       </c>
@@ -4933,7 +4967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="5:10" x14ac:dyDescent="0.25">
       <c r="H224" s="1">
         <v>45003</v>
       </c>

--- a/daily expenses.xlsx
+++ b/daily expenses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragon\Desktop\arduino\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF30D2E-DF6C-432E-AF64-23B46B97913B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F63D4F1-7E6F-4BAB-BBC1-C744E7761529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="123">
   <si>
     <t>Tiền</t>
   </si>
@@ -393,6 +393,21 @@
   </si>
   <si>
     <t>52k bách hóa xanh, 2k nước đá</t>
+  </si>
+  <si>
+    <t>50k xăng, 100k a Hưng mượn, 37k lam mạch</t>
+  </si>
+  <si>
+    <t>20k thit, 2k nươc đá, 18k điện tử, 40k ship đồ, 19k nước rửa mạch, 10k  điện thoại, thắng mượn 500k</t>
+  </si>
+  <si>
+    <t>Huy trả tiền trọ và gạo</t>
+  </si>
+  <si>
+    <t>bhx 164k, 2k nước đá</t>
+  </si>
+  <si>
+    <t>mẹ mượn 2tr, 190k 247, 50k đổ xăng</t>
   </si>
 </sst>
 </file>
@@ -778,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAE49B0-AACA-4A77-BE97-C23002D033D1}">
-  <dimension ref="D3:V225"/>
+  <dimension ref="D3:V241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B196" workbookViewId="0">
-      <selection activeCell="J211" sqref="J211"/>
+    <sheetView tabSelected="1" topLeftCell="B199" workbookViewId="0">
+      <selection activeCell="J219" sqref="J219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2671,7 +2686,7 @@
         <v>1000</v>
       </c>
       <c r="P94" s="2">
-        <f t="shared" ref="P94:P150" si="2">F94*1000</f>
+        <f t="shared" ref="P94:P157" si="2">F94*1000</f>
         <v>0</v>
       </c>
     </row>
@@ -3886,6 +3901,10 @@
         <f t="shared" si="3"/>
         <v>80000</v>
       </c>
+      <c r="P151" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="152" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E152">
@@ -3902,6 +3921,10 @@
         <f t="shared" si="3"/>
         <v>74000</v>
       </c>
+      <c r="P152" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="153" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E153">
@@ -3918,6 +3941,10 @@
         <f t="shared" si="3"/>
         <v>191000</v>
       </c>
+      <c r="P153" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="154" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E154">
@@ -3934,6 +3961,10 @@
         <f t="shared" si="3"/>
         <v>35000</v>
       </c>
+      <c r="P154" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="155" spans="5:16" x14ac:dyDescent="0.25">
       <c r="G155" t="s">
@@ -3943,6 +3974,10 @@
         <v>44934</v>
       </c>
       <c r="I155" s="2"/>
+      <c r="P155" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="156" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E156">
@@ -3959,6 +3994,10 @@
         <f>E156*1000</f>
         <v>3648000</v>
       </c>
+      <c r="P156" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="157" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E157">
@@ -3975,6 +4014,10 @@
         <f t="shared" si="3"/>
         <v>267000</v>
       </c>
+      <c r="P157" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="158" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E158">
@@ -3991,6 +4034,10 @@
         <f t="shared" si="3"/>
         <v>148000</v>
       </c>
+      <c r="P158" s="2">
+        <f t="shared" ref="P158:P221" si="4">F158*1000</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="159" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E159">
@@ -4007,6 +4054,10 @@
         <f t="shared" si="3"/>
         <v>70000</v>
       </c>
+      <c r="P159" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="160" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E160">
@@ -4022,8 +4073,12 @@
         <f t="shared" si="3"/>
         <v>64000</v>
       </c>
-    </row>
-    <row r="161" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P160" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E161">
         <f>50+20+15+15</f>
         <v>100</v>
@@ -4038,8 +4093,12 @@
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="162" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P161" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E162">
         <f>20+15</f>
         <v>35</v>
@@ -4054,8 +4113,12 @@
         <f t="shared" si="3"/>
         <v>35000</v>
       </c>
-    </row>
-    <row r="163" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P162" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E163">
         <f>48+45+15</f>
         <v>108</v>
@@ -4070,8 +4133,12 @@
         <f t="shared" si="3"/>
         <v>108000</v>
       </c>
-    </row>
-    <row r="164" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P163" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E164">
         <f>10+30+40+39</f>
         <v>119</v>
@@ -4087,8 +4154,12 @@
         <v>119000</v>
       </c>
       <c r="J164" s="6"/>
-    </row>
-    <row r="165" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P164" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="5:16" x14ac:dyDescent="0.25">
       <c r="G165" t="s">
         <v>1</v>
       </c>
@@ -4099,8 +4170,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P165" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E166">
         <f>360+255+15</f>
         <v>630</v>
@@ -4115,8 +4190,12 @@
         <f t="shared" si="3"/>
         <v>630000</v>
       </c>
-    </row>
-    <row r="167" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P166" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="5:16" x14ac:dyDescent="0.25">
       <c r="G167" t="s">
         <v>7</v>
       </c>
@@ -4127,8 +4206,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P167" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="5:16" x14ac:dyDescent="0.25">
       <c r="G168" t="s">
         <v>11</v>
       </c>
@@ -4136,11 +4219,15 @@
         <v>44947</v>
       </c>
       <c r="I168" s="2">
-        <f t="shared" ref="I168:I223" si="4">E168*1000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="5:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I168:I223" si="5">E168*1000</f>
+        <v>0</v>
+      </c>
+      <c r="P168" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="5:16" x14ac:dyDescent="0.25">
       <c r="G169" t="s">
         <v>14</v>
       </c>
@@ -4148,11 +4235,15 @@
         <v>44948</v>
       </c>
       <c r="I169" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="5:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P169" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="5:16" x14ac:dyDescent="0.25">
       <c r="G170" t="s">
         <v>15</v>
       </c>
@@ -4160,11 +4251,15 @@
         <v>44949</v>
       </c>
       <c r="I170" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="5:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P170" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="5:16" x14ac:dyDescent="0.25">
       <c r="G171" t="s">
         <v>19</v>
       </c>
@@ -4172,11 +4267,15 @@
         <v>44950</v>
       </c>
       <c r="I171" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="5:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P171" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E172">
         <f>750+55+15</f>
         <v>820</v>
@@ -4188,11 +4287,15 @@
         <v>44951</v>
       </c>
       <c r="I172" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>820000</v>
       </c>
-    </row>
-    <row r="173" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P172" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="5:16" x14ac:dyDescent="0.25">
       <c r="G173" t="s">
         <v>8</v>
       </c>
@@ -4200,11 +4303,15 @@
         <v>44952</v>
       </c>
       <c r="I173" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="5:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P173" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E174">
         <f>70+30+20+1</f>
         <v>121</v>
@@ -4216,14 +4323,18 @@
         <v>44953</v>
       </c>
       <c r="I174" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>121000</v>
       </c>
       <c r="J174" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="175" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P174" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="5:16" x14ac:dyDescent="0.25">
       <c r="G175" t="s">
         <v>11</v>
       </c>
@@ -4231,11 +4342,15 @@
         <v>44954</v>
       </c>
       <c r="I175" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="5:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P175" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E176">
         <f>734.3+150+112+628+50+20+1570+85</f>
         <v>3349.3</v>
@@ -4247,14 +4362,18 @@
         <v>44955</v>
       </c>
       <c r="I176" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3349300</v>
       </c>
       <c r="J176" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="177" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P176" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E177">
         <f>15+145+29</f>
         <v>189</v>
@@ -4266,14 +4385,18 @@
         <v>44956</v>
       </c>
       <c r="I177" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>189000</v>
       </c>
       <c r="J177" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="178" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P177" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E178">
         <f>20+12+10</f>
         <v>42</v>
@@ -4285,14 +4408,18 @@
         <v>44957</v>
       </c>
       <c r="I178" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42000</v>
       </c>
       <c r="J178" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="179" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P178" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="5:16" x14ac:dyDescent="0.25">
       <c r="G179" t="s">
         <v>1</v>
       </c>
@@ -4300,11 +4427,15 @@
         <v>44958</v>
       </c>
       <c r="I179" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="5:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P179" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E180">
         <v>220</v>
       </c>
@@ -4315,14 +4446,18 @@
         <v>44959</v>
       </c>
       <c r="I180" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>220000</v>
       </c>
       <c r="J180" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="181" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P180" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E181">
         <f>15+20+3+60+1</f>
         <v>99</v>
@@ -4334,14 +4469,18 @@
         <v>44960</v>
       </c>
       <c r="I181" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>99000</v>
       </c>
       <c r="J181" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="182" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P181" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E182">
         <f>10+30</f>
         <v>40</v>
@@ -4353,14 +4492,18 @@
         <v>44961</v>
       </c>
       <c r="I182" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40000</v>
       </c>
       <c r="J182" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="183" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P182" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E183">
         <f>30</f>
         <v>30</v>
@@ -4372,11 +4515,15 @@
         <v>44962</v>
       </c>
       <c r="I183" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30000</v>
       </c>
-    </row>
-    <row r="184" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P183" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E184">
         <f>90+9+10</f>
         <v>109</v>
@@ -4388,14 +4535,18 @@
         <v>44963</v>
       </c>
       <c r="I184" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>109000</v>
       </c>
       <c r="J184" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="185" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P184" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E185">
         <v>3</v>
       </c>
@@ -4406,11 +4557,15 @@
         <v>44964</v>
       </c>
       <c r="I185" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3000</v>
       </c>
-    </row>
-    <row r="186" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P185" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E186">
         <f>5+6</f>
         <v>11</v>
@@ -4422,11 +4577,15 @@
         <v>44965</v>
       </c>
       <c r="I186" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11000</v>
       </c>
-    </row>
-    <row r="187" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P186" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E187">
         <f>80+6</f>
         <v>86</v>
@@ -4438,14 +4597,18 @@
         <v>44966</v>
       </c>
       <c r="I187" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>86000</v>
       </c>
       <c r="J187" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="188" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P187" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E188">
         <f>11</f>
         <v>11</v>
@@ -4457,11 +4620,15 @@
         <v>44967</v>
       </c>
       <c r="I188" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11000</v>
       </c>
-    </row>
-    <row r="189" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P188" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E189">
         <v>6</v>
       </c>
@@ -4472,11 +4639,15 @@
         <v>44968</v>
       </c>
       <c r="I189" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="190" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P189" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E190">
         <f>6+20</f>
         <v>26</v>
@@ -4488,11 +4659,15 @@
         <v>44969</v>
       </c>
       <c r="I190" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26000</v>
       </c>
-    </row>
-    <row r="191" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P190" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E191">
         <f>70+82+2+20</f>
         <v>174</v>
@@ -4504,11 +4679,15 @@
         <v>44970</v>
       </c>
       <c r="I191" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>174000</v>
       </c>
-    </row>
-    <row r="192" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P191" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E192">
         <f>33+2</f>
         <v>35</v>
@@ -4520,11 +4699,15 @@
         <v>44971</v>
       </c>
       <c r="I192" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35000</v>
       </c>
-    </row>
-    <row r="193" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P192" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E193">
         <f>20+50+1</f>
         <v>71</v>
@@ -4536,14 +4719,18 @@
         <v>44972</v>
       </c>
       <c r="I193" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>71000</v>
       </c>
       <c r="J193" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="194" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P193" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="5:16" x14ac:dyDescent="0.25">
       <c r="G194" t="s">
         <v>8</v>
       </c>
@@ -4551,11 +4738,15 @@
         <v>44973</v>
       </c>
       <c r="I194" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="5:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P194" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="5:16" x14ac:dyDescent="0.25">
       <c r="G195" t="s">
         <v>7</v>
       </c>
@@ -4563,11 +4754,15 @@
         <v>44974</v>
       </c>
       <c r="I195" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="5:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P195" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E196">
         <f>85+15+65</f>
         <v>165</v>
@@ -4579,14 +4774,18 @@
         <v>44975</v>
       </c>
       <c r="I196" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>165000</v>
       </c>
       <c r="J196" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="197" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P196" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E197">
         <f>700+87+25</f>
         <v>812</v>
@@ -4598,14 +4797,18 @@
         <v>44976</v>
       </c>
       <c r="I197" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>812000</v>
       </c>
       <c r="J197" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="198" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P197" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E198">
         <f>50+2+20</f>
         <v>72</v>
@@ -4617,14 +4820,18 @@
         <v>44977</v>
       </c>
       <c r="I198" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>72000</v>
       </c>
       <c r="J198" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="199" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P198" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E199">
         <f>267+2+15</f>
         <v>284</v>
@@ -4636,14 +4843,18 @@
         <v>44978</v>
       </c>
       <c r="I199" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>284000</v>
       </c>
       <c r="J199" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="200" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P199" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="5:16" x14ac:dyDescent="0.25">
       <c r="G200" t="s">
         <v>1</v>
       </c>
@@ -4651,11 +4862,15 @@
         <v>44979</v>
       </c>
       <c r="I200" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="5:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P200" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E201">
         <f>15</f>
         <v>15</v>
@@ -4667,11 +4882,15 @@
         <v>44980</v>
       </c>
       <c r="I201" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15000</v>
       </c>
-    </row>
-    <row r="202" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P201" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E202">
         <f>1122+124</f>
         <v>1246</v>
@@ -4683,14 +4902,18 @@
         <v>44981</v>
       </c>
       <c r="I202" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1246000</v>
       </c>
       <c r="J202" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="203" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P202" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E203">
         <f>20</f>
         <v>20</v>
@@ -4702,11 +4925,15 @@
         <v>44982</v>
       </c>
       <c r="I203" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20000</v>
       </c>
-    </row>
-    <row r="204" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P203" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="5:16" x14ac:dyDescent="0.25">
       <c r="G204" t="s">
         <v>14</v>
       </c>
@@ -4714,11 +4941,15 @@
         <v>44983</v>
       </c>
       <c r="I204" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="5:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P204" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E205">
         <f>27+1645</f>
         <v>1672</v>
@@ -4730,11 +4961,15 @@
         <v>44984</v>
       </c>
       <c r="I205" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1672000</v>
       </c>
-    </row>
-    <row r="206" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P205" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E206">
         <f>50+69</f>
         <v>119</v>
@@ -4746,14 +4981,18 @@
         <v>44985</v>
       </c>
       <c r="I206" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>119000</v>
       </c>
       <c r="J206" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="207" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P206" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E207">
         <f>50+20+10+1150</f>
         <v>1230</v>
@@ -4765,11 +5004,15 @@
         <v>44986</v>
       </c>
       <c r="I207" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1230000</v>
       </c>
-    </row>
-    <row r="208" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P207" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E208">
         <f>18</f>
         <v>18</v>
@@ -4781,14 +5024,18 @@
         <v>44987</v>
       </c>
       <c r="I208" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18000</v>
       </c>
       <c r="J208" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="209" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P208" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E209">
         <f>40+60+65+15</f>
         <v>180</v>
@@ -4800,14 +5047,18 @@
         <v>44988</v>
       </c>
       <c r="I209" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>180000</v>
       </c>
       <c r="J209" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="210" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P209" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E210">
         <f>52+2</f>
         <v>54</v>
@@ -4819,14 +5070,22 @@
         <v>44989</v>
       </c>
       <c r="I210" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54000</v>
       </c>
       <c r="J210" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="211" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="P210" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E211">
+        <f>50+100+12+25</f>
+        <v>187</v>
+      </c>
       <c r="G211" t="s">
         <v>14</v>
       </c>
@@ -4834,11 +5093,25 @@
         <v>44990</v>
       </c>
       <c r="I211" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="5:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>187000</v>
+      </c>
+      <c r="J211" t="s">
+        <v>118</v>
+      </c>
+      <c r="P211" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E212">
+        <f>20+2+10+40+18+19+500</f>
+        <v>609</v>
+      </c>
+      <c r="F212">
+        <v>855</v>
+      </c>
       <c r="G212" t="s">
         <v>15</v>
       </c>
@@ -4846,11 +5119,21 @@
         <v>44991</v>
       </c>
       <c r="I212" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="5:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>609000</v>
+      </c>
+      <c r="J212" t="s">
+        <v>119</v>
+      </c>
+      <c r="P212" s="2">
+        <f t="shared" si="4"/>
+        <v>855000</v>
+      </c>
+      <c r="Q212" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="213" spans="5:17" x14ac:dyDescent="0.25">
       <c r="G213" t="s">
         <v>19</v>
       </c>
@@ -4858,11 +5141,15 @@
         <v>44992</v>
       </c>
       <c r="I213" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="5:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P213" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="5:17" x14ac:dyDescent="0.25">
       <c r="G214" t="s">
         <v>1</v>
       </c>
@@ -4870,11 +5157,15 @@
         <v>44993</v>
       </c>
       <c r="I214" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="5:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P214" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="5:17" x14ac:dyDescent="0.25">
       <c r="G215" t="s">
         <v>8</v>
       </c>
@@ -4882,11 +5173,19 @@
         <v>44994</v>
       </c>
       <c r="I215" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="5:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P215" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E216">
+        <f>220+2</f>
+        <v>222</v>
+      </c>
       <c r="G216" t="s">
         <v>7</v>
       </c>
@@ -4894,11 +5193,19 @@
         <v>44995</v>
       </c>
       <c r="I216" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="5:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>222000</v>
+      </c>
+      <c r="P216" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E217">
+        <f>164+2</f>
+        <v>166</v>
+      </c>
       <c r="G217" t="s">
         <v>11</v>
       </c>
@@ -4906,11 +5213,18 @@
         <v>44996</v>
       </c>
       <c r="I217" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="5:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>166000</v>
+      </c>
+      <c r="J217" t="s">
+        <v>121</v>
+      </c>
+      <c r="P217" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="5:17" x14ac:dyDescent="0.25">
       <c r="G218" t="s">
         <v>14</v>
       </c>
@@ -4918,63 +5232,219 @@
         <v>44997</v>
       </c>
       <c r="I218" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="5:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P218" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E219">
+        <f>2000+190+50</f>
+        <v>2240</v>
+      </c>
+      <c r="G219" t="s">
+        <v>15</v>
+      </c>
       <c r="H219" s="1">
         <v>44998</v>
       </c>
       <c r="I219" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="5:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>2240000</v>
+      </c>
+      <c r="J219" t="s">
+        <v>122</v>
+      </c>
+      <c r="P219" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="G220" t="s">
+        <v>19</v>
+      </c>
       <c r="H220" s="1">
         <v>44999</v>
       </c>
       <c r="I220" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="5:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P220" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="G221" t="s">
+        <v>1</v>
+      </c>
       <c r="H221" s="1">
         <v>45000</v>
       </c>
       <c r="I221" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="5:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P221" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="G222" t="s">
+        <v>8</v>
+      </c>
       <c r="H222" s="1">
         <v>45001</v>
       </c>
       <c r="I222" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="5:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P222" s="2">
+        <f t="shared" ref="P222:P241" si="6">F222*1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="G223" t="s">
+        <v>7</v>
+      </c>
       <c r="H223" s="1">
         <v>45002</v>
       </c>
       <c r="I223" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="5:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P223" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="G224" t="s">
+        <v>11</v>
+      </c>
       <c r="H224" s="1">
         <v>45003</v>
       </c>
-    </row>
-    <row r="225" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="P224" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G225" t="s">
+        <v>14</v>
+      </c>
       <c r="H225" s="1">
         <v>45004</v>
+      </c>
+      <c r="P225" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="P226" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="P227" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="P228" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="P229" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="P230" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="P231" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="P232" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="P233" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="P234" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="P235" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="P236" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="P237" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="P238" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="P239" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="P240" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P241" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/daily expenses.xlsx
+++ b/daily expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragon\Desktop\arduino\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F63D4F1-7E6F-4BAB-BBC1-C744E7761529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10E0D89-CFB4-41DF-AAFA-8CFB9945945D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
   </bookViews>
@@ -36,8 +36,66 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Dragon</author>
+  </authors>
+  <commentList>
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{2D0B0B51-8F5B-4C42-8DC3-8E10874EAE4C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dragon:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+tiền ăn sáng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{7D8DD3BD-02FE-42F2-BC15-30ED0C1E6E29}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dragon:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+tiền ship</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="125">
   <si>
     <t>Tiền</t>
   </si>
@@ -202,15 +260,6 @@
     <t>trả tiền phòng 783k, café + đường 130k</t>
   </si>
   <si>
-    <t>Kit STM32F103C8T6</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>esp32 cam</t>
-  </si>
-  <si>
     <t>mua đồ bách hóa xanh, đổ xăng</t>
   </si>
   <si>
@@ -408,6 +457,21 @@
   </si>
   <si>
     <t>mẹ mượn 2tr, 190k 247, 50k đổ xăng</t>
+  </si>
+  <si>
+    <t>Vy</t>
+  </si>
+  <si>
+    <t>Đã trả</t>
+  </si>
+  <si>
+    <t>Chưa trả</t>
+  </si>
+  <si>
+    <t>92k bách hóa xanh 2k nước đá</t>
+  </si>
+  <si>
+    <t>15k đậu hủ, 2 k nước đá</t>
   </si>
 </sst>
 </file>
@@ -418,7 +482,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,6 +496,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -461,7 +538,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -475,6 +552,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -795,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAE49B0-AACA-4A77-BE97-C23002D033D1}">
   <dimension ref="D3:V241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B199" workbookViewId="0">
-      <selection activeCell="J219" sqref="J219"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="J240" sqref="J240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,14 +1137,14 @@
         <f>50000+40000+273000</f>
         <v>363000</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
     </row>
     <row r="16" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
@@ -1895,7 +1973,7 @@
         <v>825000</v>
       </c>
       <c r="J59" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K59" s="6"/>
       <c r="P59" s="2">
@@ -2083,7 +2161,7 @@
         <v>207000</v>
       </c>
       <c r="J68" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="P68" s="2">
         <f t="shared" si="1"/>
@@ -2106,7 +2184,7 @@
         <v>111000</v>
       </c>
       <c r="J69" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P69" s="2">
         <f t="shared" si="1"/>
@@ -2129,7 +2207,7 @@
         <v>105000</v>
       </c>
       <c r="J70" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P70" s="2">
         <f t="shared" si="1"/>
@@ -2152,7 +2230,7 @@
         <v>130000</v>
       </c>
       <c r="J71" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P71" s="2">
         <f t="shared" si="1"/>
@@ -2182,7 +2260,7 @@
         <v>100000</v>
       </c>
       <c r="Q72" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="5:17" x14ac:dyDescent="0.25">
@@ -2201,7 +2279,7 @@
         <v>75000</v>
       </c>
       <c r="J73" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P73" s="2">
         <f t="shared" si="1"/>
@@ -2284,7 +2362,7 @@
         <v>176000</v>
       </c>
       <c r="J77" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="P77" s="2">
         <f t="shared" si="1"/>
@@ -2307,7 +2385,7 @@
         <v>64000</v>
       </c>
       <c r="J78" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P78" s="2">
         <f t="shared" si="1"/>
@@ -2330,7 +2408,7 @@
         <v>26000</v>
       </c>
       <c r="J79" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P79" s="2">
         <f t="shared" si="1"/>
@@ -2353,7 +2431,7 @@
         <v>45000</v>
       </c>
       <c r="J80" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P80" s="2">
         <f t="shared" si="1"/>
@@ -2379,7 +2457,7 @@
         <v>30000</v>
       </c>
       <c r="J81" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P81" s="2">
         <f t="shared" si="1"/>
@@ -2405,7 +2483,7 @@
         <v>79000</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P82" s="2">
         <f t="shared" si="1"/>
@@ -2435,7 +2513,7 @@
     </row>
     <row r="84" spans="4:17" ht="30" x14ac:dyDescent="0.25">
       <c r="D84" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E84">
         <f>25+30+1+20</f>
@@ -2452,7 +2530,7 @@
         <v>76000</v>
       </c>
       <c r="J84" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P84" s="2">
         <f t="shared" si="1"/>
@@ -2481,7 +2559,7 @@
     </row>
     <row r="86" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E86">
         <f>2+25+137+30</f>
@@ -2498,7 +2576,7 @@
         <v>194000</v>
       </c>
       <c r="J86" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P86" s="2">
         <f t="shared" si="1"/>
@@ -2604,7 +2682,7 @@
         <v>582000</v>
       </c>
       <c r="J91" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P91" s="2">
         <f t="shared" si="1"/>
@@ -2630,14 +2708,14 @@
         <v>175000</v>
       </c>
       <c r="J92" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P92" s="2">
         <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
       <c r="Q92" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="93" spans="4:17" x14ac:dyDescent="0.25">
@@ -2660,14 +2738,14 @@
         <v>311000</v>
       </c>
       <c r="J93" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P93" s="2">
         <f>F93*1000</f>
         <v>1116000</v>
       </c>
       <c r="Q93" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="94" spans="4:17" x14ac:dyDescent="0.25">
@@ -2706,7 +2784,7 @@
         <v>46000</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P95" s="2">
         <f t="shared" si="2"/>
@@ -2729,7 +2807,7 @@
         <v>47000</v>
       </c>
       <c r="J96" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P96" s="2">
         <f t="shared" si="2"/>
@@ -2772,7 +2850,7 @@
         <v>1501500</v>
       </c>
       <c r="J98" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="P98" s="2">
         <f t="shared" si="2"/>
@@ -2795,7 +2873,7 @@
         <v>57000</v>
       </c>
       <c r="J99" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="P99" s="2">
         <f t="shared" si="2"/>
@@ -2818,7 +2896,7 @@
         <v>50000</v>
       </c>
       <c r="J100" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P100" s="2">
         <f t="shared" si="2"/>
@@ -2841,7 +2919,7 @@
         <v>55000</v>
       </c>
       <c r="J101" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P101" s="2">
         <f t="shared" si="2"/>
@@ -2883,7 +2961,7 @@
         <v>58000</v>
       </c>
       <c r="J103" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P103" s="2">
         <f t="shared" si="2"/>
@@ -2906,7 +2984,7 @@
         <v>72000</v>
       </c>
       <c r="J104" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="P104" s="2">
         <f t="shared" si="2"/>
@@ -2929,7 +3007,7 @@
         <v>65000</v>
       </c>
       <c r="J105" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P105" s="2">
         <f t="shared" si="2"/>
@@ -2959,7 +3037,7 @@
         <v>1000000</v>
       </c>
       <c r="Q106" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="107" spans="5:17" x14ac:dyDescent="0.25">
@@ -3057,7 +3135,7 @@
         <v>139000</v>
       </c>
       <c r="J111" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P111" s="2">
         <f t="shared" si="2"/>
@@ -3103,7 +3181,7 @@
         <v>822000</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P113" s="2">
         <f t="shared" si="2"/>
@@ -3146,7 +3224,7 @@
         <v>126000</v>
       </c>
       <c r="J115" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="P115" s="2">
         <f t="shared" si="2"/>
@@ -3272,7 +3350,7 @@
         <v>1034000</v>
       </c>
       <c r="J121" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="P121" s="2">
         <f t="shared" si="2"/>
@@ -3358,7 +3436,7 @@
         <v>390000</v>
       </c>
       <c r="J125" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="P125" s="2">
         <f t="shared" si="2"/>
@@ -3504,7 +3582,7 @@
         <v>190000</v>
       </c>
       <c r="J132" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="P132" s="2">
         <f t="shared" si="2"/>
@@ -3543,7 +3621,7 @@
         <v>401000</v>
       </c>
       <c r="J134" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P134" s="2">
         <f t="shared" si="2"/>
@@ -3566,7 +3644,7 @@
         <v>119000</v>
       </c>
       <c r="J135" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P135" s="2">
         <f t="shared" si="2"/>
@@ -3689,7 +3767,7 @@
         <v>257500</v>
       </c>
       <c r="J141" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P141" s="2">
         <f t="shared" si="2"/>
@@ -3814,7 +3892,7 @@
         <v>1007000</v>
       </c>
       <c r="J147" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P147" s="2">
         <f t="shared" si="2"/>
@@ -3879,7 +3957,7 @@
         <v>162000</v>
       </c>
       <c r="J150" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P150" s="2">
         <f t="shared" si="2"/>
@@ -4219,7 +4297,7 @@
         <v>44947</v>
       </c>
       <c r="I168" s="2">
-        <f t="shared" ref="I168:I223" si="5">E168*1000</f>
+        <f t="shared" ref="I168:I226" si="5">E168*1000</f>
         <v>0</v>
       </c>
       <c r="P168" s="2">
@@ -4327,7 +4405,7 @@
         <v>121000</v>
       </c>
       <c r="J174" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="P174" s="2">
         <f t="shared" si="4"/>
@@ -4366,7 +4444,7 @@
         <v>3349300</v>
       </c>
       <c r="J176" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P176" s="2">
         <f t="shared" si="4"/>
@@ -4389,7 +4467,7 @@
         <v>189000</v>
       </c>
       <c r="J177" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="P177" s="2">
         <f t="shared" si="4"/>
@@ -4412,7 +4490,7 @@
         <v>42000</v>
       </c>
       <c r="J178" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P178" s="2">
         <f t="shared" si="4"/>
@@ -4450,7 +4528,7 @@
         <v>220000</v>
       </c>
       <c r="J180" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P180" s="2">
         <f t="shared" si="4"/>
@@ -4473,7 +4551,7 @@
         <v>99000</v>
       </c>
       <c r="J181" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P181" s="2">
         <f t="shared" si="4"/>
@@ -4496,7 +4574,7 @@
         <v>40000</v>
       </c>
       <c r="J182" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="P182" s="2">
         <f t="shared" si="4"/>
@@ -4539,7 +4617,7 @@
         <v>109000</v>
       </c>
       <c r="J184" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P184" s="2">
         <f t="shared" si="4"/>
@@ -4601,7 +4679,7 @@
         <v>86000</v>
       </c>
       <c r="J187" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="P187" s="2">
         <f t="shared" si="4"/>
@@ -4723,7 +4801,7 @@
         <v>71000</v>
       </c>
       <c r="J193" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="P193" s="2">
         <f t="shared" si="4"/>
@@ -4778,7 +4856,7 @@
         <v>165000</v>
       </c>
       <c r="J196" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P196" s="2">
         <f t="shared" si="4"/>
@@ -4801,7 +4879,7 @@
         <v>812000</v>
       </c>
       <c r="J197" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P197" s="2">
         <f t="shared" si="4"/>
@@ -4824,7 +4902,7 @@
         <v>72000</v>
       </c>
       <c r="J198" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P198" s="2">
         <f t="shared" si="4"/>
@@ -4847,7 +4925,7 @@
         <v>284000</v>
       </c>
       <c r="J199" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P199" s="2">
         <f t="shared" si="4"/>
@@ -4906,7 +4984,7 @@
         <v>1246000</v>
       </c>
       <c r="J202" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P202" s="2">
         <f t="shared" si="4"/>
@@ -4985,7 +5063,7 @@
         <v>119000</v>
       </c>
       <c r="J206" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P206" s="2">
         <f t="shared" si="4"/>
@@ -5028,7 +5106,7 @@
         <v>18000</v>
       </c>
       <c r="J208" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="P208" s="2">
         <f t="shared" si="4"/>
@@ -5051,7 +5129,7 @@
         <v>180000</v>
       </c>
       <c r="J209" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P209" s="2">
         <f t="shared" si="4"/>
@@ -5074,7 +5152,7 @@
         <v>54000</v>
       </c>
       <c r="J210" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P210" s="2">
         <f t="shared" si="4"/>
@@ -5097,7 +5175,7 @@
         <v>187000</v>
       </c>
       <c r="J211" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="P211" s="2">
         <f t="shared" si="4"/>
@@ -5123,14 +5201,14 @@
         <v>609000</v>
       </c>
       <c r="J212" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P212" s="2">
         <f t="shared" si="4"/>
         <v>855000</v>
       </c>
       <c r="Q212" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="213" spans="5:17" x14ac:dyDescent="0.25">
@@ -5217,7 +5295,7 @@
         <v>166000</v>
       </c>
       <c r="J217" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P217" s="2">
         <f t="shared" si="4"/>
@@ -5245,6 +5323,9 @@
         <f>2000+190+50</f>
         <v>2240</v>
       </c>
+      <c r="F219">
+        <v>240</v>
+      </c>
       <c r="G219" t="s">
         <v>15</v>
       </c>
@@ -5256,14 +5337,21 @@
         <v>2240000</v>
       </c>
       <c r="J219" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P219" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>240000</v>
+      </c>
+      <c r="Q219" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="220" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E220">
+        <f>20</f>
+        <v>20</v>
+      </c>
       <c r="G220" t="s">
         <v>19</v>
       </c>
@@ -5272,7 +5360,7 @@
       </c>
       <c r="I220" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="P220" s="2">
         <f t="shared" si="4"/>
@@ -5296,6 +5384,10 @@
       </c>
     </row>
     <row r="222" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E222">
+        <f>92+2</f>
+        <v>94</v>
+      </c>
       <c r="G222" t="s">
         <v>8</v>
       </c>
@@ -5304,14 +5396,21 @@
       </c>
       <c r="I222" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>94000</v>
+      </c>
+      <c r="J222" t="s">
+        <v>123</v>
       </c>
       <c r="P222" s="2">
-        <f t="shared" ref="P222:P241" si="6">F222*1000</f>
-        <v>0</v>
+        <f>E222*1000</f>
+        <v>94000</v>
       </c>
     </row>
     <row r="223" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E223">
+        <f>15+2</f>
+        <v>17</v>
+      </c>
       <c r="G223" t="s">
         <v>7</v>
       </c>
@@ -5320,10 +5419,13 @@
       </c>
       <c r="I223" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>17000</v>
+      </c>
+      <c r="J223" t="s">
+        <v>124</v>
       </c>
       <c r="P223" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="P222:P241" si="6">F223*1000</f>
         <v>0</v>
       </c>
     </row>
@@ -5334,6 +5436,10 @@
       <c r="H224" s="1">
         <v>45003</v>
       </c>
+      <c r="I224" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="P224" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -5346,90 +5452,179 @@
       <c r="H225" s="1">
         <v>45004</v>
       </c>
+      <c r="I225" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="P225" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="226" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G226" t="s">
+        <v>15</v>
+      </c>
+      <c r="H226" s="1">
+        <v>45005</v>
+      </c>
+      <c r="I226" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="P226" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="227" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G227" t="s">
+        <v>19</v>
+      </c>
+      <c r="H227" s="1">
+        <v>45006</v>
+      </c>
       <c r="P227" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="228" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G228" t="s">
+        <v>1</v>
+      </c>
+      <c r="H228" s="1">
+        <v>45007</v>
+      </c>
       <c r="P228" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="229" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G229" t="s">
+        <v>8</v>
+      </c>
+      <c r="H229" s="1">
+        <v>45008</v>
+      </c>
       <c r="P229" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="230" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G230" t="s">
+        <v>7</v>
+      </c>
+      <c r="H230" s="1">
+        <v>45009</v>
+      </c>
       <c r="P230" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="231" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G231" t="s">
+        <v>11</v>
+      </c>
+      <c r="H231" s="1">
+        <v>45010</v>
+      </c>
       <c r="P231" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="232" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G232" t="s">
+        <v>14</v>
+      </c>
+      <c r="H232" s="1">
+        <v>45011</v>
+      </c>
       <c r="P232" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="233" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G233" t="s">
+        <v>15</v>
+      </c>
+      <c r="H233" s="1">
+        <v>45012</v>
+      </c>
       <c r="P233" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="234" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G234" t="s">
+        <v>19</v>
+      </c>
+      <c r="H234" s="1">
+        <v>45013</v>
+      </c>
       <c r="P234" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="235" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G235" t="s">
+        <v>1</v>
+      </c>
+      <c r="H235" s="1">
+        <v>45014</v>
+      </c>
       <c r="P235" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="236" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G236" t="s">
+        <v>8</v>
+      </c>
+      <c r="H236" s="1">
+        <v>45015</v>
+      </c>
       <c r="P236" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="237" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G237" t="s">
+        <v>7</v>
+      </c>
+      <c r="H237" s="1">
+        <v>45016</v>
+      </c>
       <c r="P237" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="238" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G238" t="s">
+        <v>11</v>
+      </c>
+      <c r="H238" s="1">
+        <v>45017</v>
+      </c>
       <c r="P238" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="239" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G239" t="s">
+        <v>14</v>
+      </c>
       <c r="P239" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -5457,32 +5652,59 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD28247-DF75-4BC4-AED2-4BDF60AE8E5F}">
-  <dimension ref="E6:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD28247-DF75-4BC4-AED2-4BDF60AE8E5F}">
+  <dimension ref="E6:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="6" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
-        <v>56</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E7" s="11">
+        <v>44998</v>
+      </c>
+      <c r="F7">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E8" s="11">
+        <v>44999</v>
+      </c>
+      <c r="F8">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7 G8:G29" xr:uid="{C52291F5-B326-4F8E-BBC3-485EFC880456}">
+      <formula1>$H$7:$H$8</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/daily expenses.xlsx
+++ b/daily expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragon\Desktop\arduino\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10E0D89-CFB4-41DF-AAFA-8CFB9945945D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DC0752-9135-4FF9-A6A5-190E8FC63F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
   </bookViews>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="126">
   <si>
     <t>Tiền</t>
   </si>
@@ -472,6 +472,9 @@
   </si>
   <si>
     <t>15k đậu hủ, 2 k nước đá</t>
+  </si>
+  <si>
+    <t>20k thịt 2k nước đá</t>
   </si>
 </sst>
 </file>
@@ -873,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAE49B0-AACA-4A77-BE97-C23002D033D1}">
   <dimension ref="D3:V241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="J240" sqref="J240"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="M230" sqref="M230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5425,11 +5428,15 @@
         <v>124</v>
       </c>
       <c r="P223" s="2">
-        <f t="shared" ref="P222:P241" si="6">F223*1000</f>
+        <f t="shared" ref="P223:P241" si="6">F223*1000</f>
         <v>0</v>
       </c>
     </row>
     <row r="224" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E224">
+        <f>22</f>
+        <v>22</v>
+      </c>
       <c r="G224" t="s">
         <v>11</v>
       </c>
@@ -5438,7 +5445,10 @@
       </c>
       <c r="I224" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>22000</v>
+      </c>
+      <c r="J224" t="s">
+        <v>125</v>
       </c>
       <c r="P224" s="2">
         <f t="shared" si="6"/>
@@ -5455,6 +5465,9 @@
       <c r="I225" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
+      </c>
+      <c r="J225" t="s">
+        <v>125</v>
       </c>
       <c r="P225" s="2">
         <f t="shared" si="6"/>

--- a/daily expenses.xlsx
+++ b/daily expenses.xlsx
@@ -5,32 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragon\Desktop\arduino\arduino\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DC0752-9135-4FF9-A6A5-190E8FC63F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747E076F-523E-4B57-B61E-4E3A16700090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -877,22 +866,22 @@
   <dimension ref="D3:V241"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="M230" sqref="M230"/>
+      <selection activeCell="E233" sqref="E233"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="7:21" x14ac:dyDescent="0.3">
       <c r="I3" t="s">
         <v>0</v>
       </c>
@@ -903,7 +892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G4" t="s">
         <v>1</v>
       </c>
@@ -925,7 +914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G5" t="s">
         <v>8</v>
       </c>
@@ -945,7 +934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G6" t="s">
         <v>7</v>
       </c>
@@ -966,7 +955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G7" t="s">
         <v>11</v>
       </c>
@@ -987,7 +976,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G8" t="s">
         <v>14</v>
       </c>
@@ -1002,7 +991,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G9" t="s">
         <v>15</v>
       </c>
@@ -1024,7 +1013,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G10" t="s">
         <v>19</v>
       </c>
@@ -1045,7 +1034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G11" t="s">
         <v>1</v>
       </c>
@@ -1066,7 +1055,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G12" t="s">
         <v>8</v>
       </c>
@@ -1087,7 +1076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G13" t="s">
         <v>7</v>
       </c>
@@ -1108,7 +1097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G14" t="s">
         <v>11</v>
       </c>
@@ -1129,7 +1118,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="7:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="7:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G15" t="s">
         <v>14</v>
       </c>
@@ -1149,7 +1138,7 @@
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
     </row>
-    <row r="16" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="7:21" x14ac:dyDescent="0.3">
       <c r="G16" t="s">
         <v>15</v>
       </c>
@@ -1171,7 +1160,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D17" s="2"/>
       <c r="G17" t="s">
         <v>19</v>
@@ -1194,7 +1183,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:22" x14ac:dyDescent="0.3">
       <c r="G18" t="s">
         <v>1</v>
       </c>
@@ -1214,7 +1203,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:22" x14ac:dyDescent="0.3">
       <c r="G19" t="s">
         <v>8</v>
       </c>
@@ -1231,7 +1220,7 @@
       <c r="M19" s="2"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:22" x14ac:dyDescent="0.3">
       <c r="G20" t="s">
         <v>7</v>
       </c>
@@ -1252,7 +1241,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:22" x14ac:dyDescent="0.3">
       <c r="G21" t="s">
         <v>11</v>
       </c>
@@ -1273,7 +1262,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:22" x14ac:dyDescent="0.3">
       <c r="G22" t="s">
         <v>14</v>
       </c>
@@ -1281,7 +1270,7 @@
         <v>44801</v>
       </c>
     </row>
-    <row r="23" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:22" x14ac:dyDescent="0.3">
       <c r="G23" t="s">
         <v>15</v>
       </c>
@@ -1296,7 +1285,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:22" x14ac:dyDescent="0.3">
       <c r="G24" t="s">
         <v>19</v>
       </c>
@@ -1310,7 +1299,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:22" x14ac:dyDescent="0.3">
       <c r="G25" t="s">
         <v>1</v>
       </c>
@@ -1324,7 +1313,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:22" x14ac:dyDescent="0.3">
       <c r="G26" t="s">
         <v>8</v>
       </c>
@@ -1332,7 +1321,7 @@
         <v>44805</v>
       </c>
     </row>
-    <row r="27" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:22" x14ac:dyDescent="0.3">
       <c r="G27" t="s">
         <v>7</v>
       </c>
@@ -1340,7 +1329,7 @@
         <v>44806</v>
       </c>
     </row>
-    <row r="28" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:22" x14ac:dyDescent="0.3">
       <c r="G28" t="s">
         <v>11</v>
       </c>
@@ -1348,7 +1337,7 @@
         <v>44807</v>
       </c>
     </row>
-    <row r="29" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:22" x14ac:dyDescent="0.3">
       <c r="E29" t="s">
         <v>43</v>
       </c>
@@ -1373,7 +1362,7 @@
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
     </row>
-    <row r="30" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:22" x14ac:dyDescent="0.3">
       <c r="G30" t="s">
         <v>15</v>
       </c>
@@ -1381,7 +1370,7 @@
         <v>44809</v>
       </c>
     </row>
-    <row r="31" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:22" x14ac:dyDescent="0.3">
       <c r="E31">
         <v>1000</v>
       </c>
@@ -1406,7 +1395,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:22" x14ac:dyDescent="0.3">
       <c r="G32" t="s">
         <v>1</v>
       </c>
@@ -1422,7 +1411,7 @@
       </c>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:17" x14ac:dyDescent="0.3">
       <c r="G33" t="s">
         <v>8</v>
       </c>
@@ -1442,7 +1431,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:17" x14ac:dyDescent="0.3">
       <c r="G34" t="s">
         <v>7</v>
       </c>
@@ -1464,7 +1453,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:17" x14ac:dyDescent="0.3">
       <c r="G35" t="s">
         <v>11</v>
       </c>
@@ -1479,7 +1468,7 @@
       </c>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E36" s="6"/>
       <c r="G36" t="s">
         <v>14</v>
@@ -1501,7 +1490,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:17" x14ac:dyDescent="0.3">
       <c r="G37" t="s">
         <v>15</v>
       </c>
@@ -1513,7 +1502,7 @@
       </c>
       <c r="Q37" s="2"/>
     </row>
-    <row r="38" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:17" x14ac:dyDescent="0.3">
       <c r="G38" t="s">
         <v>19</v>
       </c>
@@ -1526,7 +1515,7 @@
       </c>
       <c r="P38" s="2"/>
     </row>
-    <row r="39" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E39">
         <v>116</v>
       </c>
@@ -1548,7 +1537,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="40" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E40">
         <f>25+35</f>
         <v>60</v>
@@ -1571,7 +1560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E41">
         <f>25+370</f>
         <v>395</v>
@@ -1594,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E42">
         <f>50+25</f>
         <v>75</v>
@@ -1614,7 +1603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E43">
         <v>69</v>
       </c>
@@ -1640,7 +1629,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E44">
         <v>25</v>
       </c>
@@ -1659,7 +1648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E45">
         <v>25</v>
       </c>
@@ -1680,7 +1669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E46">
         <v>25</v>
       </c>
@@ -1702,7 +1691,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="47" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E47">
         <f>19+150</f>
         <v>169</v>
@@ -1725,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E48">
         <f>25+6</f>
         <v>31</v>
@@ -1748,7 +1737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E49">
         <f>25+50+60+5+1</f>
         <v>141</v>
@@ -1771,7 +1760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E50">
         <v>25</v>
       </c>
@@ -1790,7 +1779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E51">
         <v>25</v>
       </c>
@@ -1809,7 +1798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E52">
         <v>25</v>
       </c>
@@ -1828,7 +1817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E53">
         <f>25+5+1</f>
         <v>31</v>
@@ -1851,7 +1840,7 @@
         <v>393000</v>
       </c>
     </row>
-    <row r="54" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E54">
         <f>783+130+25+1</f>
         <v>939</v>
@@ -1874,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E55">
         <f>25+1+5</f>
         <v>31</v>
@@ -1894,7 +1883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E56">
         <f>22+25</f>
         <v>47</v>
@@ -1914,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="5:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E57" s="4">
         <v>6</v>
       </c>
@@ -1935,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E58">
         <v>26</v>
       </c>
@@ -1957,7 +1946,7 @@
         <v>5125000</v>
       </c>
     </row>
-    <row r="59" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E59">
         <f>50+25+53+697</f>
         <v>825</v>
@@ -1984,7 +1973,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="60" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E60">
         <f>25+1+50+5</f>
         <v>81</v>
@@ -2004,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E61">
         <f>25+1+20</f>
         <v>46</v>
@@ -2025,7 +2014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E62">
         <f>103+26</f>
         <v>129</v>
@@ -2045,7 +2034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E63">
         <f>25+1</f>
         <v>26</v>
@@ -2065,7 +2054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E64">
         <f>90+30</f>
         <v>120</v>
@@ -2085,7 +2074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E65">
         <f>25</f>
         <v>25</v>
@@ -2105,7 +2094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E66">
         <f>25+20+80+40</f>
         <v>165</v>
@@ -2125,7 +2114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E67">
         <f>25+25+35</f>
         <v>85</v>
@@ -2148,7 +2137,7 @@
         <v>660000</v>
       </c>
     </row>
-    <row r="68" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E68">
         <f>25+100+20+62</f>
         <v>207</v>
@@ -2171,7 +2160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E69">
         <f>25+5+25+56</f>
         <v>111</v>
@@ -2194,7 +2183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E70">
         <f>25+20+60</f>
         <v>105</v>
@@ -2217,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E71">
         <f>20+35+60+10+5</f>
         <v>130</v>
@@ -2240,7 +2229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E72">
         <f>25+20+20</f>
         <v>65</v>
@@ -2266,7 +2255,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E73">
         <f>25+50</f>
         <v>75</v>
@@ -2289,7 +2278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E74">
         <f>25+20</f>
         <v>45</v>
@@ -2309,7 +2298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E75">
         <f>25+13+20</f>
         <v>58</v>
@@ -2330,7 +2319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E76">
         <v>55</v>
       </c>
@@ -2349,7 +2338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E77">
         <f>25+120+13+5+1+12</f>
         <v>176</v>
@@ -2372,7 +2361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E78">
         <f>40+19+5</f>
         <v>64</v>
@@ -2395,7 +2384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E79">
         <f>25+1</f>
         <v>26</v>
@@ -2418,7 +2407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E80">
         <f>25+20</f>
         <v>45</v>
@@ -2441,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:17" x14ac:dyDescent="0.3">
       <c r="E81">
         <f>25+5</f>
         <v>30</v>
@@ -2470,7 +2459,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="82" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:17" x14ac:dyDescent="0.3">
       <c r="E82">
         <f>25+19+20+15</f>
         <v>79</v>
@@ -2493,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:17" x14ac:dyDescent="0.3">
       <c r="E83">
         <f>25+5+1</f>
         <v>31</v>
@@ -2514,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="4:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D84" s="9" t="s">
         <v>68</v>
       </c>
@@ -2540,7 +2529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:17" x14ac:dyDescent="0.3">
       <c r="E85">
         <f>6</f>
         <v>6</v>
@@ -2560,7 +2549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D86" t="s">
         <v>69</v>
       </c>
@@ -2586,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="4:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:17" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E87" s="4">
         <f>25+5</f>
         <v>30</v>
@@ -2606,7 +2595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:17" x14ac:dyDescent="0.3">
       <c r="E88">
         <f>25+20+29</f>
         <v>74</v>
@@ -2629,7 +2618,7 @@
         <v>6400000</v>
       </c>
     </row>
-    <row r="89" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:17" x14ac:dyDescent="0.3">
       <c r="E89">
         <f>26</f>
         <v>26</v>
@@ -2649,7 +2638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:17" x14ac:dyDescent="0.3">
       <c r="E90">
         <f>32+25+3760</f>
         <v>3817</v>
@@ -2669,7 +2658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:17" x14ac:dyDescent="0.3">
       <c r="E91">
         <f>25+1+90+60+406</f>
         <v>582</v>
@@ -2692,7 +2681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:17" x14ac:dyDescent="0.3">
       <c r="E92">
         <f>45+130</f>
         <v>175</v>
@@ -2721,7 +2710,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:17" x14ac:dyDescent="0.3">
       <c r="E93">
         <f>30+47+65+19+150</f>
         <v>311</v>
@@ -2751,7 +2740,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="94" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:17" x14ac:dyDescent="0.3">
       <c r="E94">
         <f>1</f>
         <v>1</v>
@@ -2771,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:17" x14ac:dyDescent="0.3">
       <c r="E95">
         <f>25+20+1</f>
         <v>46</v>
@@ -2794,7 +2783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:17" x14ac:dyDescent="0.3">
       <c r="E96">
         <f>35+11+1</f>
         <v>47</v>
@@ -2817,7 +2806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E97">
         <f>20+18</f>
         <v>38</v>
@@ -2837,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E98">
         <f>1500+1.5</f>
         <v>1501.5</v>
@@ -2860,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E99">
         <f>32+25</f>
         <v>57</v>
@@ -2883,7 +2872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E100">
         <f>50</f>
         <v>50</v>
@@ -2906,7 +2895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E101">
         <f>25+30</f>
         <v>55</v>
@@ -2929,7 +2918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E102">
         <v>55</v>
       </c>
@@ -2948,7 +2937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E103">
         <f>50+8</f>
         <v>58</v>
@@ -2971,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E104">
         <f>20+17+35</f>
         <v>72</v>
@@ -2994,7 +2983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E105">
         <f>65</f>
         <v>65</v>
@@ -3017,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E106">
         <f>67+25+5+20</f>
         <v>117</v>
@@ -3043,7 +3032,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="107" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E107">
         <f>10</f>
         <v>10</v>
@@ -3063,7 +3052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E108">
         <f>25</f>
         <v>25</v>
@@ -3083,7 +3072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E109">
         <f>20</f>
         <v>20</v>
@@ -3103,7 +3092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E110">
         <v>0</v>
       </c>
@@ -3122,7 +3111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E111">
         <f>30+20+70+19</f>
         <v>139</v>
@@ -3145,7 +3134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E112">
         <f>50+20</f>
         <v>70</v>
@@ -3165,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E113">
         <f>822</f>
         <v>822</v>
@@ -3191,7 +3180,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E114">
         <f>30</f>
         <v>30</v>
@@ -3211,7 +3200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E115">
         <f>53+40+3+10+20</f>
         <v>126</v>
@@ -3234,7 +3223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E116">
         <f>10+15</f>
         <v>25</v>
@@ -3257,7 +3246,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="117" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E117">
         <f>20+19+50</f>
         <v>89</v>
@@ -3277,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E118">
         <f>30</f>
         <v>30</v>
@@ -3297,7 +3286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E119">
         <f>20+40</f>
         <v>60</v>
@@ -3317,7 +3306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E120">
         <f>15+50+45+61+19</f>
         <v>190</v>
@@ -3337,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E121">
         <f>1000+20+13+1</f>
         <v>1034</v>
@@ -3360,7 +3349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E122">
         <f>160+20+15</f>
         <v>195</v>
@@ -3380,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E123">
         <f>18+20</f>
         <v>38</v>
@@ -3400,7 +3389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E124">
         <f>2</f>
         <v>2</v>
@@ -3420,7 +3409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E125">
         <f>104+20+13+108+145</f>
         <v>390</v>
@@ -3446,7 +3435,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="126" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E126">
         <v>30</v>
       </c>
@@ -3465,7 +3454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E127">
         <v>240</v>
       </c>
@@ -3487,7 +3476,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="128" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E128">
         <v>135</v>
       </c>
@@ -3509,7 +3498,7 @@
         <v>53000</v>
       </c>
     </row>
-    <row r="129" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E129">
         <f>50</f>
         <v>50</v>
@@ -3529,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E130">
         <f>80</f>
         <v>80</v>
@@ -3549,7 +3538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E131">
         <f>20</f>
         <v>20</v>
@@ -3569,7 +3558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E132">
         <f>132+20+10+28</f>
         <v>190</v>
@@ -3592,7 +3581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="5:16" x14ac:dyDescent="0.3">
       <c r="G133" t="s">
         <v>11</v>
       </c>
@@ -3608,7 +3597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E134">
         <f>33+318+50</f>
         <v>401</v>
@@ -3631,7 +3620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E135">
         <f>32+87</f>
         <v>119</v>
@@ -3654,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E136">
         <f>50+20</f>
         <v>70</v>
@@ -3674,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E137">
         <f>20+30</f>
         <v>50</v>
@@ -3694,7 +3683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E138">
         <f>1</f>
         <v>1</v>
@@ -3714,7 +3703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E139">
         <f>20+12+20</f>
         <v>52</v>
@@ -3734,7 +3723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E140">
         <f>50+81+15</f>
         <v>146</v>
@@ -3754,7 +3743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E141">
         <f>20+166.5+53+18</f>
         <v>257.5</v>
@@ -3777,7 +3766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E142">
         <f>18+20+74+130</f>
         <v>242</v>
@@ -3800,7 +3789,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="143" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E143">
         <v>30</v>
       </c>
@@ -3819,7 +3808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E144">
         <f>111+20+20</f>
         <v>151</v>
@@ -3839,7 +3828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E145">
         <f>94</f>
         <v>94</v>
@@ -3859,7 +3848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E146">
         <f>11</f>
         <v>11</v>
@@ -3879,7 +3868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E147">
         <f>720+19+72+7+189</f>
         <v>1007</v>
@@ -3902,7 +3891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E148">
         <v>2490</v>
       </c>
@@ -3924,7 +3913,7 @@
         <v>7118000</v>
       </c>
     </row>
-    <row r="149" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E149">
         <f>30+30+170</f>
         <v>230</v>
@@ -3944,7 +3933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E150">
         <f>100+47+15</f>
         <v>162</v>
@@ -3967,7 +3956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E151">
         <f>15+23+14+28</f>
         <v>80</v>
@@ -3987,7 +3976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E152">
         <f>15+29+30</f>
         <v>74</v>
@@ -4007,7 +3996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E153">
         <f>135+28+10+18</f>
         <v>191</v>
@@ -4027,7 +4016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E154">
         <f>6+9+20</f>
         <v>35</v>
@@ -4047,7 +4036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="5:16" x14ac:dyDescent="0.3">
       <c r="G155" t="s">
         <v>14</v>
       </c>
@@ -4060,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E156">
         <f>13+45+3590</f>
         <v>3648</v>
@@ -4080,7 +4069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E157">
         <f>35+92+140</f>
         <v>267</v>
@@ -4100,7 +4089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E158">
         <f>26+40+82</f>
         <v>148</v>
@@ -4120,7 +4109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E159">
         <f>50+20</f>
         <v>70</v>
@@ -4140,7 +4129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E160">
         <v>64</v>
       </c>
@@ -4159,7 +4148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E161">
         <f>50+20+15+15</f>
         <v>100</v>
@@ -4179,7 +4168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E162">
         <f>20+15</f>
         <v>35</v>
@@ -4199,7 +4188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E163">
         <f>48+45+15</f>
         <v>108</v>
@@ -4219,7 +4208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E164">
         <f>10+30+40+39</f>
         <v>119</v>
@@ -4240,7 +4229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="5:16" x14ac:dyDescent="0.3">
       <c r="G165" t="s">
         <v>1</v>
       </c>
@@ -4256,7 +4245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E166">
         <f>360+255+15</f>
         <v>630</v>
@@ -4276,7 +4265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="5:16" x14ac:dyDescent="0.3">
       <c r="G167" t="s">
         <v>7</v>
       </c>
@@ -4292,7 +4281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="5:16" x14ac:dyDescent="0.3">
       <c r="G168" t="s">
         <v>11</v>
       </c>
@@ -4308,7 +4297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="5:16" x14ac:dyDescent="0.3">
       <c r="G169" t="s">
         <v>14</v>
       </c>
@@ -4324,7 +4313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="5:16" x14ac:dyDescent="0.3">
       <c r="G170" t="s">
         <v>15</v>
       </c>
@@ -4340,7 +4329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="5:16" x14ac:dyDescent="0.3">
       <c r="G171" t="s">
         <v>19</v>
       </c>
@@ -4356,7 +4345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E172">
         <f>750+55+15</f>
         <v>820</v>
@@ -4376,7 +4365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="5:16" x14ac:dyDescent="0.3">
       <c r="G173" t="s">
         <v>8</v>
       </c>
@@ -4392,7 +4381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E174">
         <f>70+30+20+1</f>
         <v>121</v>
@@ -4415,7 +4404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="5:16" x14ac:dyDescent="0.3">
       <c r="G175" t="s">
         <v>11</v>
       </c>
@@ -4431,7 +4420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E176">
         <f>734.3+150+112+628+50+20+1570+85</f>
         <v>3349.3</v>
@@ -4454,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E177">
         <f>15+145+29</f>
         <v>189</v>
@@ -4477,7 +4466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E178">
         <f>20+12+10</f>
         <v>42</v>
@@ -4500,7 +4489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="5:16" x14ac:dyDescent="0.3">
       <c r="G179" t="s">
         <v>1</v>
       </c>
@@ -4516,7 +4505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E180">
         <v>220</v>
       </c>
@@ -4538,7 +4527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E181">
         <f>15+20+3+60+1</f>
         <v>99</v>
@@ -4561,7 +4550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E182">
         <f>10+30</f>
         <v>40</v>
@@ -4584,7 +4573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E183">
         <f>30</f>
         <v>30</v>
@@ -4604,7 +4593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E184">
         <f>90+9+10</f>
         <v>109</v>
@@ -4627,7 +4616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E185">
         <v>3</v>
       </c>
@@ -4646,7 +4635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E186">
         <f>5+6</f>
         <v>11</v>
@@ -4666,7 +4655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E187">
         <f>80+6</f>
         <v>86</v>
@@ -4689,7 +4678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E188">
         <f>11</f>
         <v>11</v>
@@ -4709,7 +4698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E189">
         <v>6</v>
       </c>
@@ -4728,7 +4717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E190">
         <f>6+20</f>
         <v>26</v>
@@ -4748,7 +4737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E191">
         <f>70+82+2+20</f>
         <v>174</v>
@@ -4768,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E192">
         <f>33+2</f>
         <v>35</v>
@@ -4788,7 +4777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E193">
         <f>20+50+1</f>
         <v>71</v>
@@ -4811,7 +4800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="5:16" x14ac:dyDescent="0.3">
       <c r="G194" t="s">
         <v>8</v>
       </c>
@@ -4827,7 +4816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="195" spans="5:16" x14ac:dyDescent="0.3">
       <c r="G195" t="s">
         <v>7</v>
       </c>
@@ -4843,7 +4832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="196" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E196">
         <f>85+15+65</f>
         <v>165</v>
@@ -4866,7 +4855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E197">
         <f>700+87+25</f>
         <v>812</v>
@@ -4889,7 +4878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E198">
         <f>50+2+20</f>
         <v>72</v>
@@ -4912,7 +4901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E199">
         <f>267+2+15</f>
         <v>284</v>
@@ -4935,7 +4924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="5:16" x14ac:dyDescent="0.3">
       <c r="G200" t="s">
         <v>1</v>
       </c>
@@ -4951,7 +4940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E201">
         <f>15</f>
         <v>15</v>
@@ -4971,7 +4960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E202">
         <f>1122+124</f>
         <v>1246</v>
@@ -4994,7 +4983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E203">
         <f>20</f>
         <v>20</v>
@@ -5014,7 +5003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="5:16" x14ac:dyDescent="0.3">
       <c r="G204" t="s">
         <v>14</v>
       </c>
@@ -5030,7 +5019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E205">
         <f>27+1645</f>
         <v>1672</v>
@@ -5050,7 +5039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E206">
         <f>50+69</f>
         <v>119</v>
@@ -5073,7 +5062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="207" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E207">
         <f>50+20+10+1150</f>
         <v>1230</v>
@@ -5093,7 +5082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="208" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E208">
         <f>18</f>
         <v>18</v>
@@ -5116,7 +5105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="209" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E209">
         <f>40+60+65+15</f>
         <v>180</v>
@@ -5139,7 +5128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="210" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E210">
         <f>52+2</f>
         <v>54</v>
@@ -5162,7 +5151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="211" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E211">
         <f>50+100+12+25</f>
         <v>187</v>
@@ -5185,7 +5174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="212" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E212">
         <f>20+2+10+40+18+19+500</f>
         <v>609</v>
@@ -5214,7 +5203,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="213" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="213" spans="5:17" x14ac:dyDescent="0.3">
       <c r="G213" t="s">
         <v>19</v>
       </c>
@@ -5230,7 +5219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="214" spans="5:17" x14ac:dyDescent="0.3">
       <c r="G214" t="s">
         <v>1</v>
       </c>
@@ -5246,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="215" spans="5:17" x14ac:dyDescent="0.3">
       <c r="G215" t="s">
         <v>8</v>
       </c>
@@ -5262,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="216" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E216">
         <f>220+2</f>
         <v>222</v>
@@ -5282,7 +5271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="217" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E217">
         <f>164+2</f>
         <v>166</v>
@@ -5305,7 +5294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="218" spans="5:17" x14ac:dyDescent="0.3">
       <c r="G218" t="s">
         <v>14</v>
       </c>
@@ -5321,7 +5310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="219" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E219">
         <f>2000+190+50</f>
         <v>2240</v>
@@ -5350,7 +5339,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="220" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="220" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E220">
         <f>20</f>
         <v>20</v>
@@ -5370,7 +5359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="221" spans="5:17" x14ac:dyDescent="0.3">
       <c r="G221" t="s">
         <v>1</v>
       </c>
@@ -5386,7 +5375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="222" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E222">
         <f>92+2</f>
         <v>94</v>
@@ -5409,7 +5398,7 @@
         <v>94000</v>
       </c>
     </row>
-    <row r="223" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="223" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E223">
         <f>15+2</f>
         <v>17</v>
@@ -5432,7 +5421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="224" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E224">
         <f>22</f>
         <v>22</v>
@@ -5455,7 +5444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="225" spans="5:16" x14ac:dyDescent="0.3">
       <c r="G225" t="s">
         <v>14</v>
       </c>
@@ -5474,7 +5463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="226" spans="5:16" x14ac:dyDescent="0.3">
       <c r="G226" t="s">
         <v>15</v>
       </c>
@@ -5490,7 +5479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="227" spans="5:16" x14ac:dyDescent="0.3">
       <c r="G227" t="s">
         <v>19</v>
       </c>
@@ -5502,7 +5491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="228" spans="5:16" x14ac:dyDescent="0.3">
       <c r="G228" t="s">
         <v>1</v>
       </c>
@@ -5514,7 +5503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="5:16" x14ac:dyDescent="0.3">
       <c r="G229" t="s">
         <v>8</v>
       </c>
@@ -5526,7 +5515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="230" spans="5:16" x14ac:dyDescent="0.3">
       <c r="G230" t="s">
         <v>7</v>
       </c>
@@ -5538,7 +5527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="231" spans="5:16" x14ac:dyDescent="0.3">
       <c r="G231" t="s">
         <v>11</v>
       </c>
@@ -5550,7 +5539,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="232" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E232">
+        <v>150</v>
+      </c>
       <c r="G232" t="s">
         <v>14</v>
       </c>
@@ -5562,7 +5554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="233" spans="5:16" x14ac:dyDescent="0.3">
       <c r="G233" t="s">
         <v>15</v>
       </c>
@@ -5574,7 +5566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="234" spans="5:16" x14ac:dyDescent="0.3">
       <c r="G234" t="s">
         <v>19</v>
       </c>
@@ -5586,7 +5578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="235" spans="5:16" x14ac:dyDescent="0.3">
       <c r="G235" t="s">
         <v>1</v>
       </c>
@@ -5598,7 +5590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="236" spans="5:16" x14ac:dyDescent="0.3">
       <c r="G236" t="s">
         <v>8</v>
       </c>
@@ -5610,7 +5602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="237" spans="5:16" x14ac:dyDescent="0.3">
       <c r="G237" t="s">
         <v>7</v>
       </c>
@@ -5622,7 +5614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="238" spans="5:16" x14ac:dyDescent="0.3">
       <c r="G238" t="s">
         <v>11</v>
       </c>
@@ -5634,7 +5626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="239" spans="5:16" x14ac:dyDescent="0.3">
       <c r="G239" t="s">
         <v>14</v>
       </c>
@@ -5643,13 +5635,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="240" spans="5:16" x14ac:dyDescent="0.3">
       <c r="P240" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="241" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P241" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -5672,17 +5664,17 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E7" s="11">
         <v>44998</v>
       </c>
@@ -5696,7 +5688,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E8" s="11">
         <v>44999</v>
       </c>

--- a/daily expenses.xlsx
+++ b/daily expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragon\Desktop\arduino\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DC0752-9135-4FF9-A6A5-190E8FC63F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C21E5E-3980-4BF1-B7A3-32500ADBD56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A3196714-F378-425A-955C-9ADFCD7F6A9A}"/>
   </bookViews>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="130">
   <si>
     <t>Tiền</t>
   </si>
@@ -475,6 +475,18 @@
   </si>
   <si>
     <t>20k thịt 2k nước đá</t>
+  </si>
+  <si>
+    <t>375K LẨU, 800K BHX</t>
+  </si>
+  <si>
+    <t>280k sửa xe, 10k xe buýt, 2k nước đá</t>
+  </si>
+  <si>
+    <t>821 điện nước, 20k thịt, 10k nước, 1k nước đá</t>
+  </si>
+  <si>
+    <t>415BHX, 185.5 XE, 2K NƯỚC ĐÁ</t>
   </si>
 </sst>
 </file>
@@ -874,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAE49B0-AACA-4A77-BE97-C23002D033D1}">
-  <dimension ref="D3:V241"/>
+  <dimension ref="D3:V462"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="M230" sqref="M230"/>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="K240" sqref="K240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4300,7 +4312,7 @@
         <v>44947</v>
       </c>
       <c r="I168" s="2">
-        <f t="shared" ref="I168:I226" si="5">E168*1000</f>
+        <f t="shared" ref="I168:I231" si="5">E168*1000</f>
         <v>0</v>
       </c>
       <c r="P168" s="2">
@@ -5404,10 +5416,7 @@
       <c r="J222" t="s">
         <v>123</v>
       </c>
-      <c r="P222" s="2">
-        <f>E222*1000</f>
-        <v>94000</v>
-      </c>
+      <c r="P222" s="2"/>
     </row>
     <row r="223" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E223">
@@ -5455,7 +5464,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="225" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E225">
+        <f>375+800</f>
+        <v>1175</v>
+      </c>
       <c r="G225" t="s">
         <v>14</v>
       </c>
@@ -5464,17 +5477,25 @@
       </c>
       <c r="I225" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1175000</v>
       </c>
       <c r="J225" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P225" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="226" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E226">
+        <f>280+10+2</f>
+        <v>292</v>
+      </c>
+      <c r="F226">
+        <f>240</f>
+        <v>240</v>
+      </c>
       <c r="G226" t="s">
         <v>15</v>
       </c>
@@ -5483,176 +5504,1397 @@
       </c>
       <c r="I226" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>292000</v>
+      </c>
+      <c r="J226" t="s">
+        <v>127</v>
       </c>
       <c r="P226" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="7:16" x14ac:dyDescent="0.25">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="227" spans="5:16" x14ac:dyDescent="0.25">
       <c r="G227" t="s">
         <v>19</v>
       </c>
       <c r="H227" s="1">
         <v>45006</v>
       </c>
+      <c r="I227" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="P227" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="228" spans="5:16" x14ac:dyDescent="0.25">
       <c r="G228" t="s">
         <v>1</v>
       </c>
       <c r="H228" s="1">
         <v>45007</v>
       </c>
+      <c r="I228" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="P228" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="5:16" x14ac:dyDescent="0.25">
       <c r="G229" t="s">
         <v>8</v>
       </c>
       <c r="H229" s="1">
         <v>45008</v>
       </c>
+      <c r="I229" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="P229" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="230" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E230">
+        <f>40</f>
+        <v>40</v>
+      </c>
       <c r="G230" t="s">
         <v>7</v>
       </c>
       <c r="H230" s="1">
         <v>45009</v>
       </c>
+      <c r="I230" s="2">
+        <f t="shared" si="5"/>
+        <v>40000</v>
+      </c>
       <c r="P230" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="231" spans="5:16" x14ac:dyDescent="0.25">
       <c r="G231" t="s">
         <v>11</v>
       </c>
       <c r="H231" s="1">
         <v>45010</v>
       </c>
+      <c r="I231" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="P231" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="232" spans="5:16" x14ac:dyDescent="0.25">
       <c r="G232" t="s">
         <v>14</v>
       </c>
       <c r="H232" s="1">
         <v>45011</v>
       </c>
+      <c r="I232" s="2">
+        <f t="shared" ref="I232:I245" si="7">E232*1000</f>
+        <v>0</v>
+      </c>
       <c r="P232" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="233" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E233">
+        <f>821+20+10+1</f>
+        <v>852</v>
+      </c>
+      <c r="F233">
+        <f>240</f>
+        <v>240</v>
+      </c>
       <c r="G233" t="s">
         <v>15</v>
       </c>
       <c r="H233" s="1">
         <v>45012</v>
       </c>
+      <c r="I233" s="2">
+        <f t="shared" si="7"/>
+        <v>852000</v>
+      </c>
+      <c r="J233" t="s">
+        <v>128</v>
+      </c>
       <c r="P233" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="7:16" x14ac:dyDescent="0.25">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="234" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E234">
+        <f>415+185.5+2</f>
+        <v>602.5</v>
+      </c>
       <c r="G234" t="s">
         <v>19</v>
       </c>
       <c r="H234" s="1">
         <v>45013</v>
       </c>
+      <c r="I234" s="2">
+        <f t="shared" si="7"/>
+        <v>602500</v>
+      </c>
+      <c r="J234" t="s">
+        <v>129</v>
+      </c>
       <c r="P234" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="235" spans="5:16" x14ac:dyDescent="0.25">
       <c r="G235" t="s">
         <v>1</v>
       </c>
       <c r="H235" s="1">
         <v>45014</v>
       </c>
+      <c r="I235" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="P235" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="236" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E236">
+        <v>40</v>
+      </c>
       <c r="G236" t="s">
         <v>8</v>
       </c>
       <c r="H236" s="1">
         <v>45015</v>
       </c>
+      <c r="I236" s="2">
+        <f t="shared" si="7"/>
+        <v>40000</v>
+      </c>
       <c r="P236" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="237" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E237">
+        <v>2</v>
+      </c>
       <c r="G237" t="s">
         <v>7</v>
       </c>
       <c r="H237" s="1">
         <v>45016</v>
       </c>
+      <c r="I237" s="2">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
       <c r="P237" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="238" spans="5:16" x14ac:dyDescent="0.25">
       <c r="G238" t="s">
         <v>11</v>
       </c>
       <c r="H238" s="1">
         <v>45017</v>
       </c>
+      <c r="I238" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="P238" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="239" spans="5:16" x14ac:dyDescent="0.25">
       <c r="G239" t="s">
         <v>14</v>
       </c>
+      <c r="H239" s="1">
+        <v>45018</v>
+      </c>
+      <c r="I239" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="P239" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="240" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="H240" s="1">
+        <v>45019</v>
+      </c>
+      <c r="I240" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="P240" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="241" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H241" s="1">
+        <v>45020</v>
+      </c>
+      <c r="I241" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="P241" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H242" s="1">
+        <v>45021</v>
+      </c>
+      <c r="I242" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H243" s="1">
+        <v>45022</v>
+      </c>
+      <c r="I243" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H244" s="1">
+        <v>45023</v>
+      </c>
+      <c r="I244" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H245" s="1">
+        <v>45024</v>
+      </c>
+      <c r="I245" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H246" s="1">
+        <v>45025</v>
+      </c>
+    </row>
+    <row r="247" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H247" s="1">
+        <v>45026</v>
+      </c>
+    </row>
+    <row r="248" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H248" s="1">
+        <v>45027</v>
+      </c>
+    </row>
+    <row r="249" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H249" s="1">
+        <v>45028</v>
+      </c>
+    </row>
+    <row r="250" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H250" s="1">
+        <v>45029</v>
+      </c>
+    </row>
+    <row r="251" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H251" s="1">
+        <v>45030</v>
+      </c>
+    </row>
+    <row r="252" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H252" s="1">
+        <v>45031</v>
+      </c>
+    </row>
+    <row r="253" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H253" s="1">
+        <v>45032</v>
+      </c>
+    </row>
+    <row r="254" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H254" s="1">
+        <v>45033</v>
+      </c>
+    </row>
+    <row r="255" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H255" s="1">
+        <v>45034</v>
+      </c>
+    </row>
+    <row r="256" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H256" s="1">
+        <v>45035</v>
+      </c>
+    </row>
+    <row r="257" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H257" s="1">
+        <v>45036</v>
+      </c>
+    </row>
+    <row r="258" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H258" s="1">
+        <v>45037</v>
+      </c>
+    </row>
+    <row r="259" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H259" s="1">
+        <v>45038</v>
+      </c>
+    </row>
+    <row r="260" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H260" s="1">
+        <v>45039</v>
+      </c>
+    </row>
+    <row r="261" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H261" s="1">
+        <v>45040</v>
+      </c>
+    </row>
+    <row r="262" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H262" s="1">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="263" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H263" s="1">
+        <v>45042</v>
+      </c>
+    </row>
+    <row r="264" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H264" s="1">
+        <v>45043</v>
+      </c>
+    </row>
+    <row r="265" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H265" s="1">
+        <v>45044</v>
+      </c>
+    </row>
+    <row r="266" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H266" s="1">
+        <v>45045</v>
+      </c>
+    </row>
+    <row r="267" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H267" s="1">
+        <v>45046</v>
+      </c>
+    </row>
+    <row r="268" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H268" s="1">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="269" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H269" s="1">
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="270" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H270" s="1">
+        <v>45049</v>
+      </c>
+    </row>
+    <row r="271" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H271" s="1">
+        <v>45050</v>
+      </c>
+    </row>
+    <row r="272" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H272" s="1">
+        <v>45051</v>
+      </c>
+    </row>
+    <row r="273" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H273" s="1">
+        <v>45052</v>
+      </c>
+    </row>
+    <row r="274" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H274" s="1">
+        <v>45053</v>
+      </c>
+    </row>
+    <row r="275" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H275" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="276" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H276" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="277" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H277" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="278" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H278" s="1">
+        <v>45057</v>
+      </c>
+    </row>
+    <row r="279" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H279" s="1">
+        <v>45058</v>
+      </c>
+    </row>
+    <row r="280" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H280" s="1">
+        <v>45059</v>
+      </c>
+    </row>
+    <row r="281" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H281" s="1">
+        <v>45060</v>
+      </c>
+    </row>
+    <row r="282" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H282" s="1">
+        <v>45061</v>
+      </c>
+    </row>
+    <row r="283" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H283" s="1">
+        <v>45062</v>
+      </c>
+    </row>
+    <row r="284" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H284" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="285" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H285" s="1">
+        <v>45064</v>
+      </c>
+    </row>
+    <row r="286" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H286" s="1">
+        <v>45065</v>
+      </c>
+    </row>
+    <row r="287" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H287" s="1">
+        <v>45066</v>
+      </c>
+    </row>
+    <row r="288" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H288" s="1">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="289" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H289" s="1">
+        <v>45068</v>
+      </c>
+    </row>
+    <row r="290" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H290" s="1">
+        <v>45069</v>
+      </c>
+    </row>
+    <row r="291" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H291" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="292" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H292" s="1">
+        <v>45071</v>
+      </c>
+    </row>
+    <row r="293" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H293" s="1">
+        <v>45072</v>
+      </c>
+    </row>
+    <row r="294" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H294" s="1">
+        <v>45073</v>
+      </c>
+    </row>
+    <row r="295" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H295" s="1">
+        <v>45074</v>
+      </c>
+    </row>
+    <row r="296" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H296" s="1">
+        <v>45075</v>
+      </c>
+    </row>
+    <row r="297" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H297" s="1">
+        <v>45076</v>
+      </c>
+    </row>
+    <row r="298" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H298" s="1">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="299" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H299" s="1">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="300" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H300" s="1">
+        <v>45079</v>
+      </c>
+    </row>
+    <row r="301" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H301" s="1">
+        <v>45080</v>
+      </c>
+    </row>
+    <row r="302" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H302" s="1">
+        <v>45081</v>
+      </c>
+    </row>
+    <row r="303" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H303" s="1">
+        <v>45082</v>
+      </c>
+    </row>
+    <row r="304" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H304" s="1">
+        <v>45083</v>
+      </c>
+    </row>
+    <row r="305" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H305" s="1">
+        <v>45084</v>
+      </c>
+    </row>
+    <row r="306" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H306" s="1">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="307" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H307" s="1">
+        <v>45086</v>
+      </c>
+    </row>
+    <row r="308" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H308" s="1">
+        <v>45087</v>
+      </c>
+    </row>
+    <row r="309" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H309" s="1">
+        <v>45088</v>
+      </c>
+    </row>
+    <row r="310" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H310" s="1">
+        <v>45089</v>
+      </c>
+    </row>
+    <row r="311" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H311" s="1">
+        <v>45090</v>
+      </c>
+    </row>
+    <row r="312" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H312" s="1">
+        <v>45091</v>
+      </c>
+    </row>
+    <row r="313" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H313" s="1">
+        <v>45092</v>
+      </c>
+    </row>
+    <row r="314" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H314" s="1">
+        <v>45093</v>
+      </c>
+    </row>
+    <row r="315" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H315" s="1">
+        <v>45094</v>
+      </c>
+    </row>
+    <row r="316" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H316" s="1">
+        <v>45095</v>
+      </c>
+    </row>
+    <row r="317" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H317" s="1">
+        <v>45096</v>
+      </c>
+    </row>
+    <row r="318" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H318" s="1">
+        <v>45097</v>
+      </c>
+    </row>
+    <row r="319" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H319" s="1">
+        <v>45098</v>
+      </c>
+    </row>
+    <row r="320" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H320" s="1">
+        <v>45099</v>
+      </c>
+    </row>
+    <row r="321" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H321" s="1">
+        <v>45100</v>
+      </c>
+    </row>
+    <row r="322" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H322" s="1">
+        <v>45101</v>
+      </c>
+    </row>
+    <row r="323" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H323" s="1">
+        <v>45102</v>
+      </c>
+    </row>
+    <row r="324" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H324" s="1">
+        <v>45103</v>
+      </c>
+    </row>
+    <row r="325" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H325" s="1">
+        <v>45104</v>
+      </c>
+    </row>
+    <row r="326" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H326" s="1">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="327" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H327" s="1">
+        <v>45106</v>
+      </c>
+    </row>
+    <row r="328" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H328" s="1">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="329" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H329" s="1">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="330" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H330" s="1">
+        <v>45109</v>
+      </c>
+    </row>
+    <row r="331" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H331" s="1">
+        <v>45110</v>
+      </c>
+    </row>
+    <row r="332" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H332" s="1">
+        <v>45111</v>
+      </c>
+    </row>
+    <row r="333" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H333" s="1">
+        <v>45112</v>
+      </c>
+    </row>
+    <row r="334" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H334" s="1">
+        <v>45113</v>
+      </c>
+    </row>
+    <row r="335" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H335" s="1">
+        <v>45114</v>
+      </c>
+    </row>
+    <row r="336" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H336" s="1">
+        <v>45115</v>
+      </c>
+    </row>
+    <row r="337" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H337" s="1">
+        <v>45116</v>
+      </c>
+    </row>
+    <row r="338" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H338" s="1">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="339" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H339" s="1">
+        <v>45118</v>
+      </c>
+    </row>
+    <row r="340" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H340" s="1">
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="341" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H341" s="1">
+        <v>45120</v>
+      </c>
+    </row>
+    <row r="342" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H342" s="1">
+        <v>45121</v>
+      </c>
+    </row>
+    <row r="343" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H343" s="1">
+        <v>45122</v>
+      </c>
+    </row>
+    <row r="344" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H344" s="1">
+        <v>45123</v>
+      </c>
+    </row>
+    <row r="345" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H345" s="1">
+        <v>45124</v>
+      </c>
+    </row>
+    <row r="346" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H346" s="1">
+        <v>45125</v>
+      </c>
+    </row>
+    <row r="347" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H347" s="1">
+        <v>45126</v>
+      </c>
+    </row>
+    <row r="348" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H348" s="1">
+        <v>45127</v>
+      </c>
+    </row>
+    <row r="349" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H349" s="1">
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="350" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H350" s="1">
+        <v>45129</v>
+      </c>
+    </row>
+    <row r="351" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H351" s="1">
+        <v>45130</v>
+      </c>
+    </row>
+    <row r="352" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H352" s="1">
+        <v>45131</v>
+      </c>
+    </row>
+    <row r="353" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H353" s="1">
+        <v>45132</v>
+      </c>
+    </row>
+    <row r="354" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H354" s="1">
+        <v>45133</v>
+      </c>
+    </row>
+    <row r="355" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H355" s="1">
+        <v>45134</v>
+      </c>
+    </row>
+    <row r="356" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H356" s="1">
+        <v>45135</v>
+      </c>
+    </row>
+    <row r="357" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H357" s="1">
+        <v>45136</v>
+      </c>
+    </row>
+    <row r="358" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H358" s="1">
+        <v>45137</v>
+      </c>
+    </row>
+    <row r="359" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H359" s="1">
+        <v>45138</v>
+      </c>
+    </row>
+    <row r="360" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H360" s="1">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="361" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H361" s="1">
+        <v>45140</v>
+      </c>
+    </row>
+    <row r="362" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H362" s="1">
+        <v>45141</v>
+      </c>
+    </row>
+    <row r="363" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H363" s="1">
+        <v>45142</v>
+      </c>
+    </row>
+    <row r="364" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H364" s="1">
+        <v>45143</v>
+      </c>
+    </row>
+    <row r="365" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H365" s="1">
+        <v>45144</v>
+      </c>
+    </row>
+    <row r="366" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H366" s="1">
+        <v>45145</v>
+      </c>
+    </row>
+    <row r="367" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H367" s="1">
+        <v>45146</v>
+      </c>
+    </row>
+    <row r="368" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H368" s="1">
+        <v>45147</v>
+      </c>
+    </row>
+    <row r="369" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H369" s="1">
+        <v>45148</v>
+      </c>
+    </row>
+    <row r="370" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H370" s="1">
+        <v>45149</v>
+      </c>
+    </row>
+    <row r="371" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H371" s="1">
+        <v>45150</v>
+      </c>
+    </row>
+    <row r="372" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H372" s="1">
+        <v>45151</v>
+      </c>
+    </row>
+    <row r="373" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H373" s="1">
+        <v>45152</v>
+      </c>
+    </row>
+    <row r="374" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H374" s="1">
+        <v>45153</v>
+      </c>
+    </row>
+    <row r="375" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H375" s="1">
+        <v>45154</v>
+      </c>
+    </row>
+    <row r="376" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H376" s="1">
+        <v>45155</v>
+      </c>
+    </row>
+    <row r="377" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H377" s="1">
+        <v>45156</v>
+      </c>
+    </row>
+    <row r="378" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H378" s="1">
+        <v>45157</v>
+      </c>
+    </row>
+    <row r="379" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H379" s="1">
+        <v>45158</v>
+      </c>
+    </row>
+    <row r="380" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H380" s="1">
+        <v>45159</v>
+      </c>
+    </row>
+    <row r="381" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H381" s="1">
+        <v>45160</v>
+      </c>
+    </row>
+    <row r="382" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H382" s="1">
+        <v>45161</v>
+      </c>
+    </row>
+    <row r="383" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H383" s="1">
+        <v>45162</v>
+      </c>
+    </row>
+    <row r="384" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H384" s="1">
+        <v>45163</v>
+      </c>
+    </row>
+    <row r="385" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H385" s="1">
+        <v>45164</v>
+      </c>
+    </row>
+    <row r="386" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H386" s="1">
+        <v>45165</v>
+      </c>
+    </row>
+    <row r="387" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H387" s="1">
+        <v>45166</v>
+      </c>
+    </row>
+    <row r="388" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H388" s="1">
+        <v>45167</v>
+      </c>
+    </row>
+    <row r="389" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H389" s="1">
+        <v>45168</v>
+      </c>
+    </row>
+    <row r="390" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H390" s="1">
+        <v>45169</v>
+      </c>
+    </row>
+    <row r="391" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H391" s="1">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="392" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H392" s="1">
+        <v>45171</v>
+      </c>
+    </row>
+    <row r="393" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H393" s="1">
+        <v>45172</v>
+      </c>
+    </row>
+    <row r="394" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H394" s="1">
+        <v>45173</v>
+      </c>
+    </row>
+    <row r="395" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H395" s="1">
+        <v>45174</v>
+      </c>
+    </row>
+    <row r="396" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H396" s="1">
+        <v>45175</v>
+      </c>
+    </row>
+    <row r="397" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H397" s="1">
+        <v>45176</v>
+      </c>
+    </row>
+    <row r="398" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H398" s="1">
+        <v>45177</v>
+      </c>
+    </row>
+    <row r="399" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H399" s="1">
+        <v>45178</v>
+      </c>
+    </row>
+    <row r="400" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H400" s="1">
+        <v>45179</v>
+      </c>
+    </row>
+    <row r="401" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H401" s="1">
+        <v>45180</v>
+      </c>
+    </row>
+    <row r="402" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H402" s="1">
+        <v>45181</v>
+      </c>
+    </row>
+    <row r="403" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H403" s="1">
+        <v>45182</v>
+      </c>
+    </row>
+    <row r="404" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H404" s="1">
+        <v>45183</v>
+      </c>
+    </row>
+    <row r="405" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H405" s="1">
+        <v>45184</v>
+      </c>
+    </row>
+    <row r="406" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H406" s="1">
+        <v>45185</v>
+      </c>
+    </row>
+    <row r="407" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H407" s="1">
+        <v>45186</v>
+      </c>
+    </row>
+    <row r="408" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H408" s="1">
+        <v>45187</v>
+      </c>
+    </row>
+    <row r="409" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H409" s="1">
+        <v>45188</v>
+      </c>
+    </row>
+    <row r="410" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H410" s="1">
+        <v>45189</v>
+      </c>
+    </row>
+    <row r="411" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H411" s="1">
+        <v>45190</v>
+      </c>
+    </row>
+    <row r="412" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H412" s="1">
+        <v>45191</v>
+      </c>
+    </row>
+    <row r="413" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H413" s="1">
+        <v>45192</v>
+      </c>
+    </row>
+    <row r="414" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H414" s="1">
+        <v>45193</v>
+      </c>
+    </row>
+    <row r="415" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H415" s="1">
+        <v>45194</v>
+      </c>
+    </row>
+    <row r="416" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H416" s="1">
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="417" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H417" s="1">
+        <v>45196</v>
+      </c>
+    </row>
+    <row r="418" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H418" s="1">
+        <v>45197</v>
+      </c>
+    </row>
+    <row r="419" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H419" s="1">
+        <v>45198</v>
+      </c>
+    </row>
+    <row r="420" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H420" s="1">
+        <v>45199</v>
+      </c>
+    </row>
+    <row r="421" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H421" s="1">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="422" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H422" s="1">
+        <v>45201</v>
+      </c>
+    </row>
+    <row r="423" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H423" s="1">
+        <v>45202</v>
+      </c>
+    </row>
+    <row r="424" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H424" s="1">
+        <v>45203</v>
+      </c>
+    </row>
+    <row r="425" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H425" s="1">
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="426" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H426" s="1">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="427" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H427" s="1">
+        <v>45206</v>
+      </c>
+    </row>
+    <row r="428" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H428" s="1">
+        <v>45207</v>
+      </c>
+    </row>
+    <row r="429" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H429" s="1">
+        <v>45208</v>
+      </c>
+    </row>
+    <row r="430" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H430" s="1">
+        <v>45209</v>
+      </c>
+    </row>
+    <row r="431" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H431" s="1">
+        <v>45210</v>
+      </c>
+    </row>
+    <row r="432" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H432" s="1">
+        <v>45211</v>
+      </c>
+    </row>
+    <row r="433" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H433" s="1">
+        <v>45212</v>
+      </c>
+    </row>
+    <row r="434" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H434" s="1">
+        <v>45213</v>
+      </c>
+    </row>
+    <row r="435" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H435" s="1">
+        <v>45214</v>
+      </c>
+    </row>
+    <row r="436" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H436" s="1">
+        <v>45215</v>
+      </c>
+    </row>
+    <row r="437" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H437" s="1">
+        <v>45216</v>
+      </c>
+    </row>
+    <row r="438" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H438" s="1">
+        <v>45217</v>
+      </c>
+    </row>
+    <row r="439" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H439" s="1">
+        <v>45218</v>
+      </c>
+    </row>
+    <row r="440" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H440" s="1">
+        <v>45219</v>
+      </c>
+    </row>
+    <row r="441" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H441" s="1">
+        <v>45220</v>
+      </c>
+    </row>
+    <row r="442" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H442" s="1">
+        <v>45221</v>
+      </c>
+    </row>
+    <row r="443" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H443" s="1">
+        <v>45222</v>
+      </c>
+    </row>
+    <row r="444" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H444" s="1">
+        <v>45223</v>
+      </c>
+    </row>
+    <row r="445" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H445" s="1">
+        <v>45224</v>
+      </c>
+    </row>
+    <row r="446" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H446" s="1">
+        <v>45225</v>
+      </c>
+    </row>
+    <row r="447" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H447" s="1">
+        <v>45226</v>
+      </c>
+    </row>
+    <row r="448" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H448" s="1">
+        <v>45227</v>
+      </c>
+    </row>
+    <row r="449" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H449" s="1">
+        <v>45228</v>
+      </c>
+    </row>
+    <row r="450" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H450" s="1">
+        <v>45229</v>
+      </c>
+    </row>
+    <row r="451" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H451" s="1">
+        <v>45230</v>
+      </c>
+    </row>
+    <row r="452" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H452" s="1">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="453" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H453" s="1">
+        <v>45232</v>
+      </c>
+    </row>
+    <row r="454" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H454" s="1">
+        <v>45233</v>
+      </c>
+    </row>
+    <row r="455" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H455" s="1">
+        <v>45234</v>
+      </c>
+    </row>
+    <row r="456" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H456" s="1">
+        <v>45235</v>
+      </c>
+    </row>
+    <row r="457" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H457" s="1">
+        <v>45236</v>
+      </c>
+    </row>
+    <row r="458" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H458" s="1">
+        <v>45237</v>
+      </c>
+    </row>
+    <row r="459" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H459" s="1">
+        <v>45238</v>
+      </c>
+    </row>
+    <row r="460" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H460" s="1">
+        <v>45239</v>
+      </c>
+    </row>
+    <row r="461" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H461" s="1">
+        <v>45240</v>
+      </c>
+    </row>
+    <row r="462" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H462" s="1">
+        <v>45241</v>
       </c>
     </row>
   </sheetData>
